--- a/SOFTWARE/Thermal/1D forloops/layup2.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/layup2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>q/q0</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>mtotal</t>
+  </si>
+  <si>
+    <t>heatflux_out_d9_just_orbit</t>
+  </si>
+  <si>
+    <t>heatflux_out_d9_one_time</t>
+  </si>
+  <si>
+    <t>heatflux_out_d15_one_time</t>
+  </si>
+  <si>
+    <t>heatflux_out_d15_just_orbit</t>
+  </si>
+  <si>
+    <t>justorbit</t>
+  </si>
+  <si>
+    <t>onetime</t>
   </si>
 </sst>
 </file>
@@ -209,11 +227,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62920576"/>
-        <c:axId val="62922112"/>
+        <c:axId val="141268864"/>
+        <c:axId val="141270400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62920576"/>
+        <c:axId val="141268864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -223,12 +241,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62922112"/>
+        <c:crossAx val="141270400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62922112"/>
+        <c:axId val="141270400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -239,7 +257,367 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62920576"/>
+        <c:crossAx val="141268864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>just_orbit</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$6:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4584000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92954000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75072000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>one_time</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$10:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6903000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6086999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1726000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="71639424"/>
+        <c:axId val="71637632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="71639424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71637632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="71637632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71639424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>just_orbit</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>625.58660174639692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1275.1950775592029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>657.0531079240177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>764.1398855565493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>one_time</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$10:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>684.59796399216236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1180.1480767804358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>728.13478330414023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1193.5614207742028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="74289920"/>
+        <c:axId val="74267648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74289920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74267648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="74267648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74289920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -288,6 +666,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413657</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119742</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -583,20 +1021,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P526"/>
+  <dimension ref="B2:V526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -616,7 +1057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>0.25</v>
       </c>
@@ -654,7 +1095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
@@ -692,7 +1133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0.75</v>
       </c>
@@ -733,8 +1174,22 @@
       <c r="P6">
         <v>366</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <f>M10</f>
+        <v>2.4584000000000001</v>
+      </c>
+      <c r="V6">
+        <f>U6*T6*T6*PI()</f>
+        <v>625.58660174639692</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>0.9</v>
       </c>
@@ -775,8 +1230,19 @@
       <c r="P7">
         <v>361</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>12</v>
+      </c>
+      <c r="U7">
+        <f>M6</f>
+        <v>2.8188</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:V13" si="0">U7*T7*T7*PI()</f>
+        <v>1275.1950775592029</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -817,8 +1283,19 @@
       <c r="P8">
         <v>164</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>15</v>
+      </c>
+      <c r="U8">
+        <f>M12</f>
+        <v>0.92954000000000003</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>657.0531079240177</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -844,7 +1321,7 @@
         <v>4.0385999999999997</v>
       </c>
       <c r="L9">
-        <v>5.0799999999999998E-2</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="M9">
         <v>1.1726000000000001</v>
@@ -859,8 +1336,19 @@
       <c r="P9">
         <v>159</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>18</v>
+      </c>
+      <c r="U9">
+        <f>M8</f>
+        <v>0.75072000000000005</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>764.1398855565493</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>1.25</v>
       </c>
@@ -876,8 +1364,47 @@
       <c r="G10">
         <v>2.4215</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>1.7525999999999999</v>
+      </c>
+      <c r="K10">
+        <v>8.0009999999999994</v>
+      </c>
+      <c r="L10">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="M10">
+        <v>2.4584000000000001</v>
+      </c>
+      <c r="N10">
+        <f>M10*9^2*PI()</f>
+        <v>625.58660174639692</v>
+      </c>
+      <c r="O10">
+        <v>69</v>
+      </c>
+      <c r="P10">
+        <v>315</v>
+      </c>
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <f>M11</f>
+        <v>2.6903000000000001</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>684.59796399216236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>1.4</v>
       </c>
@@ -893,17 +1420,125 @@
       <c r="G11">
         <v>2.6808000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>1.8795999999999999</v>
+      </c>
+      <c r="K11">
+        <v>9.1186000000000007</v>
+      </c>
+      <c r="L11">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="M11">
+        <v>2.6903000000000001</v>
+      </c>
+      <c r="N11">
+        <f>M11*9^2*PI()</f>
+        <v>684.59796399216225</v>
+      </c>
+      <c r="O11">
+        <v>74</v>
+      </c>
+      <c r="P11">
+        <v>359</v>
+      </c>
+      <c r="T11">
+        <v>12</v>
+      </c>
+      <c r="U11">
+        <f>M7</f>
+        <v>2.6086999999999998</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1180.1480767804358</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0.254</v>
+      </c>
+      <c r="K12">
+        <v>5.7911999999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.92954000000000003</v>
+      </c>
+      <c r="N12">
+        <f>M12*15^2*PI()</f>
+        <v>657.0531079240177</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>228</v>
+      </c>
+      <c r="T12">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <f>M13</f>
+        <v>1.0301</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>728.13478330414023</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>0.254</v>
+      </c>
+      <c r="K13">
+        <v>6.7055999999999996</v>
+      </c>
+      <c r="L13">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="M13">
+        <v>1.0301</v>
+      </c>
+      <c r="N13">
+        <f>M13*15^2*PI()</f>
+        <v>728.13478330414034</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>264</v>
+      </c>
+      <c r="T13">
+        <v>18</v>
+      </c>
+      <c r="U13">
+        <f>M9</f>
+        <v>1.1726000000000001</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>1193.5614207742028</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -943,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C29" si="0">C$20*B22</f>
+        <f t="shared" ref="C22:C29" si="1">C$20*B22</f>
         <v>5.08</v>
       </c>
     </row>
@@ -952,7 +1587,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.62</v>
       </c>
     </row>
@@ -961,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.16</v>
       </c>
     </row>
@@ -970,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.7</v>
       </c>
     </row>
@@ -979,7 +1614,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.24</v>
       </c>
     </row>
@@ -988,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.78</v>
       </c>
       <c r="E27">
@@ -999,7 +1634,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G34" si="1">G28-G$36/10</f>
+        <f t="shared" ref="G27:G34" si="2">G28-G$36/10</f>
         <v>2.5399999999999964E-2</v>
       </c>
     </row>
@@ -1008,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.32</v>
       </c>
       <c r="E28">
@@ -1019,7 +1654,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0799999999999963E-2</v>
       </c>
     </row>
@@ -1028,18 +1663,18 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.86</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F92" si="2">E29*0.0254</f>
+        <f t="shared" ref="F29:F92" si="3">E29*0.0254</f>
         <v>7.619999999999999E-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6199999999999962E-2</v>
       </c>
     </row>
@@ -1048,11 +1683,11 @@
         <v>4</v>
       </c>
       <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.1016</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="2"/>
-        <v>0.1016</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
         <v>0.10159999999999997</v>
       </c>
     </row>
@@ -1061,11 +1696,11 @@
         <v>5</v>
       </c>
       <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.127</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="2"/>
-        <v>0.127</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
         <v>0.12699999999999997</v>
       </c>
     </row>
@@ -1074,11 +1709,11 @@
         <v>6</v>
       </c>
       <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.15239999999999998</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="2"/>
-        <v>0.15239999999999998</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
         <v>0.15239999999999998</v>
       </c>
     </row>
@@ -1087,11 +1722,11 @@
         <v>7</v>
       </c>
       <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.17779999999999999</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="2"/>
-        <v>0.17779999999999999</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
         <v>0.17779999999999999</v>
       </c>
     </row>
@@ -1100,11 +1735,11 @@
         <v>8</v>
       </c>
       <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="2"/>
-        <v>0.20319999999999999</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
         <v>0.20319999999999999</v>
       </c>
     </row>
@@ -1113,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2286</v>
       </c>
       <c r="G35">
@@ -1126,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.254</v>
       </c>
       <c r="G36">
@@ -1138,11 +1773,11 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27939999999999998</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G100" si="3">G36+G$36/10</f>
+        <f t="shared" ref="G37:G100" si="4">G36+G$36/10</f>
         <v>0.27939999999999998</v>
       </c>
     </row>
@@ -1151,11 +1786,11 @@
         <v>12</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30479999999999996</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30479999999999996</v>
       </c>
     </row>
@@ -1164,11 +1799,11 @@
         <v>13</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33019999999999999</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33019999999999994</v>
       </c>
     </row>
@@ -1177,11 +1812,11 @@
         <v>14</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35559999999999997</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35559999999999992</v>
       </c>
     </row>
@@ -1190,11 +1825,11 @@
         <v>15</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38099999999999989</v>
       </c>
     </row>
@@ -1203,11 +1838,11 @@
         <v>16</v>
       </c>
       <c r="F42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40639999999999998</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40639999999999987</v>
       </c>
     </row>
@@ -1216,11 +1851,11 @@
         <v>17</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43179999999999996</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43179999999999985</v>
       </c>
     </row>
@@ -1229,11 +1864,11 @@
         <v>18</v>
       </c>
       <c r="F44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4572</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.45719999999999983</v>
       </c>
     </row>
@@ -1242,11 +1877,11 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48259999999999997</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48259999999999981</v>
       </c>
     </row>
@@ -1255,11 +1890,11 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50799999999999979</v>
       </c>
     </row>
@@ -1268,11 +1903,11 @@
         <v>21</v>
       </c>
       <c r="F47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53339999999999999</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53339999999999976</v>
       </c>
     </row>
@@ -1281,11 +1916,11 @@
         <v>22</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55879999999999996</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55879999999999974</v>
       </c>
     </row>
@@ -1294,11 +1929,11 @@
         <v>23</v>
       </c>
       <c r="F49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58419999999999994</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58419999999999972</v>
       </c>
     </row>
@@ -1307,11 +1942,11 @@
         <v>24</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60959999999999992</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6095999999999997</v>
       </c>
     </row>
@@ -1320,11 +1955,11 @@
         <v>25</v>
       </c>
       <c r="F51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63499999999999968</v>
       </c>
     </row>
@@ -1333,11 +1968,11 @@
         <v>26</v>
       </c>
       <c r="F52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66039999999999999</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66039999999999965</v>
       </c>
     </row>
@@ -1346,11 +1981,11 @@
         <v>27</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.68579999999999997</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68579999999999963</v>
       </c>
     </row>
@@ -1359,11 +1994,11 @@
         <v>28</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71119999999999994</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71119999999999961</v>
       </c>
     </row>
@@ -1372,11 +2007,11 @@
         <v>29</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73659999999999992</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73659999999999959</v>
       </c>
     </row>
@@ -1385,11 +2020,11 @@
         <v>30</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76199999999999957</v>
       </c>
     </row>
@@ -1398,11 +2033,11 @@
         <v>31</v>
       </c>
       <c r="F57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78739999999999999</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78739999999999954</v>
       </c>
     </row>
@@ -1411,11 +2046,11 @@
         <v>32</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81279999999999997</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.81279999999999952</v>
       </c>
     </row>
@@ -1424,11 +2059,11 @@
         <v>33</v>
       </c>
       <c r="F59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.83819999999999995</v>
       </c>
       <c r="G59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8381999999999995</v>
       </c>
     </row>
@@ -1437,11 +2072,11 @@
         <v>34</v>
       </c>
       <c r="F60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86359999999999992</v>
       </c>
       <c r="G60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86359999999999948</v>
       </c>
     </row>
@@ -1450,11 +2085,11 @@
         <v>35</v>
       </c>
       <c r="F61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88900000000000001</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88899999999999946</v>
       </c>
     </row>
@@ -1463,11 +2098,11 @@
         <v>36</v>
       </c>
       <c r="F62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91439999999999999</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91439999999999944</v>
       </c>
     </row>
@@ -1476,11 +2111,11 @@
         <v>37</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93979999999999997</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93979999999999941</v>
       </c>
     </row>
@@ -1489,11 +2124,11 @@
         <v>38</v>
       </c>
       <c r="F64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96519999999999995</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96519999999999939</v>
       </c>
     </row>
@@ -1502,11 +2137,11 @@
         <v>39</v>
       </c>
       <c r="F65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99059999999999993</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99059999999999937</v>
       </c>
     </row>
@@ -1515,11 +2150,11 @@
         <v>40</v>
       </c>
       <c r="F66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.016</v>
       </c>
       <c r="G66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0159999999999993</v>
       </c>
     </row>
@@ -1528,11 +2163,11 @@
         <v>41</v>
       </c>
       <c r="F67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0413999999999999</v>
       </c>
       <c r="G67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0413999999999994</v>
       </c>
     </row>
@@ -1541,11 +2176,11 @@
         <v>42</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0668</v>
       </c>
       <c r="G68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0667999999999995</v>
       </c>
     </row>
@@ -1554,11 +2189,11 @@
         <v>43</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0922000000000001</v>
       </c>
       <c r="G69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0921999999999996</v>
       </c>
     </row>
@@ -1567,11 +2202,11 @@
         <v>44</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1175999999999999</v>
       </c>
       <c r="G70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1175999999999997</v>
       </c>
     </row>
@@ -1580,11 +2215,11 @@
         <v>45</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.143</v>
       </c>
       <c r="G71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1429999999999998</v>
       </c>
     </row>
@@ -1593,11 +2228,11 @@
         <v>46</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1683999999999999</v>
       </c>
       <c r="G72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1683999999999999</v>
       </c>
     </row>
@@ -1606,11 +2241,11 @@
         <v>47</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1938</v>
       </c>
       <c r="G73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1938</v>
       </c>
     </row>
@@ -1619,11 +2254,11 @@
         <v>48</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2191999999999998</v>
       </c>
       <c r="G74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2192000000000001</v>
       </c>
     </row>
@@ -1632,11 +2267,11 @@
         <v>49</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2445999999999999</v>
       </c>
       <c r="G75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2446000000000002</v>
       </c>
     </row>
@@ -1645,11 +2280,11 @@
         <v>50</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.27</v>
       </c>
       <c r="G76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2700000000000002</v>
       </c>
     </row>
@@ -1658,11 +2293,11 @@
         <v>51</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2953999999999999</v>
       </c>
       <c r="G77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2954000000000003</v>
       </c>
     </row>
@@ -1671,11 +2306,11 @@
         <v>52</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3208</v>
       </c>
       <c r="G78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3208000000000004</v>
       </c>
     </row>
@@ -1684,11 +2319,11 @@
         <v>53</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3461999999999998</v>
       </c>
       <c r="G79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3462000000000005</v>
       </c>
     </row>
@@ -1697,11 +2332,11 @@
         <v>54</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3715999999999999</v>
       </c>
       <c r="G80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3716000000000006</v>
       </c>
     </row>
@@ -1710,11 +2345,11 @@
         <v>55</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.397</v>
       </c>
       <c r="G81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3970000000000007</v>
       </c>
     </row>
@@ -1723,11 +2358,11 @@
         <v>56</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4223999999999999</v>
       </c>
       <c r="G82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4224000000000008</v>
       </c>
     </row>
@@ -1736,11 +2371,11 @@
         <v>57</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4478</v>
       </c>
       <c r="G83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4478000000000009</v>
       </c>
     </row>
@@ -1749,11 +2384,11 @@
         <v>58</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4731999999999998</v>
       </c>
       <c r="G84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.473200000000001</v>
       </c>
     </row>
@@ -1762,11 +2397,11 @@
         <v>59</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4985999999999999</v>
       </c>
       <c r="G85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.498600000000001</v>
       </c>
     </row>
@@ -1775,11 +2410,11 @@
         <v>60</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.524</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5240000000000011</v>
       </c>
     </row>
@@ -1788,11 +2423,11 @@
         <v>61</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5493999999999999</v>
       </c>
       <c r="G87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5494000000000012</v>
       </c>
     </row>
@@ -1801,11 +2436,11 @@
         <v>62</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5748</v>
       </c>
       <c r="G88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5748000000000013</v>
       </c>
     </row>
@@ -1814,11 +2449,11 @@
         <v>63</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6001999999999998</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6002000000000014</v>
       </c>
     </row>
@@ -1827,11 +2462,11 @@
         <v>64</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6255999999999999</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6256000000000015</v>
       </c>
     </row>
@@ -1840,11 +2475,11 @@
         <v>65</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.651</v>
       </c>
       <c r="G91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6510000000000016</v>
       </c>
     </row>
@@ -1853,11 +2488,11 @@
         <v>66</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6763999999999999</v>
       </c>
       <c r="G92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6764000000000017</v>
       </c>
     </row>
@@ -1866,11 +2501,11 @@
         <v>67</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:F156" si="4">E93*0.0254</f>
+        <f t="shared" ref="F93:F156" si="5">E93*0.0254</f>
         <v>1.7018</v>
       </c>
       <c r="G93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7018000000000018</v>
       </c>
     </row>
@@ -1879,11 +2514,11 @@
         <v>68</v>
       </c>
       <c r="F94">
+        <f t="shared" si="5"/>
+        <v>1.7271999999999998</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="4"/>
-        <v>1.7271999999999998</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="3"/>
         <v>1.7272000000000018</v>
       </c>
     </row>
@@ -1892,11 +2527,11 @@
         <v>69</v>
       </c>
       <c r="F95">
+        <f t="shared" si="5"/>
+        <v>1.7525999999999999</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="4"/>
-        <v>1.7525999999999999</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="3"/>
         <v>1.7526000000000019</v>
       </c>
     </row>
@@ -1905,11 +2540,11 @@
         <v>70</v>
       </c>
       <c r="F96">
+        <f t="shared" si="5"/>
+        <v>1.778</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="4"/>
-        <v>1.778</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="3"/>
         <v>1.778000000000002</v>
       </c>
     </row>
@@ -1918,11 +2553,11 @@
         <v>71</v>
       </c>
       <c r="F97">
+        <f t="shared" si="5"/>
+        <v>1.8033999999999999</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="4"/>
-        <v>1.8033999999999999</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="3"/>
         <v>1.8034000000000021</v>
       </c>
     </row>
@@ -1931,11 +2566,11 @@
         <v>72</v>
       </c>
       <c r="F98">
+        <f t="shared" si="5"/>
+        <v>1.8288</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="4"/>
-        <v>1.8288</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="3"/>
         <v>1.8288000000000022</v>
       </c>
     </row>
@@ -1944,11 +2579,11 @@
         <v>73</v>
       </c>
       <c r="F99">
+        <f t="shared" si="5"/>
+        <v>1.8541999999999998</v>
+      </c>
+      <c r="G99">
         <f t="shared" si="4"/>
-        <v>1.8541999999999998</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="3"/>
         <v>1.8542000000000023</v>
       </c>
     </row>
@@ -1957,11 +2592,11 @@
         <v>74</v>
       </c>
       <c r="F100">
+        <f t="shared" si="5"/>
+        <v>1.8795999999999999</v>
+      </c>
+      <c r="G100">
         <f t="shared" si="4"/>
-        <v>1.8795999999999999</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="3"/>
         <v>1.8796000000000024</v>
       </c>
     </row>
@@ -1970,11 +2605,11 @@
         <v>75</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.905</v>
       </c>
       <c r="G101">
-        <f t="shared" ref="G101:G164" si="5">G100+G$36/10</f>
+        <f t="shared" ref="G101:G164" si="6">G100+G$36/10</f>
         <v>1.9050000000000025</v>
       </c>
     </row>
@@ -1983,11 +2618,11 @@
         <v>76</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9303999999999999</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9304000000000026</v>
       </c>
     </row>
@@ -1996,11 +2631,11 @@
         <v>77</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9558</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9558000000000026</v>
       </c>
     </row>
@@ -2009,11 +2644,11 @@
         <v>78</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9811999999999999</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9812000000000027</v>
       </c>
     </row>
@@ -2022,11 +2657,11 @@
         <v>79</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0065999999999997</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0066000000000028</v>
       </c>
     </row>
@@ -2035,11 +2670,11 @@
         <v>80</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.032</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0320000000000027</v>
       </c>
     </row>
@@ -2048,11 +2683,11 @@
         <v>81</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0573999999999999</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0574000000000026</v>
       </c>
     </row>
@@ -2061,11 +2696,11 @@
         <v>82</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0827999999999998</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0828000000000024</v>
       </c>
     </row>
@@ -2074,11 +2709,11 @@
         <v>83</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1082000000000001</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1082000000000023</v>
       </c>
     </row>
@@ -2087,11 +2722,11 @@
         <v>84</v>
       </c>
       <c r="F110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1335999999999999</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1336000000000022</v>
       </c>
     </row>
@@ -2100,11 +2735,11 @@
         <v>85</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1589999999999998</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.159000000000002</v>
       </c>
     </row>
@@ -2113,11 +2748,11 @@
         <v>86</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1844000000000001</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1844000000000019</v>
       </c>
     </row>
@@ -2126,11 +2761,11 @@
         <v>87</v>
       </c>
       <c r="F113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2098</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2098000000000018</v>
       </c>
     </row>
@@ -2139,11 +2774,11 @@
         <v>88</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2351999999999999</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2352000000000016</v>
       </c>
     </row>
@@ -2152,11 +2787,11 @@
         <v>89</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2605999999999997</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2606000000000015</v>
       </c>
     </row>
@@ -2165,11 +2800,11 @@
         <v>90</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.286</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2860000000000014</v>
       </c>
     </row>
@@ -2178,11 +2813,11 @@
         <v>91</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3113999999999999</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3114000000000012</v>
       </c>
     </row>
@@ -2191,11 +2826,11 @@
         <v>92</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3367999999999998</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3368000000000011</v>
       </c>
     </row>
@@ -2204,11 +2839,11 @@
         <v>93</v>
       </c>
       <c r="F119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3622000000000001</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.362200000000001</v>
       </c>
     </row>
@@ -2217,11 +2852,11 @@
         <v>94</v>
       </c>
       <c r="F120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3875999999999999</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3876000000000008</v>
       </c>
     </row>
@@ -2230,11 +2865,11 @@
         <v>95</v>
       </c>
       <c r="F121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4129999999999998</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4130000000000007</v>
       </c>
     </row>
@@ -2243,11 +2878,11 @@
         <v>96</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4383999999999997</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4384000000000006</v>
       </c>
     </row>
@@ -2256,11 +2891,11 @@
         <v>97</v>
       </c>
       <c r="F123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4638</v>
       </c>
       <c r="G123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4638000000000004</v>
       </c>
     </row>
@@ -2269,11 +2904,11 @@
         <v>98</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4891999999999999</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4892000000000003</v>
       </c>
     </row>
@@ -2282,11 +2917,11 @@
         <v>99</v>
       </c>
       <c r="F125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5145999999999997</v>
       </c>
       <c r="G125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5146000000000002</v>
       </c>
     </row>
@@ -2295,11 +2930,11 @@
         <v>100</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.54</v>
       </c>
       <c r="G126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
     </row>
@@ -2308,11 +2943,11 @@
         <v>101</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5653999999999999</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5653999999999999</v>
       </c>
     </row>
@@ -2321,11 +2956,11 @@
         <v>102</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5907999999999998</v>
       </c>
       <c r="G128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5907999999999998</v>
       </c>
     </row>
@@ -2334,11 +2969,11 @@
         <v>103</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6162000000000001</v>
       </c>
       <c r="G129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6161999999999996</v>
       </c>
     </row>
@@ -2347,11 +2982,11 @@
         <v>104</v>
       </c>
       <c r="F130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6415999999999999</v>
       </c>
       <c r="G130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6415999999999995</v>
       </c>
     </row>
@@ -2360,11 +2995,11 @@
         <v>105</v>
       </c>
       <c r="F131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6669999999999998</v>
       </c>
       <c r="G131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6669999999999994</v>
       </c>
     </row>
@@ -2373,11 +3008,11 @@
         <v>106</v>
       </c>
       <c r="F132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6923999999999997</v>
       </c>
       <c r="G132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6923999999999992</v>
       </c>
     </row>
@@ -2386,11 +3021,11 @@
         <v>107</v>
       </c>
       <c r="F133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7178</v>
       </c>
       <c r="G133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7177999999999991</v>
       </c>
     </row>
@@ -2399,11 +3034,11 @@
         <v>108</v>
       </c>
       <c r="F134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7431999999999999</v>
       </c>
       <c r="G134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.743199999999999</v>
       </c>
     </row>
@@ -2412,11 +3047,11 @@
         <v>109</v>
       </c>
       <c r="F135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7685999999999997</v>
       </c>
       <c r="G135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7685999999999988</v>
       </c>
     </row>
@@ -2425,11 +3060,11 @@
         <v>110</v>
       </c>
       <c r="F136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.794</v>
       </c>
       <c r="G136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7939999999999987</v>
       </c>
     </row>
@@ -2438,11 +3073,11 @@
         <v>111</v>
       </c>
       <c r="F137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8193999999999999</v>
       </c>
       <c r="G137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8193999999999986</v>
       </c>
     </row>
@@ -2451,11 +3086,11 @@
         <v>112</v>
       </c>
       <c r="F138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8447999999999998</v>
       </c>
       <c r="G138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8447999999999984</v>
       </c>
     </row>
@@ -2464,11 +3099,11 @@
         <v>113</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8702000000000001</v>
       </c>
       <c r="G139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8701999999999983</v>
       </c>
     </row>
@@ -2477,11 +3112,11 @@
         <v>114</v>
       </c>
       <c r="F140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8956</v>
       </c>
       <c r="G140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8955999999999982</v>
       </c>
     </row>
@@ -2490,11 +3125,11 @@
         <v>115</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9209999999999998</v>
       </c>
       <c r="G141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.920999999999998</v>
       </c>
     </row>
@@ -2503,11 +3138,11 @@
         <v>116</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9463999999999997</v>
       </c>
       <c r="G142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9463999999999979</v>
       </c>
     </row>
@@ -2516,11 +3151,11 @@
         <v>117</v>
       </c>
       <c r="F143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9718</v>
       </c>
       <c r="G143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9717999999999978</v>
       </c>
     </row>
@@ -2529,11 +3164,11 @@
         <v>118</v>
       </c>
       <c r="F144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9971999999999999</v>
       </c>
       <c r="G144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9971999999999976</v>
       </c>
     </row>
@@ -2542,11 +3177,11 @@
         <v>119</v>
       </c>
       <c r="F145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0225999999999997</v>
       </c>
       <c r="G145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0225999999999975</v>
       </c>
     </row>
@@ -2555,11 +3190,11 @@
         <v>120</v>
       </c>
       <c r="F146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.048</v>
       </c>
       <c r="G146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0479999999999974</v>
       </c>
     </row>
@@ -2568,11 +3203,11 @@
         <v>121</v>
       </c>
       <c r="F147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0733999999999999</v>
       </c>
       <c r="G147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0733999999999972</v>
       </c>
     </row>
@@ -2581,11 +3216,11 @@
         <v>122</v>
       </c>
       <c r="F148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0987999999999998</v>
       </c>
       <c r="G148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0987999999999971</v>
       </c>
     </row>
@@ -2594,11 +3229,11 @@
         <v>123</v>
       </c>
       <c r="F149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1242000000000001</v>
       </c>
       <c r="G149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.124199999999997</v>
       </c>
     </row>
@@ -2607,11 +3242,11 @@
         <v>124</v>
       </c>
       <c r="F150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1496</v>
       </c>
       <c r="G150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1495999999999968</v>
       </c>
     </row>
@@ -2620,11 +3255,11 @@
         <v>125</v>
       </c>
       <c r="F151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="G151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1749999999999967</v>
       </c>
     </row>
@@ -2633,11 +3268,11 @@
         <v>126</v>
       </c>
       <c r="F152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2003999999999997</v>
       </c>
       <c r="G152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2003999999999966</v>
       </c>
     </row>
@@ -2646,11 +3281,11 @@
         <v>127</v>
       </c>
       <c r="F153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2258</v>
       </c>
       <c r="G153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2257999999999964</v>
       </c>
     </row>
@@ -2659,11 +3294,11 @@
         <v>128</v>
       </c>
       <c r="F154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2511999999999999</v>
       </c>
       <c r="G154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2511999999999963</v>
       </c>
     </row>
@@ -2672,11 +3307,11 @@
         <v>129</v>
       </c>
       <c r="F155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2765999999999997</v>
       </c>
       <c r="G155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2765999999999962</v>
       </c>
     </row>
@@ -2685,11 +3320,11 @@
         <v>130</v>
       </c>
       <c r="F156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.302</v>
       </c>
       <c r="G156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.301999999999996</v>
       </c>
     </row>
@@ -2698,11 +3333,11 @@
         <v>131</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157:F220" si="6">E157*0.0254</f>
+        <f t="shared" ref="F157:F220" si="7">E157*0.0254</f>
         <v>3.3273999999999999</v>
       </c>
       <c r="G157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3273999999999959</v>
       </c>
     </row>
@@ -2711,11 +3346,11 @@
         <v>132</v>
       </c>
       <c r="F158">
+        <f t="shared" si="7"/>
+        <v>3.3527999999999998</v>
+      </c>
+      <c r="G158">
         <f t="shared" si="6"/>
-        <v>3.3527999999999998</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="5"/>
         <v>3.3527999999999958</v>
       </c>
     </row>
@@ -2724,11 +3359,11 @@
         <v>133</v>
       </c>
       <c r="F159">
+        <f t="shared" si="7"/>
+        <v>3.3781999999999996</v>
+      </c>
+      <c r="G159">
         <f t="shared" si="6"/>
-        <v>3.3781999999999996</v>
-      </c>
-      <c r="G159">
-        <f t="shared" si="5"/>
         <v>3.3781999999999957</v>
       </c>
     </row>
@@ -2737,11 +3372,11 @@
         <v>134</v>
       </c>
       <c r="F160">
+        <f t="shared" si="7"/>
+        <v>3.4036</v>
+      </c>
+      <c r="G160">
         <f t="shared" si="6"/>
-        <v>3.4036</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="5"/>
         <v>3.4035999999999955</v>
       </c>
     </row>
@@ -2750,11 +3385,11 @@
         <v>135</v>
       </c>
       <c r="F161">
+        <f t="shared" si="7"/>
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="G161">
         <f t="shared" si="6"/>
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="5"/>
         <v>3.4289999999999954</v>
       </c>
     </row>
@@ -2763,11 +3398,11 @@
         <v>136</v>
       </c>
       <c r="F162">
+        <f t="shared" si="7"/>
+        <v>3.4543999999999997</v>
+      </c>
+      <c r="G162">
         <f t="shared" si="6"/>
-        <v>3.4543999999999997</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="5"/>
         <v>3.4543999999999953</v>
       </c>
     </row>
@@ -2776,11 +3411,11 @@
         <v>137</v>
       </c>
       <c r="F163">
+        <f t="shared" si="7"/>
+        <v>3.4798</v>
+      </c>
+      <c r="G163">
         <f t="shared" si="6"/>
-        <v>3.4798</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="5"/>
         <v>3.4797999999999951</v>
       </c>
     </row>
@@ -2789,11 +3424,11 @@
         <v>138</v>
       </c>
       <c r="F164">
+        <f t="shared" si="7"/>
+        <v>3.5051999999999999</v>
+      </c>
+      <c r="G164">
         <f t="shared" si="6"/>
-        <v>3.5051999999999999</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="5"/>
         <v>3.505199999999995</v>
       </c>
     </row>
@@ -2802,11 +3437,11 @@
         <v>139</v>
       </c>
       <c r="F165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5305999999999997</v>
       </c>
       <c r="G165">
-        <f t="shared" ref="G165:G228" si="7">G164+G$36/10</f>
+        <f t="shared" ref="G165:G228" si="8">G164+G$36/10</f>
         <v>3.5305999999999949</v>
       </c>
     </row>
@@ -2815,11 +3450,11 @@
         <v>140</v>
       </c>
       <c r="F166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.556</v>
       </c>
       <c r="G166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5559999999999947</v>
       </c>
     </row>
@@ -2828,11 +3463,11 @@
         <v>141</v>
       </c>
       <c r="F167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5813999999999999</v>
       </c>
       <c r="G167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5813999999999946</v>
       </c>
     </row>
@@ -2841,11 +3476,11 @@
         <v>142</v>
       </c>
       <c r="F168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6067999999999998</v>
       </c>
       <c r="G168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6067999999999945</v>
       </c>
     </row>
@@ -2854,11 +3489,11 @@
         <v>143</v>
       </c>
       <c r="F169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6321999999999997</v>
       </c>
       <c r="G169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6321999999999943</v>
       </c>
     </row>
@@ -2867,11 +3502,11 @@
         <v>144</v>
       </c>
       <c r="F170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6576</v>
       </c>
       <c r="G170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6575999999999942</v>
       </c>
     </row>
@@ -2880,11 +3515,11 @@
         <v>145</v>
       </c>
       <c r="F171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.6829999999999998</v>
       </c>
       <c r="G171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6829999999999941</v>
       </c>
     </row>
@@ -2893,11 +3528,11 @@
         <v>146</v>
       </c>
       <c r="F172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7083999999999997</v>
       </c>
       <c r="G172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7083999999999939</v>
       </c>
     </row>
@@ -2906,11 +3541,11 @@
         <v>147</v>
       </c>
       <c r="F173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7338</v>
       </c>
       <c r="G173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7337999999999938</v>
       </c>
     </row>
@@ -2919,11 +3554,11 @@
         <v>148</v>
       </c>
       <c r="F174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7591999999999999</v>
       </c>
       <c r="G174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7591999999999937</v>
       </c>
     </row>
@@ -2932,11 +3567,11 @@
         <v>149</v>
       </c>
       <c r="F175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.7845999999999997</v>
       </c>
       <c r="G175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7845999999999935</v>
       </c>
     </row>
@@ -2945,11 +3580,11 @@
         <v>150</v>
       </c>
       <c r="F176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.81</v>
       </c>
       <c r="G176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8099999999999934</v>
       </c>
     </row>
@@ -2958,11 +3593,11 @@
         <v>151</v>
       </c>
       <c r="F177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8353999999999999</v>
       </c>
       <c r="G177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8353999999999933</v>
       </c>
     </row>
@@ -2971,11 +3606,11 @@
         <v>152</v>
       </c>
       <c r="F178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8607999999999998</v>
       </c>
       <c r="G178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8607999999999931</v>
       </c>
     </row>
@@ -2984,11 +3619,11 @@
         <v>153</v>
       </c>
       <c r="F179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8861999999999997</v>
       </c>
       <c r="G179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.886199999999993</v>
       </c>
     </row>
@@ -2997,11 +3632,11 @@
         <v>154</v>
       </c>
       <c r="F180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9116</v>
       </c>
       <c r="G180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9115999999999929</v>
       </c>
     </row>
@@ -3010,11 +3645,11 @@
         <v>155</v>
       </c>
       <c r="F181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9369999999999998</v>
       </c>
       <c r="G181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9369999999999927</v>
       </c>
     </row>
@@ -3023,11 +3658,11 @@
         <v>156</v>
       </c>
       <c r="F182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9623999999999997</v>
       </c>
       <c r="G182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9623999999999926</v>
       </c>
     </row>
@@ -3036,11 +3671,11 @@
         <v>157</v>
       </c>
       <c r="F183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9878</v>
       </c>
       <c r="G183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9877999999999925</v>
       </c>
     </row>
@@ -3049,11 +3684,11 @@
         <v>158</v>
       </c>
       <c r="F184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0131999999999994</v>
       </c>
       <c r="G184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0131999999999923</v>
       </c>
     </row>
@@ -3062,11 +3697,11 @@
         <v>159</v>
       </c>
       <c r="F185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0385999999999997</v>
       </c>
       <c r="G185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0385999999999926</v>
       </c>
     </row>
@@ -3075,11 +3710,11 @@
         <v>160</v>
       </c>
       <c r="F186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0640000000000001</v>
       </c>
       <c r="G186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.063999999999993</v>
       </c>
     </row>
@@ -3088,11 +3723,11 @@
         <v>161</v>
       </c>
       <c r="F187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0893999999999995</v>
       </c>
       <c r="G187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0893999999999933</v>
       </c>
     </row>
@@ -3101,11 +3736,11 @@
         <v>162</v>
       </c>
       <c r="F188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1147999999999998</v>
       </c>
       <c r="G188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1147999999999936</v>
       </c>
     </row>
@@ -3114,11 +3749,11 @@
         <v>163</v>
       </c>
       <c r="F189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1402000000000001</v>
       </c>
       <c r="G189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1401999999999939</v>
       </c>
     </row>
@@ -3127,11 +3762,11 @@
         <v>164</v>
       </c>
       <c r="F190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1655999999999995</v>
       </c>
       <c r="G190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1655999999999942</v>
       </c>
     </row>
@@ -3140,11 +3775,11 @@
         <v>165</v>
       </c>
       <c r="F191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1909999999999998</v>
       </c>
       <c r="G191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1909999999999945</v>
       </c>
     </row>
@@ -3153,11 +3788,11 @@
         <v>166</v>
       </c>
       <c r="F192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2164000000000001</v>
       </c>
       <c r="G192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2163999999999948</v>
       </c>
     </row>
@@ -3166,11 +3801,11 @@
         <v>167</v>
       </c>
       <c r="F193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2417999999999996</v>
       </c>
       <c r="G193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2417999999999951</v>
       </c>
     </row>
@@ -3179,11 +3814,11 @@
         <v>168</v>
       </c>
       <c r="F194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2671999999999999</v>
       </c>
       <c r="G194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2671999999999954</v>
       </c>
     </row>
@@ -3192,11 +3827,11 @@
         <v>169</v>
       </c>
       <c r="F195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2926000000000002</v>
       </c>
       <c r="G195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2925999999999958</v>
       </c>
     </row>
@@ -3205,11 +3840,11 @@
         <v>170</v>
       </c>
       <c r="F196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="G196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3179999999999961</v>
       </c>
     </row>
@@ -3218,11 +3853,11 @@
         <v>171</v>
       </c>
       <c r="F197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3433999999999999</v>
       </c>
       <c r="G197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3433999999999964</v>
       </c>
     </row>
@@ -3231,11 +3866,11 @@
         <v>172</v>
       </c>
       <c r="F198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3688000000000002</v>
       </c>
       <c r="G198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3687999999999967</v>
       </c>
     </row>
@@ -3244,11 +3879,11 @@
         <v>173</v>
       </c>
       <c r="F199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3941999999999997</v>
       </c>
       <c r="G199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.394199999999997</v>
       </c>
     </row>
@@ -3257,11 +3892,11 @@
         <v>174</v>
       </c>
       <c r="F200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4196</v>
       </c>
       <c r="G200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4195999999999973</v>
       </c>
     </row>
@@ -3270,11 +3905,11 @@
         <v>175</v>
       </c>
       <c r="F201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4449999999999994</v>
       </c>
       <c r="G201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4449999999999976</v>
       </c>
     </row>
@@ -3283,11 +3918,11 @@
         <v>176</v>
       </c>
       <c r="F202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4703999999999997</v>
       </c>
       <c r="G202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4703999999999979</v>
       </c>
     </row>
@@ -3296,11 +3931,11 @@
         <v>177</v>
       </c>
       <c r="F203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.4958</v>
       </c>
       <c r="G203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4957999999999982</v>
       </c>
     </row>
@@ -3309,11 +3944,11 @@
         <v>178</v>
       </c>
       <c r="F204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5211999999999994</v>
       </c>
       <c r="G204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5211999999999986</v>
       </c>
     </row>
@@ -3322,11 +3957,11 @@
         <v>179</v>
       </c>
       <c r="F205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5465999999999998</v>
       </c>
       <c r="G205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5465999999999989</v>
       </c>
     </row>
@@ -3335,11 +3970,11 @@
         <v>180</v>
       </c>
       <c r="F206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5720000000000001</v>
       </c>
       <c r="G206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5719999999999992</v>
       </c>
     </row>
@@ -3348,11 +3983,11 @@
         <v>181</v>
       </c>
       <c r="F207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5973999999999995</v>
       </c>
       <c r="G207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5973999999999995</v>
       </c>
     </row>
@@ -3361,11 +3996,11 @@
         <v>182</v>
       </c>
       <c r="F208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6227999999999998</v>
       </c>
       <c r="G208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6227999999999998</v>
       </c>
     </row>
@@ -3374,11 +4009,11 @@
         <v>183</v>
       </c>
       <c r="F209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6482000000000001</v>
       </c>
       <c r="G209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6482000000000001</v>
       </c>
     </row>
@@ -3387,11 +4022,11 @@
         <v>184</v>
       </c>
       <c r="F210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6735999999999995</v>
       </c>
       <c r="G210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6736000000000004</v>
       </c>
     </row>
@@ -3400,11 +4035,11 @@
         <v>185</v>
       </c>
       <c r="F211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6989999999999998</v>
       </c>
       <c r="G211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6990000000000007</v>
       </c>
     </row>
@@ -3413,11 +4048,11 @@
         <v>186</v>
       </c>
       <c r="F212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7244000000000002</v>
       </c>
       <c r="G212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.724400000000001</v>
       </c>
     </row>
@@ -3426,11 +4061,11 @@
         <v>187</v>
       </c>
       <c r="F213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7497999999999996</v>
       </c>
       <c r="G213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7498000000000014</v>
       </c>
     </row>
@@ -3439,11 +4074,11 @@
         <v>188</v>
       </c>
       <c r="F214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7751999999999999</v>
       </c>
       <c r="G214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7752000000000017</v>
       </c>
     </row>
@@ -3452,11 +4087,11 @@
         <v>189</v>
       </c>
       <c r="F215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8006000000000002</v>
       </c>
       <c r="G215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.800600000000002</v>
       </c>
     </row>
@@ -3465,11 +4100,11 @@
         <v>190</v>
       </c>
       <c r="F216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8259999999999996</v>
       </c>
       <c r="G216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8260000000000023</v>
       </c>
     </row>
@@ -3478,11 +4113,11 @@
         <v>191</v>
       </c>
       <c r="F217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8513999999999999</v>
       </c>
       <c r="G217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8514000000000026</v>
       </c>
     </row>
@@ -3491,11 +4126,11 @@
         <v>192</v>
       </c>
       <c r="F218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8767999999999994</v>
       </c>
       <c r="G218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8768000000000029</v>
       </c>
     </row>
@@ -3504,11 +4139,11 @@
         <v>193</v>
       </c>
       <c r="F219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.9021999999999997</v>
       </c>
       <c r="G219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9022000000000032</v>
       </c>
     </row>
@@ -3517,11 +4152,11 @@
         <v>194</v>
       </c>
       <c r="F220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.9276</v>
       </c>
       <c r="G220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9276000000000035</v>
       </c>
     </row>
@@ -3530,11 +4165,11 @@
         <v>195</v>
       </c>
       <c r="F221">
-        <f t="shared" ref="F221:F284" si="8">E221*0.0254</f>
+        <f t="shared" ref="F221:F284" si="9">E221*0.0254</f>
         <v>4.9529999999999994</v>
       </c>
       <c r="G221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9530000000000038</v>
       </c>
     </row>
@@ -3543,11 +4178,11 @@
         <v>196</v>
       </c>
       <c r="F222">
+        <f t="shared" si="9"/>
+        <v>4.9783999999999997</v>
+      </c>
+      <c r="G222">
         <f t="shared" si="8"/>
-        <v>4.9783999999999997</v>
-      </c>
-      <c r="G222">
-        <f t="shared" si="7"/>
         <v>4.9784000000000042</v>
       </c>
     </row>
@@ -3556,11 +4191,11 @@
         <v>197</v>
       </c>
       <c r="F223">
+        <f t="shared" si="9"/>
+        <v>5.0038</v>
+      </c>
+      <c r="G223">
         <f t="shared" si="8"/>
-        <v>5.0038</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="7"/>
         <v>5.0038000000000045</v>
       </c>
     </row>
@@ -3569,11 +4204,11 @@
         <v>198</v>
       </c>
       <c r="F224">
+        <f t="shared" si="9"/>
+        <v>5.0291999999999994</v>
+      </c>
+      <c r="G224">
         <f t="shared" si="8"/>
-        <v>5.0291999999999994</v>
-      </c>
-      <c r="G224">
-        <f t="shared" si="7"/>
         <v>5.0292000000000048</v>
       </c>
     </row>
@@ -3582,11 +4217,11 @@
         <v>199</v>
       </c>
       <c r="F225">
+        <f t="shared" si="9"/>
+        <v>5.0545999999999998</v>
+      </c>
+      <c r="G225">
         <f t="shared" si="8"/>
-        <v>5.0545999999999998</v>
-      </c>
-      <c r="G225">
-        <f t="shared" si="7"/>
         <v>5.0546000000000051</v>
       </c>
     </row>
@@ -3595,11 +4230,11 @@
         <v>200</v>
       </c>
       <c r="F226">
+        <f t="shared" si="9"/>
+        <v>5.08</v>
+      </c>
+      <c r="G226">
         <f t="shared" si="8"/>
-        <v>5.08</v>
-      </c>
-      <c r="G226">
-        <f t="shared" si="7"/>
         <v>5.0800000000000054</v>
       </c>
     </row>
@@ -3608,11 +4243,11 @@
         <v>201</v>
       </c>
       <c r="F227">
+        <f t="shared" si="9"/>
+        <v>5.1053999999999995</v>
+      </c>
+      <c r="G227">
         <f t="shared" si="8"/>
-        <v>5.1053999999999995</v>
-      </c>
-      <c r="G227">
-        <f t="shared" si="7"/>
         <v>5.1054000000000057</v>
       </c>
     </row>
@@ -3621,11 +4256,11 @@
         <v>202</v>
       </c>
       <c r="F228">
+        <f t="shared" si="9"/>
+        <v>5.1307999999999998</v>
+      </c>
+      <c r="G228">
         <f t="shared" si="8"/>
-        <v>5.1307999999999998</v>
-      </c>
-      <c r="G228">
-        <f t="shared" si="7"/>
         <v>5.130800000000006</v>
       </c>
     </row>
@@ -3634,11 +4269,11 @@
         <v>203</v>
       </c>
       <c r="F229">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1562000000000001</v>
       </c>
       <c r="G229">
-        <f t="shared" ref="G229:G292" si="9">G228+G$36/10</f>
+        <f t="shared" ref="G229:G292" si="10">G228+G$36/10</f>
         <v>5.1562000000000063</v>
       </c>
     </row>
@@ -3647,11 +4282,11 @@
         <v>204</v>
       </c>
       <c r="F230">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1815999999999995</v>
       </c>
       <c r="G230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1816000000000066</v>
       </c>
     </row>
@@ -3660,11 +4295,11 @@
         <v>205</v>
       </c>
       <c r="F231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2069999999999999</v>
       </c>
       <c r="G231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.207000000000007</v>
       </c>
     </row>
@@ -3673,11 +4308,11 @@
         <v>206</v>
       </c>
       <c r="F232">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2324000000000002</v>
       </c>
       <c r="G232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2324000000000073</v>
       </c>
     </row>
@@ -3686,11 +4321,11 @@
         <v>207</v>
       </c>
       <c r="F233">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2577999999999996</v>
       </c>
       <c r="G233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2578000000000076</v>
       </c>
     </row>
@@ -3699,11 +4334,11 @@
         <v>208</v>
       </c>
       <c r="F234">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.2831999999999999</v>
       </c>
       <c r="G234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2832000000000079</v>
       </c>
     </row>
@@ -3712,11 +4347,11 @@
         <v>209</v>
       </c>
       <c r="F235">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3086000000000002</v>
       </c>
       <c r="G235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3086000000000082</v>
       </c>
     </row>
@@ -3725,11 +4360,11 @@
         <v>210</v>
       </c>
       <c r="F236">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3339999999999996</v>
       </c>
       <c r="G236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3340000000000085</v>
       </c>
     </row>
@@ -3738,11 +4373,11 @@
         <v>211</v>
       </c>
       <c r="F237">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3593999999999999</v>
       </c>
       <c r="G237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3594000000000088</v>
       </c>
     </row>
@@ -3751,11 +4386,11 @@
         <v>212</v>
       </c>
       <c r="F238">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.3847999999999994</v>
       </c>
       <c r="G238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3848000000000091</v>
       </c>
     </row>
@@ -3764,11 +4399,11 @@
         <v>213</v>
       </c>
       <c r="F239">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4101999999999997</v>
       </c>
       <c r="G239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4102000000000094</v>
       </c>
     </row>
@@ -3777,11 +4412,11 @@
         <v>214</v>
       </c>
       <c r="F240">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4356</v>
       </c>
       <c r="G240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4356000000000098</v>
       </c>
     </row>
@@ -3790,11 +4425,11 @@
         <v>215</v>
       </c>
       <c r="F241">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4609999999999994</v>
       </c>
       <c r="G241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4610000000000101</v>
       </c>
     </row>
@@ -3803,11 +4438,11 @@
         <v>216</v>
       </c>
       <c r="F242">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.4863999999999997</v>
       </c>
       <c r="G242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4864000000000104</v>
       </c>
     </row>
@@ -3816,11 +4451,11 @@
         <v>217</v>
       </c>
       <c r="F243">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5118</v>
       </c>
       <c r="G243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5118000000000107</v>
       </c>
     </row>
@@ -3829,11 +4464,11 @@
         <v>218</v>
       </c>
       <c r="F244">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5371999999999995</v>
       </c>
       <c r="G244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.537200000000011</v>
       </c>
     </row>
@@ -3842,11 +4477,11 @@
         <v>219</v>
       </c>
       <c r="F245">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5625999999999998</v>
       </c>
       <c r="G245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5626000000000113</v>
       </c>
     </row>
@@ -3855,11 +4490,11 @@
         <v>220</v>
       </c>
       <c r="F246">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5880000000000001</v>
       </c>
       <c r="G246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5880000000000116</v>
       </c>
     </row>
@@ -3868,11 +4503,11 @@
         <v>221</v>
       </c>
       <c r="F247">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6133999999999995</v>
       </c>
       <c r="G247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6134000000000119</v>
       </c>
     </row>
@@ -3881,11 +4516,11 @@
         <v>222</v>
       </c>
       <c r="F248">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6387999999999998</v>
       </c>
       <c r="G248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6388000000000122</v>
       </c>
     </row>
@@ -3894,11 +4529,11 @@
         <v>223</v>
       </c>
       <c r="F249">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6642000000000001</v>
       </c>
       <c r="G249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6642000000000126</v>
       </c>
     </row>
@@ -3907,11 +4542,11 @@
         <v>224</v>
       </c>
       <c r="F250">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6895999999999995</v>
       </c>
       <c r="G250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6896000000000129</v>
       </c>
     </row>
@@ -3920,11 +4555,11 @@
         <v>225</v>
       </c>
       <c r="F251">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7149999999999999</v>
       </c>
       <c r="G251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7150000000000132</v>
       </c>
     </row>
@@ -3933,11 +4568,11 @@
         <v>226</v>
       </c>
       <c r="F252">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7404000000000002</v>
       </c>
       <c r="G252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7404000000000135</v>
       </c>
     </row>
@@ -3946,11 +4581,11 @@
         <v>227</v>
       </c>
       <c r="F253">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7657999999999996</v>
       </c>
       <c r="G253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7658000000000138</v>
       </c>
     </row>
@@ -3959,11 +4594,11 @@
         <v>228</v>
       </c>
       <c r="F254">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7911999999999999</v>
       </c>
       <c r="G254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7912000000000141</v>
       </c>
     </row>
@@ -3972,11 +4607,11 @@
         <v>229</v>
       </c>
       <c r="F255">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8165999999999993</v>
       </c>
       <c r="G255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8166000000000144</v>
       </c>
     </row>
@@ -3985,11 +4620,11 @@
         <v>230</v>
       </c>
       <c r="F256">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8419999999999996</v>
       </c>
       <c r="G256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8420000000000147</v>
       </c>
     </row>
@@ -3998,11 +4633,11 @@
         <v>231</v>
       </c>
       <c r="F257">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8673999999999999</v>
       </c>
       <c r="G257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.867400000000015</v>
       </c>
     </row>
@@ -4011,11 +4646,11 @@
         <v>232</v>
       </c>
       <c r="F258">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.8927999999999994</v>
       </c>
       <c r="G258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8928000000000154</v>
       </c>
     </row>
@@ -4024,11 +4659,11 @@
         <v>233</v>
       </c>
       <c r="F259">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9181999999999997</v>
       </c>
       <c r="G259">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9182000000000157</v>
       </c>
     </row>
@@ -4037,11 +4672,11 @@
         <v>234</v>
       </c>
       <c r="F260">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9436</v>
       </c>
       <c r="G260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.943600000000016</v>
       </c>
     </row>
@@ -4050,11 +4685,11 @@
         <v>235</v>
       </c>
       <c r="F261">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9689999999999994</v>
       </c>
       <c r="G261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9690000000000163</v>
       </c>
     </row>
@@ -4063,11 +4698,11 @@
         <v>236</v>
       </c>
       <c r="F262">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9943999999999997</v>
       </c>
       <c r="G262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9944000000000166</v>
       </c>
     </row>
@@ -4076,11 +4711,11 @@
         <v>237</v>
       </c>
       <c r="F263">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.0198</v>
       </c>
       <c r="G263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0198000000000169</v>
       </c>
     </row>
@@ -4089,11 +4724,11 @@
         <v>238</v>
       </c>
       <c r="F264">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.0451999999999995</v>
       </c>
       <c r="G264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0452000000000172</v>
       </c>
     </row>
@@ -4102,11 +4737,11 @@
         <v>239</v>
       </c>
       <c r="F265">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.0705999999999998</v>
       </c>
       <c r="G265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0706000000000175</v>
       </c>
     </row>
@@ -4115,11 +4750,11 @@
         <v>240</v>
       </c>
       <c r="F266">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.0960000000000001</v>
       </c>
       <c r="G266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0960000000000178</v>
       </c>
     </row>
@@ -4128,11 +4763,11 @@
         <v>241</v>
       </c>
       <c r="F267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1213999999999995</v>
       </c>
       <c r="G267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1214000000000182</v>
       </c>
     </row>
@@ -4141,11 +4776,11 @@
         <v>242</v>
       </c>
       <c r="F268">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1467999999999998</v>
       </c>
       <c r="G268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1468000000000185</v>
       </c>
     </row>
@@ -4154,11 +4789,11 @@
         <v>243</v>
       </c>
       <c r="F269">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1722000000000001</v>
       </c>
       <c r="G269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1722000000000188</v>
       </c>
     </row>
@@ -4167,11 +4802,11 @@
         <v>244</v>
       </c>
       <c r="F270">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1975999999999996</v>
       </c>
       <c r="G270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1976000000000191</v>
       </c>
     </row>
@@ -4180,11 +4815,11 @@
         <v>245</v>
       </c>
       <c r="F271">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2229999999999999</v>
       </c>
       <c r="G271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.2230000000000194</v>
       </c>
     </row>
@@ -4193,11 +4828,11 @@
         <v>246</v>
       </c>
       <c r="F272">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2484000000000002</v>
       </c>
       <c r="G272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.2484000000000197</v>
       </c>
     </row>
@@ -4206,11 +4841,11 @@
         <v>247</v>
       </c>
       <c r="F273">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2737999999999996</v>
       </c>
       <c r="G273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.27380000000002</v>
       </c>
     </row>
@@ -4219,11 +4854,11 @@
         <v>248</v>
       </c>
       <c r="F274">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.2991999999999999</v>
       </c>
       <c r="G274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.2992000000000203</v>
       </c>
     </row>
@@ -4232,11 +4867,11 @@
         <v>249</v>
       </c>
       <c r="F275">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3245999999999993</v>
       </c>
       <c r="G275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.3246000000000206</v>
       </c>
     </row>
@@ -4245,11 +4880,11 @@
         <v>250</v>
       </c>
       <c r="F276">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.35</v>
       </c>
       <c r="G276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.350000000000021</v>
       </c>
     </row>
@@ -4258,11 +4893,11 @@
         <v>251</v>
       </c>
       <c r="F277">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.3754</v>
       </c>
       <c r="G277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.3754000000000213</v>
       </c>
     </row>
@@ -4271,11 +4906,11 @@
         <v>252</v>
       </c>
       <c r="F278">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.4007999999999994</v>
       </c>
       <c r="G278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4008000000000216</v>
       </c>
     </row>
@@ -4284,11 +4919,11 @@
         <v>253</v>
       </c>
       <c r="F279">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.4261999999999997</v>
       </c>
       <c r="G279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4262000000000219</v>
       </c>
     </row>
@@ -4297,11 +4932,11 @@
         <v>254</v>
       </c>
       <c r="F280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.4516</v>
       </c>
       <c r="G280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4516000000000222</v>
       </c>
     </row>
@@ -4310,11 +4945,11 @@
         <v>255</v>
       </c>
       <c r="F281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.4769999999999994</v>
       </c>
       <c r="G281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4770000000000225</v>
       </c>
     </row>
@@ -4323,11 +4958,11 @@
         <v>256</v>
       </c>
       <c r="F282">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5023999999999997</v>
       </c>
       <c r="G282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5024000000000228</v>
       </c>
     </row>
@@ -4336,11 +4971,11 @@
         <v>257</v>
       </c>
       <c r="F283">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5278</v>
       </c>
       <c r="G283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5278000000000231</v>
       </c>
     </row>
@@ -4349,11 +4984,11 @@
         <v>258</v>
       </c>
       <c r="F284">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.5531999999999995</v>
       </c>
       <c r="G284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5532000000000235</v>
       </c>
     </row>
@@ -4362,11 +4997,11 @@
         <v>259</v>
       </c>
       <c r="F285">
-        <f t="shared" ref="F285:F348" si="10">E285*0.0254</f>
+        <f t="shared" ref="F285:F348" si="11">E285*0.0254</f>
         <v>6.5785999999999998</v>
       </c>
       <c r="G285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5786000000000238</v>
       </c>
     </row>
@@ -4375,11 +5010,11 @@
         <v>260</v>
       </c>
       <c r="F286">
+        <f t="shared" si="11"/>
+        <v>6.6040000000000001</v>
+      </c>
+      <c r="G286">
         <f t="shared" si="10"/>
-        <v>6.6040000000000001</v>
-      </c>
-      <c r="G286">
-        <f t="shared" si="9"/>
         <v>6.6040000000000241</v>
       </c>
     </row>
@@ -4388,11 +5023,11 @@
         <v>261</v>
       </c>
       <c r="F287">
+        <f t="shared" si="11"/>
+        <v>6.6293999999999995</v>
+      </c>
+      <c r="G287">
         <f t="shared" si="10"/>
-        <v>6.6293999999999995</v>
-      </c>
-      <c r="G287">
-        <f t="shared" si="9"/>
         <v>6.6294000000000244</v>
       </c>
     </row>
@@ -4401,11 +5036,11 @@
         <v>262</v>
       </c>
       <c r="F288">
+        <f t="shared" si="11"/>
+        <v>6.6547999999999998</v>
+      </c>
+      <c r="G288">
         <f t="shared" si="10"/>
-        <v>6.6547999999999998</v>
-      </c>
-      <c r="G288">
-        <f t="shared" si="9"/>
         <v>6.6548000000000247</v>
       </c>
     </row>
@@ -4414,11 +5049,11 @@
         <v>263</v>
       </c>
       <c r="F289">
+        <f t="shared" si="11"/>
+        <v>6.6802000000000001</v>
+      </c>
+      <c r="G289">
         <f t="shared" si="10"/>
-        <v>6.6802000000000001</v>
-      </c>
-      <c r="G289">
-        <f t="shared" si="9"/>
         <v>6.680200000000025</v>
       </c>
     </row>
@@ -4427,11 +5062,11 @@
         <v>264</v>
       </c>
       <c r="F290">
+        <f t="shared" si="11"/>
+        <v>6.7055999999999996</v>
+      </c>
+      <c r="G290">
         <f t="shared" si="10"/>
-        <v>6.7055999999999996</v>
-      </c>
-      <c r="G290">
-        <f t="shared" si="9"/>
         <v>6.7056000000000253</v>
       </c>
     </row>
@@ -4440,11 +5075,11 @@
         <v>265</v>
       </c>
       <c r="F291">
+        <f t="shared" si="11"/>
+        <v>6.7309999999999999</v>
+      </c>
+      <c r="G291">
         <f t="shared" si="10"/>
-        <v>6.7309999999999999</v>
-      </c>
-      <c r="G291">
-        <f t="shared" si="9"/>
         <v>6.7310000000000256</v>
       </c>
     </row>
@@ -4453,11 +5088,11 @@
         <v>266</v>
       </c>
       <c r="F292">
+        <f t="shared" si="11"/>
+        <v>6.7563999999999993</v>
+      </c>
+      <c r="G292">
         <f t="shared" si="10"/>
-        <v>6.7563999999999993</v>
-      </c>
-      <c r="G292">
-        <f t="shared" si="9"/>
         <v>6.7564000000000259</v>
       </c>
     </row>
@@ -4466,11 +5101,11 @@
         <v>267</v>
       </c>
       <c r="F293">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.7817999999999996</v>
       </c>
       <c r="G293">
-        <f t="shared" ref="G293:G356" si="11">G292+G$36/10</f>
+        <f t="shared" ref="G293:G356" si="12">G292+G$36/10</f>
         <v>6.7818000000000263</v>
       </c>
     </row>
@@ -4479,11 +5114,11 @@
         <v>268</v>
       </c>
       <c r="F294">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8071999999999999</v>
       </c>
       <c r="G294">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8072000000000266</v>
       </c>
     </row>
@@ -4492,11 +5127,11 @@
         <v>269</v>
       </c>
       <c r="F295">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8325999999999993</v>
       </c>
       <c r="G295">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8326000000000269</v>
       </c>
     </row>
@@ -4505,11 +5140,11 @@
         <v>270</v>
       </c>
       <c r="F296">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8579999999999997</v>
       </c>
       <c r="G296">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8580000000000272</v>
       </c>
     </row>
@@ -4518,11 +5153,11 @@
         <v>271</v>
       </c>
       <c r="F297">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.8834</v>
       </c>
       <c r="G297">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8834000000000275</v>
       </c>
     </row>
@@ -4531,11 +5166,11 @@
         <v>272</v>
       </c>
       <c r="F298">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9087999999999994</v>
       </c>
       <c r="G298">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9088000000000278</v>
       </c>
     </row>
@@ -4544,11 +5179,11 @@
         <v>273</v>
       </c>
       <c r="F299">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9341999999999997</v>
       </c>
       <c r="G299">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9342000000000281</v>
       </c>
     </row>
@@ -4557,11 +5192,11 @@
         <v>274</v>
       </c>
       <c r="F300">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9596</v>
       </c>
       <c r="G300">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9596000000000284</v>
       </c>
     </row>
@@ -4570,11 +5205,11 @@
         <v>275</v>
       </c>
       <c r="F301">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9849999999999994</v>
       </c>
       <c r="G301">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9850000000000287</v>
       </c>
     </row>
@@ -4583,11 +5218,11 @@
         <v>276</v>
       </c>
       <c r="F302">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.0103999999999997</v>
       </c>
       <c r="G302">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0104000000000291</v>
       </c>
     </row>
@@ -4596,11 +5231,11 @@
         <v>277</v>
       </c>
       <c r="F303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.0358000000000001</v>
       </c>
       <c r="G303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0358000000000294</v>
       </c>
     </row>
@@ -4609,11 +5244,11 @@
         <v>278</v>
       </c>
       <c r="F304">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.0611999999999995</v>
       </c>
       <c r="G304">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0612000000000297</v>
       </c>
     </row>
@@ -4622,11 +5257,11 @@
         <v>279</v>
       </c>
       <c r="F305">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.0865999999999998</v>
       </c>
       <c r="G305">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.08660000000003</v>
       </c>
     </row>
@@ -4635,11 +5270,11 @@
         <v>280</v>
       </c>
       <c r="F306">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1120000000000001</v>
       </c>
       <c r="G306">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1120000000000303</v>
       </c>
     </row>
@@ -4648,11 +5283,11 @@
         <v>281</v>
       </c>
       <c r="F307">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1373999999999995</v>
       </c>
       <c r="G307">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1374000000000306</v>
       </c>
     </row>
@@ -4661,11 +5296,11 @@
         <v>282</v>
       </c>
       <c r="F308">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1627999999999998</v>
       </c>
       <c r="G308">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1628000000000309</v>
       </c>
     </row>
@@ -4674,11 +5309,11 @@
         <v>283</v>
       </c>
       <c r="F309">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.1882000000000001</v>
       </c>
       <c r="G309">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1882000000000312</v>
       </c>
     </row>
@@ -4687,11 +5322,11 @@
         <v>284</v>
       </c>
       <c r="F310">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2135999999999996</v>
       </c>
       <c r="G310">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2136000000000315</v>
       </c>
     </row>
@@ -4700,11 +5335,11 @@
         <v>285</v>
       </c>
       <c r="F311">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2389999999999999</v>
       </c>
       <c r="G311">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2390000000000319</v>
       </c>
     </row>
@@ -4713,11 +5348,11 @@
         <v>286</v>
       </c>
       <c r="F312">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2643999999999993</v>
       </c>
       <c r="G312">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2644000000000322</v>
       </c>
     </row>
@@ -4726,11 +5361,11 @@
         <v>287</v>
       </c>
       <c r="F313">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.2897999999999996</v>
       </c>
       <c r="G313">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2898000000000325</v>
       </c>
     </row>
@@ -4739,11 +5374,11 @@
         <v>288</v>
       </c>
       <c r="F314">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3151999999999999</v>
       </c>
       <c r="G314">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3152000000000328</v>
       </c>
     </row>
@@ -4752,11 +5387,11 @@
         <v>289</v>
       </c>
       <c r="F315">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3405999999999993</v>
       </c>
       <c r="G315">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3406000000000331</v>
       </c>
     </row>
@@ -4765,11 +5400,11 @@
         <v>290</v>
       </c>
       <c r="F316">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3659999999999997</v>
       </c>
       <c r="G316">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3660000000000334</v>
       </c>
     </row>
@@ -4778,11 +5413,11 @@
         <v>291</v>
       </c>
       <c r="F317">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.3914</v>
       </c>
       <c r="G317">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3914000000000337</v>
       </c>
     </row>
@@ -4791,11 +5426,11 @@
         <v>292</v>
       </c>
       <c r="F318">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.4167999999999994</v>
       </c>
       <c r="G318">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.416800000000034</v>
       </c>
     </row>
@@ -4804,11 +5439,11 @@
         <v>293</v>
       </c>
       <c r="F319">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.4421999999999997</v>
       </c>
       <c r="G319">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4422000000000343</v>
       </c>
     </row>
@@ -4817,11 +5452,11 @@
         <v>294</v>
       </c>
       <c r="F320">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.4676</v>
       </c>
       <c r="G320">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4676000000000347</v>
       </c>
     </row>
@@ -4830,11 +5465,11 @@
         <v>295</v>
       </c>
       <c r="F321">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.4929999999999994</v>
       </c>
       <c r="G321">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.493000000000035</v>
       </c>
     </row>
@@ -4843,11 +5478,11 @@
         <v>296</v>
       </c>
       <c r="F322">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5183999999999997</v>
       </c>
       <c r="G322">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5184000000000353</v>
       </c>
     </row>
@@ -4856,11 +5491,11 @@
         <v>297</v>
       </c>
       <c r="F323">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5438000000000001</v>
       </c>
       <c r="G323">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5438000000000356</v>
       </c>
     </row>
@@ -4869,11 +5504,11 @@
         <v>298</v>
       </c>
       <c r="F324">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5691999999999995</v>
       </c>
       <c r="G324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5692000000000359</v>
       </c>
     </row>
@@ -4882,11 +5517,11 @@
         <v>299</v>
       </c>
       <c r="F325">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.5945999999999998</v>
       </c>
       <c r="G325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5946000000000362</v>
       </c>
     </row>
@@ -4895,11 +5530,11 @@
         <v>300</v>
       </c>
       <c r="F326">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.62</v>
       </c>
       <c r="G326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6200000000000365</v>
       </c>
     </row>
@@ -4908,11 +5543,11 @@
         <v>301</v>
       </c>
       <c r="F327">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.6453999999999995</v>
       </c>
       <c r="G327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6454000000000368</v>
       </c>
     </row>
@@ -4921,11 +5556,11 @@
         <v>302</v>
       </c>
       <c r="F328">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.6707999999999998</v>
       </c>
       <c r="G328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6708000000000371</v>
       </c>
     </row>
@@ -4934,11 +5569,11 @@
         <v>303</v>
       </c>
       <c r="F329">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.6961999999999993</v>
       </c>
       <c r="G329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6962000000000375</v>
       </c>
     </row>
@@ -4947,11 +5582,11 @@
         <v>304</v>
       </c>
       <c r="F330">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.7215999999999996</v>
       </c>
       <c r="G330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7216000000000378</v>
       </c>
     </row>
@@ -4960,11 +5595,11 @@
         <v>305</v>
       </c>
       <c r="F331">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.7469999999999999</v>
       </c>
       <c r="G331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7470000000000381</v>
       </c>
     </row>
@@ -4973,11 +5608,11 @@
         <v>306</v>
       </c>
       <c r="F332">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.7723999999999993</v>
       </c>
       <c r="G332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7724000000000384</v>
       </c>
     </row>
@@ -4986,11 +5621,11 @@
         <v>307</v>
       </c>
       <c r="F333">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.7977999999999996</v>
       </c>
       <c r="G333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7978000000000387</v>
       </c>
     </row>
@@ -4999,11 +5634,11 @@
         <v>308</v>
       </c>
       <c r="F334">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.8231999999999999</v>
       </c>
       <c r="G334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.823200000000039</v>
       </c>
     </row>
@@ -5012,11 +5647,11 @@
         <v>309</v>
       </c>
       <c r="F335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.8485999999999994</v>
       </c>
       <c r="G335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8486000000000393</v>
       </c>
     </row>
@@ -5025,11 +5660,11 @@
         <v>310</v>
       </c>
       <c r="F336">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.8739999999999997</v>
       </c>
       <c r="G336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8740000000000396</v>
       </c>
     </row>
@@ -5038,11 +5673,11 @@
         <v>311</v>
       </c>
       <c r="F337">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.8994</v>
       </c>
       <c r="G337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8994000000000399</v>
       </c>
     </row>
@@ -5051,11 +5686,11 @@
         <v>312</v>
       </c>
       <c r="F338">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.9247999999999994</v>
       </c>
       <c r="G338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9248000000000403</v>
       </c>
     </row>
@@ -5064,11 +5699,11 @@
         <v>313</v>
       </c>
       <c r="F339">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.9501999999999997</v>
       </c>
       <c r="G339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9502000000000406</v>
       </c>
     </row>
@@ -5077,11 +5712,11 @@
         <v>314</v>
       </c>
       <c r="F340">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.9756</v>
       </c>
       <c r="G340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9756000000000409</v>
       </c>
     </row>
@@ -5090,11 +5725,11 @@
         <v>315</v>
       </c>
       <c r="F341">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.0009999999999994</v>
       </c>
       <c r="G341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.0010000000000403</v>
       </c>
     </row>
@@ -5103,11 +5738,11 @@
         <v>316</v>
       </c>
       <c r="F342">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.0263999999999989</v>
       </c>
       <c r="G342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.0264000000000397</v>
       </c>
     </row>
@@ -5116,11 +5751,11 @@
         <v>317</v>
       </c>
       <c r="F343">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.0518000000000001</v>
       </c>
       <c r="G343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.0518000000000391</v>
       </c>
     </row>
@@ -5129,11 +5764,11 @@
         <v>318</v>
       </c>
       <c r="F344">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.0771999999999995</v>
       </c>
       <c r="G344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.0772000000000386</v>
       </c>
     </row>
@@ -5142,11 +5777,11 @@
         <v>319</v>
       </c>
       <c r="F345">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1025999999999989</v>
       </c>
       <c r="G345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.102600000000038</v>
       </c>
     </row>
@@ -5155,11 +5790,11 @@
         <v>320</v>
       </c>
       <c r="F346">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1280000000000001</v>
       </c>
       <c r="G346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1280000000000374</v>
       </c>
     </row>
@@ -5168,11 +5803,11 @@
         <v>321</v>
       </c>
       <c r="F347">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1533999999999995</v>
       </c>
       <c r="G347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1534000000000368</v>
       </c>
     </row>
@@ -5181,11 +5816,11 @@
         <v>322</v>
       </c>
       <c r="F348">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.178799999999999</v>
       </c>
       <c r="G348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1788000000000363</v>
       </c>
     </row>
@@ -5194,11 +5829,11 @@
         <v>323</v>
       </c>
       <c r="F349">
-        <f t="shared" ref="F349:F412" si="12">E349*0.0254</f>
+        <f t="shared" ref="F349:F412" si="13">E349*0.0254</f>
         <v>8.2042000000000002</v>
       </c>
       <c r="G349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.2042000000000357</v>
       </c>
     </row>
@@ -5207,11 +5842,11 @@
         <v>324</v>
       </c>
       <c r="F350">
+        <f t="shared" si="13"/>
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="G350">
         <f t="shared" si="12"/>
-        <v>8.2295999999999996</v>
-      </c>
-      <c r="G350">
-        <f t="shared" si="11"/>
         <v>8.2296000000000351</v>
       </c>
     </row>
@@ -5220,11 +5855,11 @@
         <v>325</v>
       </c>
       <c r="F351">
+        <f t="shared" si="13"/>
+        <v>8.254999999999999</v>
+      </c>
+      <c r="G351">
         <f t="shared" si="12"/>
-        <v>8.254999999999999</v>
-      </c>
-      <c r="G351">
-        <f t="shared" si="11"/>
         <v>8.2550000000000345</v>
       </c>
     </row>
@@ -5233,11 +5868,11 @@
         <v>326</v>
       </c>
       <c r="F352">
+        <f t="shared" si="13"/>
+        <v>8.2804000000000002</v>
+      </c>
+      <c r="G352">
         <f t="shared" si="12"/>
-        <v>8.2804000000000002</v>
-      </c>
-      <c r="G352">
-        <f t="shared" si="11"/>
         <v>8.280400000000034</v>
       </c>
     </row>
@@ -5246,11 +5881,11 @@
         <v>327</v>
       </c>
       <c r="F353">
+        <f t="shared" si="13"/>
+        <v>8.3057999999999996</v>
+      </c>
+      <c r="G353">
         <f t="shared" si="12"/>
-        <v>8.3057999999999996</v>
-      </c>
-      <c r="G353">
-        <f t="shared" si="11"/>
         <v>8.3058000000000334</v>
       </c>
     </row>
@@ -5259,11 +5894,11 @@
         <v>328</v>
       </c>
       <c r="F354">
+        <f t="shared" si="13"/>
+        <v>8.3311999999999991</v>
+      </c>
+      <c r="G354">
         <f t="shared" si="12"/>
-        <v>8.3311999999999991</v>
-      </c>
-      <c r="G354">
-        <f t="shared" si="11"/>
         <v>8.3312000000000328</v>
       </c>
     </row>
@@ -5272,11 +5907,11 @@
         <v>329</v>
       </c>
       <c r="F355">
+        <f t="shared" si="13"/>
+        <v>8.3566000000000003</v>
+      </c>
+      <c r="G355">
         <f t="shared" si="12"/>
-        <v>8.3566000000000003</v>
-      </c>
-      <c r="G355">
-        <f t="shared" si="11"/>
         <v>8.3566000000000322</v>
       </c>
     </row>
@@ -5285,11 +5920,11 @@
         <v>330</v>
       </c>
       <c r="F356">
+        <f t="shared" si="13"/>
+        <v>8.3819999999999997</v>
+      </c>
+      <c r="G356">
         <f t="shared" si="12"/>
-        <v>8.3819999999999997</v>
-      </c>
-      <c r="G356">
-        <f t="shared" si="11"/>
         <v>8.3820000000000316</v>
       </c>
     </row>
@@ -5298,11 +5933,11 @@
         <v>331</v>
       </c>
       <c r="F357">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4073999999999991</v>
       </c>
       <c r="G357">
-        <f t="shared" ref="G357:G420" si="13">G356+G$36/10</f>
+        <f t="shared" ref="G357:G420" si="14">G356+G$36/10</f>
         <v>8.4074000000000311</v>
       </c>
     </row>
@@ -5311,11 +5946,11 @@
         <v>332</v>
       </c>
       <c r="F358">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4328000000000003</v>
       </c>
       <c r="G358">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4328000000000305</v>
       </c>
     </row>
@@ -5324,11 +5959,11 @@
         <v>333</v>
       </c>
       <c r="F359">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4581999999999997</v>
       </c>
       <c r="G359">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4582000000000299</v>
       </c>
     </row>
@@ -5337,11 +5972,11 @@
         <v>334</v>
       </c>
       <c r="F360">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.4835999999999991</v>
       </c>
       <c r="G360">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4836000000000293</v>
       </c>
     </row>
@@ -5350,11 +5985,11 @@
         <v>335</v>
       </c>
       <c r="F361">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.5090000000000003</v>
       </c>
       <c r="G361">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5090000000000288</v>
       </c>
     </row>
@@ -5363,11 +5998,11 @@
         <v>336</v>
       </c>
       <c r="F362">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.5343999999999998</v>
       </c>
       <c r="G362">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5344000000000282</v>
       </c>
     </row>
@@ -5376,11 +6011,11 @@
         <v>337</v>
       </c>
       <c r="F363">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.5597999999999992</v>
       </c>
       <c r="G363">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5598000000000276</v>
       </c>
     </row>
@@ -5389,11 +6024,11 @@
         <v>338</v>
       </c>
       <c r="F364">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.5852000000000004</v>
       </c>
       <c r="G364">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.585200000000027</v>
       </c>
     </row>
@@ -5402,11 +6037,11 @@
         <v>339</v>
       </c>
       <c r="F365">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.6105999999999998</v>
       </c>
       <c r="G365">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.6106000000000265</v>
       </c>
     </row>
@@ -5415,11 +6050,11 @@
         <v>340</v>
       </c>
       <c r="F366">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.6359999999999992</v>
       </c>
       <c r="G366">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.6360000000000259</v>
       </c>
     </row>
@@ -5428,11 +6063,11 @@
         <v>341</v>
       </c>
       <c r="F367">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.6614000000000004</v>
       </c>
       <c r="G367">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.6614000000000253</v>
       </c>
     </row>
@@ -5441,11 +6076,11 @@
         <v>342</v>
       </c>
       <c r="F368">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.6867999999999999</v>
       </c>
       <c r="G368">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.6868000000000247</v>
       </c>
     </row>
@@ -5454,11 +6089,11 @@
         <v>343</v>
       </c>
       <c r="F369">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.7121999999999993</v>
       </c>
       <c r="G369">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.7122000000000241</v>
       </c>
     </row>
@@ -5467,11 +6102,11 @@
         <v>344</v>
       </c>
       <c r="F370">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.7376000000000005</v>
       </c>
       <c r="G370">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.7376000000000236</v>
       </c>
     </row>
@@ -5480,11 +6115,11 @@
         <v>345</v>
       </c>
       <c r="F371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.7629999999999999</v>
       </c>
       <c r="G371">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.763000000000023</v>
       </c>
     </row>
@@ -5493,11 +6128,11 @@
         <v>346</v>
       </c>
       <c r="F372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.7883999999999993</v>
       </c>
       <c r="G372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.7884000000000224</v>
       </c>
     </row>
@@ -5506,11 +6141,11 @@
         <v>347</v>
       </c>
       <c r="F373">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.8138000000000005</v>
       </c>
       <c r="G373">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8138000000000218</v>
       </c>
     </row>
@@ -5519,11 +6154,11 @@
         <v>348</v>
       </c>
       <c r="F374">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.8391999999999999</v>
       </c>
       <c r="G374">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8392000000000213</v>
       </c>
     </row>
@@ -5532,11 +6167,11 @@
         <v>349</v>
       </c>
       <c r="F375">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.8645999999999994</v>
       </c>
       <c r="G375">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8646000000000207</v>
       </c>
     </row>
@@ -5545,11 +6180,11 @@
         <v>350</v>
       </c>
       <c r="F376">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.8899999999999988</v>
       </c>
       <c r="G376">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8900000000000201</v>
       </c>
     </row>
@@ -5558,11 +6193,11 @@
         <v>351</v>
       </c>
       <c r="F377">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.9154</v>
       </c>
       <c r="G377">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9154000000000195</v>
       </c>
     </row>
@@ -5571,11 +6206,11 @@
         <v>352</v>
       </c>
       <c r="F378">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.9407999999999994</v>
       </c>
       <c r="G378">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.940800000000019</v>
       </c>
     </row>
@@ -5584,11 +6219,11 @@
         <v>353</v>
       </c>
       <c r="F379">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.9661999999999988</v>
       </c>
       <c r="G379">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9662000000000184</v>
       </c>
     </row>
@@ -5597,11 +6232,11 @@
         <v>354</v>
       </c>
       <c r="F380">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.9916</v>
       </c>
       <c r="G380">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9916000000000178</v>
       </c>
     </row>
@@ -5610,11 +6245,11 @@
         <v>355</v>
       </c>
       <c r="F381">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0169999999999995</v>
       </c>
       <c r="G381">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0170000000000172</v>
       </c>
     </row>
@@ -5623,11 +6258,11 @@
         <v>356</v>
       </c>
       <c r="F382">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0423999999999989</v>
       </c>
       <c r="G382">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0424000000000166</v>
       </c>
     </row>
@@ -5636,11 +6271,11 @@
         <v>357</v>
       </c>
       <c r="F383">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0678000000000001</v>
       </c>
       <c r="G383">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0678000000000161</v>
       </c>
     </row>
@@ -5649,11 +6284,11 @@
         <v>358</v>
       </c>
       <c r="F384">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0931999999999995</v>
       </c>
       <c r="G384">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0932000000000155</v>
       </c>
     </row>
@@ -5662,11 +6297,11 @@
         <v>359</v>
       </c>
       <c r="F385">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1185999999999989</v>
       </c>
       <c r="G385">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.1186000000000149</v>
       </c>
     </row>
@@ -5675,11 +6310,11 @@
         <v>360</v>
       </c>
       <c r="F386">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1440000000000001</v>
       </c>
       <c r="G386">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.1440000000000143</v>
       </c>
     </row>
@@ -5688,11 +6323,11 @@
         <v>361</v>
       </c>
       <c r="F387">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1693999999999996</v>
       </c>
       <c r="G387">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.1694000000000138</v>
       </c>
     </row>
@@ -5701,11 +6336,11 @@
         <v>362</v>
       </c>
       <c r="F388">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.194799999999999</v>
       </c>
       <c r="G388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.1948000000000132</v>
       </c>
     </row>
@@ -5714,11 +6349,11 @@
         <v>363</v>
       </c>
       <c r="F389">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.2202000000000002</v>
       </c>
       <c r="G389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2202000000000126</v>
       </c>
     </row>
@@ -5727,11 +6362,11 @@
         <v>364</v>
       </c>
       <c r="F390">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.2455999999999996</v>
       </c>
       <c r="G390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.245600000000012</v>
       </c>
     </row>
@@ -5740,11 +6375,11 @@
         <v>365</v>
       </c>
       <c r="F391">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.270999999999999</v>
       </c>
       <c r="G391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2710000000000115</v>
       </c>
     </row>
@@ -5753,11 +6388,11 @@
         <v>366</v>
       </c>
       <c r="F392">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.2964000000000002</v>
       </c>
       <c r="G392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2964000000000109</v>
       </c>
     </row>
@@ -5766,11 +6401,11 @@
         <v>367</v>
       </c>
       <c r="F393">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.3217999999999996</v>
       </c>
       <c r="G393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3218000000000103</v>
       </c>
     </row>
@@ -5779,11 +6414,11 @@
         <v>368</v>
       </c>
       <c r="F394">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.3471999999999991</v>
       </c>
       <c r="G394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3472000000000097</v>
       </c>
     </row>
@@ -5792,11 +6427,11 @@
         <v>369</v>
       </c>
       <c r="F395">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.3726000000000003</v>
       </c>
       <c r="G395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3726000000000091</v>
       </c>
     </row>
@@ -5805,11 +6440,11 @@
         <v>370</v>
       </c>
       <c r="F396">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.3979999999999997</v>
       </c>
       <c r="G396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3980000000000086</v>
       </c>
     </row>
@@ -5818,11 +6453,11 @@
         <v>371</v>
       </c>
       <c r="F397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4233999999999991</v>
       </c>
       <c r="G397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.423400000000008</v>
       </c>
     </row>
@@ -5831,11 +6466,11 @@
         <v>372</v>
       </c>
       <c r="F398">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4488000000000003</v>
       </c>
       <c r="G398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4488000000000074</v>
       </c>
     </row>
@@ -5844,11 +6479,11 @@
         <v>373</v>
       </c>
       <c r="F399">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4741999999999997</v>
       </c>
       <c r="G399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4742000000000068</v>
       </c>
     </row>
@@ -5857,11 +6492,11 @@
         <v>374</v>
       </c>
       <c r="F400">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4995999999999992</v>
       </c>
       <c r="G400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4996000000000063</v>
       </c>
     </row>
@@ -5870,11 +6505,11 @@
         <v>375</v>
       </c>
       <c r="F401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.5250000000000004</v>
       </c>
       <c r="G401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5250000000000057</v>
       </c>
     </row>
@@ -5883,11 +6518,11 @@
         <v>376</v>
       </c>
       <c r="F402">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.5503999999999998</v>
       </c>
       <c r="G402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5504000000000051</v>
       </c>
     </row>
@@ -5896,11 +6531,11 @@
         <v>377</v>
       </c>
       <c r="F403">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.5757999999999992</v>
       </c>
       <c r="G403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5758000000000045</v>
       </c>
     </row>
@@ -5909,11 +6544,11 @@
         <v>378</v>
       </c>
       <c r="F404">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6012000000000004</v>
       </c>
       <c r="G404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.601200000000004</v>
       </c>
     </row>
@@ -5922,11 +6557,11 @@
         <v>379</v>
       </c>
       <c r="F405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6265999999999998</v>
       </c>
       <c r="G405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6266000000000034</v>
       </c>
     </row>
@@ -5935,11 +6570,11 @@
         <v>380</v>
       </c>
       <c r="F406">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6519999999999992</v>
       </c>
       <c r="G406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6520000000000028</v>
       </c>
     </row>
@@ -5948,11 +6583,11 @@
         <v>381</v>
       </c>
       <c r="F407">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.6774000000000004</v>
       </c>
       <c r="G407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6774000000000022</v>
       </c>
     </row>
@@ -5961,11 +6596,11 @@
         <v>382</v>
       </c>
       <c r="F408">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.7027999999999999</v>
       </c>
       <c r="G408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7028000000000016</v>
       </c>
     </row>
@@ -5974,11 +6609,11 @@
         <v>383</v>
       </c>
       <c r="F409">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.7281999999999993</v>
       </c>
       <c r="G409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7282000000000011</v>
       </c>
     </row>
@@ -5987,11 +6622,11 @@
         <v>384</v>
       </c>
       <c r="F410">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.7535999999999987</v>
       </c>
       <c r="G410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7536000000000005</v>
       </c>
     </row>
@@ -6000,11 +6635,11 @@
         <v>385</v>
       </c>
       <c r="F411">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.7789999999999999</v>
       </c>
       <c r="G411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7789999999999999</v>
       </c>
     </row>
@@ -6013,11 +6648,11 @@
         <v>386</v>
       </c>
       <c r="F412">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.8043999999999993</v>
       </c>
       <c r="G412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.8043999999999993</v>
       </c>
     </row>
@@ -6026,11 +6661,11 @@
         <v>387</v>
       </c>
       <c r="F413">
-        <f t="shared" ref="F413:F476" si="14">E413*0.0254</f>
+        <f t="shared" ref="F413:F476" si="15">E413*0.0254</f>
         <v>9.8297999999999988</v>
       </c>
       <c r="G413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.8297999999999988</v>
       </c>
     </row>
@@ -6039,11 +6674,11 @@
         <v>388</v>
       </c>
       <c r="F414">
+        <f t="shared" si="15"/>
+        <v>9.8552</v>
+      </c>
+      <c r="G414">
         <f t="shared" si="14"/>
-        <v>9.8552</v>
-      </c>
-      <c r="G414">
-        <f t="shared" si="13"/>
         <v>9.8551999999999982</v>
       </c>
     </row>
@@ -6052,11 +6687,11 @@
         <v>389</v>
       </c>
       <c r="F415">
+        <f t="shared" si="15"/>
+        <v>9.8805999999999994</v>
+      </c>
+      <c r="G415">
         <f t="shared" si="14"/>
-        <v>9.8805999999999994</v>
-      </c>
-      <c r="G415">
-        <f t="shared" si="13"/>
         <v>9.8805999999999976</v>
       </c>
     </row>
@@ -6065,11 +6700,11 @@
         <v>390</v>
       </c>
       <c r="F416">
+        <f t="shared" si="15"/>
+        <v>9.9059999999999988</v>
+      </c>
+      <c r="G416">
         <f t="shared" si="14"/>
-        <v>9.9059999999999988</v>
-      </c>
-      <c r="G416">
-        <f t="shared" si="13"/>
         <v>9.905999999999997</v>
       </c>
     </row>
@@ -6078,11 +6713,11 @@
         <v>391</v>
       </c>
       <c r="F417">
+        <f t="shared" si="15"/>
+        <v>9.9314</v>
+      </c>
+      <c r="G417">
         <f t="shared" si="14"/>
-        <v>9.9314</v>
-      </c>
-      <c r="G417">
-        <f t="shared" si="13"/>
         <v>9.9313999999999965</v>
       </c>
     </row>
@@ -6091,11 +6726,11 @@
         <v>392</v>
       </c>
       <c r="F418">
+        <f t="shared" si="15"/>
+        <v>9.9567999999999994</v>
+      </c>
+      <c r="G418">
         <f t="shared" si="14"/>
-        <v>9.9567999999999994</v>
-      </c>
-      <c r="G418">
-        <f t="shared" si="13"/>
         <v>9.9567999999999959</v>
       </c>
     </row>
@@ -6104,11 +6739,11 @@
         <v>393</v>
       </c>
       <c r="F419">
+        <f t="shared" si="15"/>
+        <v>9.9821999999999989</v>
+      </c>
+      <c r="G419">
         <f t="shared" si="14"/>
-        <v>9.9821999999999989</v>
-      </c>
-      <c r="G419">
-        <f t="shared" si="13"/>
         <v>9.9821999999999953</v>
       </c>
     </row>
@@ -6117,11 +6752,11 @@
         <v>394</v>
       </c>
       <c r="F420">
+        <f t="shared" si="15"/>
+        <v>10.0076</v>
+      </c>
+      <c r="G420">
         <f t="shared" si="14"/>
-        <v>10.0076</v>
-      </c>
-      <c r="G420">
-        <f t="shared" si="13"/>
         <v>10.007599999999995</v>
       </c>
     </row>
@@ -6130,11 +6765,11 @@
         <v>395</v>
       </c>
       <c r="F421">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.032999999999999</v>
       </c>
       <c r="G421">
-        <f t="shared" ref="G421:G463" si="15">G420+G$36/10</f>
+        <f t="shared" ref="G421:G463" si="16">G420+G$36/10</f>
         <v>10.032999999999994</v>
       </c>
     </row>
@@ -6143,11 +6778,11 @@
         <v>396</v>
       </c>
       <c r="F422">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.058399999999999</v>
       </c>
       <c r="G422">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.058399999999994</v>
       </c>
     </row>
@@ -6156,11 +6791,11 @@
         <v>397</v>
       </c>
       <c r="F423">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.0838</v>
       </c>
       <c r="G423">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.083799999999993</v>
       </c>
     </row>
@@ -6169,11 +6804,11 @@
         <v>398</v>
       </c>
       <c r="F424">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.1092</v>
       </c>
       <c r="G424">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.109199999999992</v>
       </c>
     </row>
@@ -6182,11 +6817,11 @@
         <v>399</v>
       </c>
       <c r="F425">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.134599999999999</v>
       </c>
       <c r="G425">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.134599999999992</v>
       </c>
     </row>
@@ -6195,11 +6830,11 @@
         <v>400</v>
       </c>
       <c r="F426">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.16</v>
       </c>
       <c r="G426">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.159999999999991</v>
       </c>
     </row>
@@ -6208,11 +6843,11 @@
         <v>401</v>
       </c>
       <c r="F427">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.1854</v>
       </c>
       <c r="G427">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.185399999999991</v>
       </c>
     </row>
@@ -6221,11 +6856,11 @@
         <v>402</v>
       </c>
       <c r="F428">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.210799999999999</v>
       </c>
       <c r="G428">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.21079999999999</v>
       </c>
     </row>
@@ -6234,11 +6869,11 @@
         <v>403</v>
       </c>
       <c r="F429">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.2362</v>
       </c>
       <c r="G429">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.23619999999999</v>
       </c>
     </row>
@@ -6247,11 +6882,11 @@
         <v>404</v>
       </c>
       <c r="F430">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.2616</v>
       </c>
       <c r="G430">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.261599999999989</v>
       </c>
     </row>
@@ -6260,11 +6895,11 @@
         <v>405</v>
       </c>
       <c r="F431">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.286999999999999</v>
       </c>
       <c r="G431">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.286999999999988</v>
       </c>
     </row>
@@ -6273,11 +6908,11 @@
         <v>406</v>
       </c>
       <c r="F432">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.3124</v>
       </c>
       <c r="G432">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.312399999999988</v>
       </c>
     </row>
@@ -6286,11 +6921,11 @@
         <v>407</v>
       </c>
       <c r="F433">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.3378</v>
       </c>
       <c r="G433">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.337799999999987</v>
       </c>
     </row>
@@ -6299,11 +6934,11 @@
         <v>408</v>
       </c>
       <c r="F434">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.363199999999999</v>
       </c>
       <c r="G434">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.363199999999987</v>
       </c>
     </row>
@@ -6312,11 +6947,11 @@
         <v>409</v>
       </c>
       <c r="F435">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.3886</v>
       </c>
       <c r="G435">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.388599999999986</v>
       </c>
     </row>
@@ -6325,11 +6960,11 @@
         <v>410</v>
       </c>
       <c r="F436">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.414</v>
       </c>
       <c r="G436">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.413999999999985</v>
       </c>
     </row>
@@ -6338,11 +6973,11 @@
         <v>411</v>
       </c>
       <c r="F437">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.439399999999999</v>
       </c>
       <c r="G437">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.439399999999985</v>
       </c>
     </row>
@@ -6351,11 +6986,11 @@
         <v>412</v>
       </c>
       <c r="F438">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.4648</v>
       </c>
       <c r="G438">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.464799999999984</v>
       </c>
     </row>
@@ -6364,11 +6999,11 @@
         <v>413</v>
       </c>
       <c r="F439">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.4902</v>
       </c>
       <c r="G439">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.490199999999984</v>
       </c>
     </row>
@@ -6377,11 +7012,11 @@
         <v>414</v>
       </c>
       <c r="F440">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.515599999999999</v>
       </c>
       <c r="G440">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.515599999999983</v>
       </c>
     </row>
@@ -6390,11 +7025,11 @@
         <v>415</v>
       </c>
       <c r="F441">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.541</v>
       </c>
       <c r="G441">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.540999999999983</v>
       </c>
     </row>
@@ -6403,11 +7038,11 @@
         <v>416</v>
       </c>
       <c r="F442">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.5664</v>
       </c>
       <c r="G442">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.566399999999982</v>
       </c>
     </row>
@@ -6416,11 +7051,11 @@
         <v>417</v>
       </c>
       <c r="F443">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.591799999999999</v>
       </c>
       <c r="G443">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.591799999999981</v>
       </c>
     </row>
@@ -6429,11 +7064,11 @@
         <v>418</v>
       </c>
       <c r="F444">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.6172</v>
       </c>
       <c r="G444">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.617199999999981</v>
       </c>
     </row>
@@ -6442,11 +7077,11 @@
         <v>419</v>
       </c>
       <c r="F445">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.6426</v>
       </c>
       <c r="G445">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.64259999999998</v>
       </c>
     </row>
@@ -6455,11 +7090,11 @@
         <v>420</v>
       </c>
       <c r="F446">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.667999999999999</v>
       </c>
       <c r="G446">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.66799999999998</v>
       </c>
     </row>
@@ -6468,11 +7103,11 @@
         <v>421</v>
       </c>
       <c r="F447">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.693399999999999</v>
       </c>
       <c r="G447">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.693399999999979</v>
       </c>
     </row>
@@ -6481,11 +7116,11 @@
         <v>422</v>
       </c>
       <c r="F448">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.7188</v>
       </c>
       <c r="G448">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.718799999999979</v>
       </c>
     </row>
@@ -6494,11 +7129,11 @@
         <v>423</v>
       </c>
       <c r="F449">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.744199999999999</v>
       </c>
       <c r="G449">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.744199999999978</v>
       </c>
     </row>
@@ -6507,11 +7142,11 @@
         <v>424</v>
       </c>
       <c r="F450">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.769599999999999</v>
       </c>
       <c r="G450">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.769599999999977</v>
       </c>
     </row>
@@ -6520,11 +7155,11 @@
         <v>425</v>
       </c>
       <c r="F451">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.795</v>
       </c>
       <c r="G451">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.794999999999977</v>
       </c>
     </row>
@@ -6533,11 +7168,11 @@
         <v>426</v>
       </c>
       <c r="F452">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.820399999999999</v>
       </c>
       <c r="G452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.820399999999976</v>
       </c>
     </row>
@@ -6546,11 +7181,11 @@
         <v>427</v>
       </c>
       <c r="F453">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.845799999999999</v>
       </c>
       <c r="G453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.845799999999976</v>
       </c>
     </row>
@@ -6559,11 +7194,11 @@
         <v>428</v>
       </c>
       <c r="F454">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.8712</v>
       </c>
       <c r="G454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.871199999999975</v>
       </c>
     </row>
@@ -6572,11 +7207,11 @@
         <v>429</v>
       </c>
       <c r="F455">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.896599999999999</v>
       </c>
       <c r="G455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.896599999999975</v>
       </c>
     </row>
@@ -6585,11 +7220,11 @@
         <v>430</v>
       </c>
       <c r="F456">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.921999999999999</v>
       </c>
       <c r="G456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.921999999999974</v>
       </c>
     </row>
@@ -6598,11 +7233,11 @@
         <v>431</v>
       </c>
       <c r="F457">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.9474</v>
       </c>
       <c r="G457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.947399999999973</v>
       </c>
     </row>
@@ -6611,11 +7246,11 @@
         <v>432</v>
       </c>
       <c r="F458">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.972799999999999</v>
       </c>
       <c r="G458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.972799999999973</v>
       </c>
     </row>
@@ -6624,11 +7259,11 @@
         <v>433</v>
       </c>
       <c r="F459">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.998199999999999</v>
       </c>
       <c r="G459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.998199999999972</v>
       </c>
     </row>
@@ -6637,11 +7272,11 @@
         <v>434</v>
       </c>
       <c r="F460">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.0236</v>
       </c>
       <c r="G460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.023599999999972</v>
       </c>
     </row>
@@ -6650,11 +7285,11 @@
         <v>435</v>
       </c>
       <c r="F461">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.048999999999999</v>
       </c>
       <c r="G461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.048999999999971</v>
       </c>
     </row>
@@ -6663,11 +7298,11 @@
         <v>436</v>
       </c>
       <c r="F462">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.074399999999999</v>
       </c>
       <c r="G462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.07439999999997</v>
       </c>
     </row>
@@ -6676,11 +7311,11 @@
         <v>437</v>
       </c>
       <c r="F463">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.0998</v>
       </c>
       <c r="G463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.09979999999997</v>
       </c>
     </row>
@@ -6689,11 +7324,11 @@
         <v>438</v>
       </c>
       <c r="F464">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.1252</v>
       </c>
       <c r="G464">
-        <f t="shared" ref="G464:G466" si="16">G463+G$36/10</f>
+        <f t="shared" ref="G464:G466" si="17">G463+G$36/10</f>
         <v>11.125199999999969</v>
       </c>
     </row>
@@ -6702,11 +7337,11 @@
         <v>439</v>
       </c>
       <c r="F465">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.150599999999999</v>
       </c>
       <c r="G465">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.150599999999969</v>
       </c>
     </row>
@@ -6715,11 +7350,11 @@
         <v>440</v>
       </c>
       <c r="F466">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.176</v>
       </c>
       <c r="G466">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.175999999999968</v>
       </c>
     </row>
@@ -6728,7 +7363,7 @@
         <v>441</v>
       </c>
       <c r="F467">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.2014</v>
       </c>
     </row>
@@ -6737,7 +7372,7 @@
         <v>442</v>
       </c>
       <c r="F468">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.226799999999999</v>
       </c>
     </row>
@@ -6746,7 +7381,7 @@
         <v>443</v>
       </c>
       <c r="F469">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.2522</v>
       </c>
     </row>
@@ -6755,7 +7390,7 @@
         <v>444</v>
       </c>
       <c r="F470">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.2776</v>
       </c>
     </row>
@@ -6764,7 +7399,7 @@
         <v>445</v>
       </c>
       <c r="F471">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.302999999999999</v>
       </c>
     </row>
@@ -6773,7 +7408,7 @@
         <v>446</v>
       </c>
       <c r="F472">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.3284</v>
       </c>
     </row>
@@ -6782,7 +7417,7 @@
         <v>447</v>
       </c>
       <c r="F473">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.3538</v>
       </c>
     </row>
@@ -6791,7 +7426,7 @@
         <v>448</v>
       </c>
       <c r="F474">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.379199999999999</v>
       </c>
     </row>
@@ -6800,7 +7435,7 @@
         <v>449</v>
       </c>
       <c r="F475">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.4046</v>
       </c>
     </row>
@@ -6809,7 +7444,7 @@
         <v>450</v>
       </c>
       <c r="F476">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.43</v>
       </c>
     </row>
@@ -6818,7 +7453,7 @@
         <v>451</v>
       </c>
       <c r="F477">
-        <f t="shared" ref="F477:F526" si="17">E477*0.0254</f>
+        <f t="shared" ref="F477:F526" si="18">E477*0.0254</f>
         <v>11.455399999999999</v>
       </c>
     </row>
@@ -6827,7 +7462,7 @@
         <v>452</v>
       </c>
       <c r="F478">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.4808</v>
       </c>
     </row>
@@ -6836,7 +7471,7 @@
         <v>453</v>
       </c>
       <c r="F479">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.5062</v>
       </c>
     </row>
@@ -6845,7 +7480,7 @@
         <v>454</v>
       </c>
       <c r="F480">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.531599999999999</v>
       </c>
     </row>
@@ -6854,7 +7489,7 @@
         <v>455</v>
       </c>
       <c r="F481">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.557</v>
       </c>
     </row>
@@ -6863,7 +7498,7 @@
         <v>456</v>
       </c>
       <c r="F482">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.5824</v>
       </c>
     </row>
@@ -6872,7 +7507,7 @@
         <v>457</v>
       </c>
       <c r="F483">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.607799999999999</v>
       </c>
     </row>
@@ -6881,7 +7516,7 @@
         <v>458</v>
       </c>
       <c r="F484">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.633199999999999</v>
       </c>
     </row>
@@ -6890,7 +7525,7 @@
         <v>459</v>
       </c>
       <c r="F485">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.6586</v>
       </c>
     </row>
@@ -6899,7 +7534,7 @@
         <v>460</v>
       </c>
       <c r="F486">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.683999999999999</v>
       </c>
     </row>
@@ -6908,7 +7543,7 @@
         <v>461</v>
       </c>
       <c r="F487">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.709399999999999</v>
       </c>
     </row>
@@ -6917,7 +7552,7 @@
         <v>462</v>
       </c>
       <c r="F488">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.7348</v>
       </c>
     </row>
@@ -6926,7 +7561,7 @@
         <v>463</v>
       </c>
       <c r="F489">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.760199999999999</v>
       </c>
     </row>
@@ -6935,7 +7570,7 @@
         <v>464</v>
       </c>
       <c r="F490">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.785599999999999</v>
       </c>
     </row>
@@ -6944,7 +7579,7 @@
         <v>465</v>
       </c>
       <c r="F491">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.811</v>
       </c>
     </row>
@@ -6953,7 +7588,7 @@
         <v>466</v>
       </c>
       <c r="F492">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.836399999999999</v>
       </c>
     </row>
@@ -6962,7 +7597,7 @@
         <v>467</v>
       </c>
       <c r="F493">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.861799999999999</v>
       </c>
     </row>
@@ -6971,7 +7606,7 @@
         <v>468</v>
       </c>
       <c r="F494">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.8872</v>
       </c>
     </row>
@@ -6980,7 +7615,7 @@
         <v>469</v>
       </c>
       <c r="F495">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.912599999999999</v>
       </c>
     </row>
@@ -6989,7 +7624,7 @@
         <v>470</v>
       </c>
       <c r="F496">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.937999999999999</v>
       </c>
     </row>
@@ -6998,7 +7633,7 @@
         <v>471</v>
       </c>
       <c r="F497">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.9634</v>
       </c>
     </row>
@@ -7007,7 +7642,7 @@
         <v>472</v>
       </c>
       <c r="F498">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.988799999999999</v>
       </c>
     </row>
@@ -7016,7 +7651,7 @@
         <v>473</v>
       </c>
       <c r="F499">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.014199999999999</v>
       </c>
     </row>
@@ -7025,7 +7660,7 @@
         <v>474</v>
       </c>
       <c r="F500">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.0396</v>
       </c>
     </row>
@@ -7034,7 +7669,7 @@
         <v>475</v>
       </c>
       <c r="F501">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.065</v>
       </c>
     </row>
@@ -7043,7 +7678,7 @@
         <v>476</v>
       </c>
       <c r="F502">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.090399999999999</v>
       </c>
     </row>
@@ -7052,7 +7687,7 @@
         <v>477</v>
       </c>
       <c r="F503">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.1158</v>
       </c>
     </row>
@@ -7061,7 +7696,7 @@
         <v>478</v>
       </c>
       <c r="F504">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.1412</v>
       </c>
     </row>
@@ -7070,7 +7705,7 @@
         <v>479</v>
       </c>
       <c r="F505">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.166599999999999</v>
       </c>
     </row>
@@ -7079,7 +7714,7 @@
         <v>480</v>
       </c>
       <c r="F506">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.192</v>
       </c>
     </row>
@@ -7088,7 +7723,7 @@
         <v>481</v>
       </c>
       <c r="F507">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.2174</v>
       </c>
     </row>
@@ -7097,7 +7732,7 @@
         <v>482</v>
       </c>
       <c r="F508">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.242799999999999</v>
       </c>
     </row>
@@ -7106,7 +7741,7 @@
         <v>483</v>
       </c>
       <c r="F509">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.2682</v>
       </c>
     </row>
@@ -7115,7 +7750,7 @@
         <v>484</v>
       </c>
       <c r="F510">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.2936</v>
       </c>
     </row>
@@ -7124,7 +7759,7 @@
         <v>485</v>
       </c>
       <c r="F511">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.318999999999999</v>
       </c>
     </row>
@@ -7133,7 +7768,7 @@
         <v>486</v>
       </c>
       <c r="F512">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.3444</v>
       </c>
     </row>
@@ -7142,7 +7777,7 @@
         <v>487</v>
       </c>
       <c r="F513">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.3698</v>
       </c>
     </row>
@@ -7151,7 +7786,7 @@
         <v>488</v>
       </c>
       <c r="F514">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.395199999999999</v>
       </c>
     </row>
@@ -7160,7 +7795,7 @@
         <v>489</v>
       </c>
       <c r="F515">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.4206</v>
       </c>
     </row>
@@ -7169,7 +7804,7 @@
         <v>490</v>
       </c>
       <c r="F516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.446</v>
       </c>
     </row>
@@ -7178,7 +7813,7 @@
         <v>491</v>
       </c>
       <c r="F517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.471399999999999</v>
       </c>
     </row>
@@ -7187,7 +7822,7 @@
         <v>492</v>
       </c>
       <c r="F518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.4968</v>
       </c>
     </row>
@@ -7196,7 +7831,7 @@
         <v>493</v>
       </c>
       <c r="F519">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.5222</v>
       </c>
     </row>
@@ -7205,7 +7840,7 @@
         <v>494</v>
       </c>
       <c r="F520">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.547599999999999</v>
       </c>
     </row>
@@ -7214,7 +7849,7 @@
         <v>495</v>
       </c>
       <c r="F521">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.572999999999999</v>
       </c>
     </row>
@@ -7223,7 +7858,7 @@
         <v>496</v>
       </c>
       <c r="F522">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.5984</v>
       </c>
     </row>
@@ -7232,7 +7867,7 @@
         <v>497</v>
       </c>
       <c r="F523">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.623799999999999</v>
       </c>
     </row>
@@ -7241,7 +7876,7 @@
         <v>498</v>
       </c>
       <c r="F524">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.649199999999999</v>
       </c>
     </row>
@@ -7250,7 +7885,7 @@
         <v>499</v>
       </c>
       <c r="F525">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.6746</v>
       </c>
     </row>
@@ -7259,7 +7894,7 @@
         <v>500</v>
       </c>
       <c r="F526">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.7</v>
       </c>
     </row>

--- a/SOFTWARE/Thermal/1D forloops/layup2.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/layup2.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>q/q0</t>
   </si>
@@ -77,13 +78,30 @@
   <si>
     <t>onetime</t>
   </si>
+  <si>
+    <t>layup 4</t>
+  </si>
+  <si>
+    <t>lay2</t>
+  </si>
+  <si>
+    <t>lay4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,11 +246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141268864"/>
-        <c:axId val="141270400"/>
+        <c:axId val="104833408"/>
+        <c:axId val="104834944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141268864"/>
+        <c:axId val="104833408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,12 +260,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141270400"/>
+        <c:crossAx val="104834944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141270400"/>
+        <c:axId val="104834944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -257,7 +276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141268864"/>
+        <c:crossAx val="104833408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -407,11 +426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71639424"/>
-        <c:axId val="71637632"/>
+        <c:axId val="110070016"/>
+        <c:axId val="110075904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71639424"/>
+        <c:axId val="110070016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,12 +440,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71637632"/>
+        <c:crossAx val="110075904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71637632"/>
+        <c:axId val="110075904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71639424"/>
+        <c:crossAx val="110070016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -587,11 +606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="74289920"/>
-        <c:axId val="74267648"/>
+        <c:axId val="110096768"/>
+        <c:axId val="110098304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74289920"/>
+        <c:axId val="110096768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,12 +620,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74267648"/>
+        <c:crossAx val="110098304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74267648"/>
+        <c:axId val="110098304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +636,367 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74289920"/>
+        <c:crossAx val="110096768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>just_orbit</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$6:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0131000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8576999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>one_time</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$10:$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8984000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0131000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92984064"/>
+        <c:axId val="92974080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92984064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92974080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92974080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92984064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>just_orbit</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$6:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$6:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>697.80490534858836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1302.6551106257007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1422.9765384618629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1890.9082819138976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>one_time</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$10:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$10:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>737.55296392033711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1228.6442142553708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1538.971993214032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2049.0862153850826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="45869312"/>
+        <c:axId val="80617472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="45869312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80617472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80617472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45869312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -726,6 +1105,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1021,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V526"/>
+  <dimension ref="B2:AJ526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="O7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,12 +1473,12 @@
     <col min="9" max="9" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>0.25</v>
       </c>
@@ -1094,8 +1535,17 @@
       <c r="P4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0.5</v>
       </c>
@@ -1132,8 +1582,47 @@
       <c r="P5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0.75</v>
       </c>
@@ -1188,8 +1677,43 @@
         <f>U6*T6*T6*PI()</f>
         <v>625.58660174639692</v>
       </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <f>AH7</f>
+        <v>2.7422</v>
+      </c>
+      <c r="Y6">
+        <f>X6*T6^2*PI()</f>
+        <v>697.80490534858836</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>0.9</v>
       </c>
@@ -1241,8 +1765,47 @@
         <f t="shared" ref="V7:V13" si="0">U7*T7*T7*PI()</f>
         <v>1275.1950775592029</v>
       </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <f>AH9</f>
+        <v>2.8795000000000002</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y13" si="1">X7*T7^2*PI()</f>
+        <v>1302.6551106257007</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7">
+        <f>AI7*0.0254</f>
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="AC7">
+        <f>AI7*0.0254</f>
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="AD7">
+        <f>AJ7*0.0254</f>
+        <v>5.4101999999999997</v>
+      </c>
+      <c r="AE7">
+        <f>AJ7*0.0254</f>
+        <v>5.4101999999999997</v>
+      </c>
+      <c r="AF7">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>2.7422</v>
+      </c>
+      <c r="AI7">
+        <v>19</v>
+      </c>
+      <c r="AJ7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -1294,8 +1857,47 @@
         <f t="shared" si="0"/>
         <v>657.0531079240177</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <f>AH11</f>
+        <v>2.0131000000000001</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>1422.9765384618629</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8">
+        <f>AI8*0.0254</f>
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="AC8">
+        <f>AI8*0.0254</f>
+        <v>0.53339999999999999</v>
+      </c>
+      <c r="AD8">
+        <f>AJ8*0.0254</f>
+        <v>5.6133999999999995</v>
+      </c>
+      <c r="AE8">
+        <f>AJ8*0.0254</f>
+        <v>5.6133999999999995</v>
+      </c>
+      <c r="AF8">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH8">
+        <v>2.8984000000000001</v>
+      </c>
+      <c r="AI8">
+        <v>21</v>
+      </c>
+      <c r="AJ8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1347,8 +1949,47 @@
         <f t="shared" si="0"/>
         <v>764.1398855565493</v>
       </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <f>AH13</f>
+        <v>1.8576999999999999</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>1890.9082819138976</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9">
+        <f>AI9*0.0254</f>
+        <v>0.43179999999999996</v>
+      </c>
+      <c r="AC9">
+        <f>AI9*0.0254</f>
+        <v>0.43179999999999996</v>
+      </c>
+      <c r="AD9">
+        <f>AJ9*0.0254</f>
+        <v>6.0705999999999998</v>
+      </c>
+      <c r="AE9">
+        <f>AJ9*0.0254</f>
+        <v>6.0705999999999998</v>
+      </c>
+      <c r="AF9">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>2.8795000000000002</v>
+      </c>
+      <c r="AI9">
+        <v>17</v>
+      </c>
+      <c r="AJ9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>1.25</v>
       </c>
@@ -1403,8 +2044,47 @@
         <f t="shared" si="0"/>
         <v>684.59796399216236</v>
       </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <f>AH8</f>
+        <v>2.8984000000000001</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>737.55296392033711</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10">
+        <f>AI10*0.0254</f>
+        <v>0.4572</v>
+      </c>
+      <c r="AC10">
+        <f>AI10*0.0254</f>
+        <v>0.4572</v>
+      </c>
+      <c r="AD10">
+        <f>AJ10*0.0254</f>
+        <v>5.4609999999999994</v>
+      </c>
+      <c r="AE10">
+        <f>AJ10*0.0254</f>
+        <v>5.4609999999999994</v>
+      </c>
+      <c r="AF10">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH10">
+        <v>2.7159</v>
+      </c>
+      <c r="AI10">
+        <v>18</v>
+      </c>
+      <c r="AJ10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>1.4</v>
       </c>
@@ -1456,8 +2136,47 @@
         <f t="shared" si="0"/>
         <v>1180.1480767804358</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <f>AH10</f>
+        <v>2.7159</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>1228.6442142553708</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB11">
+        <f>AI11*0.0254</f>
+        <v>0.254</v>
+      </c>
+      <c r="AC11">
+        <f>AI11*0.0254</f>
+        <v>0.254</v>
+      </c>
+      <c r="AD11">
+        <f>AJ11*0.0254</f>
+        <v>4.4196</v>
+      </c>
+      <c r="AE11">
+        <f>AJ11*0.0254</f>
+        <v>4.4196</v>
+      </c>
+      <c r="AF11">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH11">
+        <v>2.0131000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>10</v>
+      </c>
+      <c r="AJ11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="I12" t="s">
         <v>17</v>
@@ -1495,8 +2214,47 @@
         <f t="shared" si="0"/>
         <v>728.13478330414023</v>
       </c>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <f>AH12</f>
+        <v>2.1772</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>1538.971993214032</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB12">
+        <f>AI12*0.0254</f>
+        <v>0.254</v>
+      </c>
+      <c r="AC12">
+        <f>AI12*0.0254</f>
+        <v>0.254</v>
+      </c>
+      <c r="AD12">
+        <f>AJ12*0.0254</f>
+        <v>4.9021999999999997</v>
+      </c>
+      <c r="AE12">
+        <f>AJ12*0.0254</f>
+        <v>4.9021999999999997</v>
+      </c>
+      <c r="AF12">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH12">
+        <v>2.1772</v>
+      </c>
+      <c r="AI12">
+        <v>10</v>
+      </c>
+      <c r="AJ12">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="I13" t="s">
         <v>16</v>
@@ -1534,11 +2292,81 @@
         <f t="shared" si="0"/>
         <v>1193.5614207742028</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <f>AH14</f>
+        <v>2.0131000000000001</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>2049.0862153850826</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB13">
+        <f>AI13*0.0254</f>
+        <v>0.254</v>
+      </c>
+      <c r="AC13">
+        <f>AI13*0.0254</f>
+        <v>0.254</v>
+      </c>
+      <c r="AD13">
+        <f>AJ13*0.0254</f>
+        <v>3.9623999999999997</v>
+      </c>
+      <c r="AE13">
+        <f>AJ13*0.0254</f>
+        <v>3.9623999999999997</v>
+      </c>
+      <c r="AF13">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH13">
+        <v>1.8576999999999999</v>
+      </c>
+      <c r="AI13">
+        <v>10</v>
+      </c>
+      <c r="AJ13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="AA14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <f>AI14*0.0254</f>
+        <v>0.254</v>
+      </c>
+      <c r="AC14">
+        <f>AI14*0.0254</f>
+        <v>0.254</v>
+      </c>
+      <c r="AD14">
+        <f>AJ14*0.0254</f>
+        <v>4.4196</v>
+      </c>
+      <c r="AE14">
+        <f>AJ14*0.0254</f>
+        <v>4.4196</v>
+      </c>
+      <c r="AF14">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AH14">
+        <v>2.0131000000000001</v>
+      </c>
+      <c r="AI14">
+        <v>10</v>
+      </c>
+      <c r="AJ14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C29" si="1">C$20*B22</f>
+        <f t="shared" ref="C22:C29" si="2">C$20*B22</f>
         <v>5.08</v>
       </c>
     </row>
@@ -1587,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.62</v>
       </c>
     </row>
@@ -1596,7 +2424,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.16</v>
       </c>
     </row>
@@ -1605,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
     </row>
@@ -1614,7 +2442,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.24</v>
       </c>
     </row>
@@ -1623,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.78</v>
       </c>
       <c r="E27">
@@ -1634,7 +2462,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G34" si="2">G28-G$36/10</f>
+        <f t="shared" ref="G27:G34" si="3">G28-G$36/10</f>
         <v>2.5399999999999964E-2</v>
       </c>
     </row>
@@ -1643,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.32</v>
       </c>
       <c r="E28">
@@ -1654,7 +2482,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0799999999999963E-2</v>
       </c>
     </row>
@@ -1663,18 +2491,18 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.86</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F92" si="3">E29*0.0254</f>
+        <f t="shared" ref="F29:F92" si="4">E29*0.0254</f>
         <v>7.619999999999999E-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.6199999999999962E-2</v>
       </c>
     </row>
@@ -1683,11 +2511,11 @@
         <v>4</v>
       </c>
       <c r="F30">
+        <f t="shared" si="4"/>
+        <v>0.1016</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="3"/>
-        <v>0.1016</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
         <v>0.10159999999999997</v>
       </c>
     </row>
@@ -1696,11 +2524,11 @@
         <v>5</v>
       </c>
       <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0.127</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="3"/>
-        <v>0.127</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
         <v>0.12699999999999997</v>
       </c>
     </row>
@@ -1709,11 +2537,11 @@
         <v>6</v>
       </c>
       <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.15239999999999998</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="3"/>
-        <v>0.15239999999999998</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
         <v>0.15239999999999998</v>
       </c>
     </row>
@@ -1722,11 +2550,11 @@
         <v>7</v>
       </c>
       <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0.17779999999999999</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="3"/>
-        <v>0.17779999999999999</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
         <v>0.17779999999999999</v>
       </c>
     </row>
@@ -1735,11 +2563,11 @@
         <v>8</v>
       </c>
       <c r="F34">
+        <f t="shared" si="4"/>
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="3"/>
-        <v>0.20319999999999999</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
         <v>0.20319999999999999</v>
       </c>
     </row>
@@ -1748,7 +2576,7 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2286</v>
       </c>
       <c r="G35">
@@ -1761,7 +2589,7 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.254</v>
       </c>
       <c r="G36">
@@ -1773,11 +2601,11 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.27939999999999998</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G100" si="4">G36+G$36/10</f>
+        <f t="shared" ref="G37:G100" si="5">G36+G$36/10</f>
         <v>0.27939999999999998</v>
       </c>
     </row>
@@ -1786,11 +2614,11 @@
         <v>12</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30479999999999996</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30479999999999996</v>
       </c>
     </row>
@@ -1799,11 +2627,11 @@
         <v>13</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33019999999999999</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33019999999999994</v>
       </c>
     </row>
@@ -1812,11 +2640,11 @@
         <v>14</v>
       </c>
       <c r="F40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35559999999999997</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35559999999999992</v>
       </c>
     </row>
@@ -1825,11 +2653,11 @@
         <v>15</v>
       </c>
       <c r="F41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38099999999999989</v>
       </c>
     </row>
@@ -1838,11 +2666,11 @@
         <v>16</v>
       </c>
       <c r="F42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.40639999999999998</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40639999999999987</v>
       </c>
     </row>
@@ -1851,11 +2679,11 @@
         <v>17</v>
       </c>
       <c r="F43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.43179999999999996</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43179999999999985</v>
       </c>
     </row>
@@ -1864,11 +2692,11 @@
         <v>18</v>
       </c>
       <c r="F44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4572</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45719999999999983</v>
       </c>
     </row>
@@ -1877,11 +2705,11 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48259999999999997</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48259999999999981</v>
       </c>
     </row>
@@ -1890,11 +2718,11 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.50799999999999979</v>
       </c>
     </row>
@@ -1903,11 +2731,11 @@
         <v>21</v>
       </c>
       <c r="F47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.53339999999999999</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53339999999999976</v>
       </c>
     </row>
@@ -1916,11 +2744,11 @@
         <v>22</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.55879999999999996</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55879999999999974</v>
       </c>
     </row>
@@ -1929,11 +2757,11 @@
         <v>23</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58419999999999994</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58419999999999972</v>
       </c>
     </row>
@@ -1942,11 +2770,11 @@
         <v>24</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.60959999999999992</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6095999999999997</v>
       </c>
     </row>
@@ -1955,11 +2783,11 @@
         <v>25</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.63499999999999968</v>
       </c>
     </row>
@@ -1968,11 +2796,11 @@
         <v>26</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66039999999999999</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66039999999999965</v>
       </c>
     </row>
@@ -1981,11 +2809,11 @@
         <v>27</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68579999999999997</v>
       </c>
       <c r="G53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68579999999999963</v>
       </c>
     </row>
@@ -1994,11 +2822,11 @@
         <v>28</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71119999999999994</v>
       </c>
       <c r="G54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71119999999999961</v>
       </c>
     </row>
@@ -2007,11 +2835,11 @@
         <v>29</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73659999999999992</v>
       </c>
       <c r="G55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73659999999999959</v>
       </c>
     </row>
@@ -2020,11 +2848,11 @@
         <v>30</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.76199999999999957</v>
       </c>
     </row>
@@ -2033,11 +2861,11 @@
         <v>31</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78739999999999999</v>
       </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78739999999999954</v>
       </c>
     </row>
@@ -2046,11 +2874,11 @@
         <v>32</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.81279999999999997</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.81279999999999952</v>
       </c>
     </row>
@@ -2059,11 +2887,11 @@
         <v>33</v>
       </c>
       <c r="F59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83819999999999995</v>
       </c>
       <c r="G59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.8381999999999995</v>
       </c>
     </row>
@@ -2072,11 +2900,11 @@
         <v>34</v>
       </c>
       <c r="F60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86359999999999992</v>
       </c>
       <c r="G60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86359999999999948</v>
       </c>
     </row>
@@ -2085,11 +2913,11 @@
         <v>35</v>
       </c>
       <c r="F61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88900000000000001</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88899999999999946</v>
       </c>
     </row>
@@ -2098,11 +2926,11 @@
         <v>36</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91439999999999999</v>
       </c>
       <c r="G62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.91439999999999944</v>
       </c>
     </row>
@@ -2111,11 +2939,11 @@
         <v>37</v>
       </c>
       <c r="F63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93979999999999997</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93979999999999941</v>
       </c>
     </row>
@@ -2124,11 +2952,11 @@
         <v>38</v>
       </c>
       <c r="F64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96519999999999995</v>
       </c>
       <c r="G64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96519999999999939</v>
       </c>
     </row>
@@ -2137,11 +2965,11 @@
         <v>39</v>
       </c>
       <c r="F65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99059999999999993</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99059999999999937</v>
       </c>
     </row>
@@ -2150,11 +2978,11 @@
         <v>40</v>
       </c>
       <c r="F66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.016</v>
       </c>
       <c r="G66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0159999999999993</v>
       </c>
     </row>
@@ -2163,11 +2991,11 @@
         <v>41</v>
       </c>
       <c r="F67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0413999999999999</v>
       </c>
       <c r="G67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0413999999999994</v>
       </c>
     </row>
@@ -2176,11 +3004,11 @@
         <v>42</v>
       </c>
       <c r="F68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0668</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0667999999999995</v>
       </c>
     </row>
@@ -2189,11 +3017,11 @@
         <v>43</v>
       </c>
       <c r="F69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0922000000000001</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0921999999999996</v>
       </c>
     </row>
@@ -2202,11 +3030,11 @@
         <v>44</v>
       </c>
       <c r="F70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1175999999999999</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1175999999999997</v>
       </c>
     </row>
@@ -2215,11 +3043,11 @@
         <v>45</v>
       </c>
       <c r="F71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.143</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1429999999999998</v>
       </c>
     </row>
@@ -2228,11 +3056,11 @@
         <v>46</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1683999999999999</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1683999999999999</v>
       </c>
     </row>
@@ -2241,11 +3069,11 @@
         <v>47</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1938</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1938</v>
       </c>
     </row>
@@ -2254,11 +3082,11 @@
         <v>48</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2191999999999998</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2192000000000001</v>
       </c>
     </row>
@@ -2267,11 +3095,11 @@
         <v>49</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2445999999999999</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2446000000000002</v>
       </c>
     </row>
@@ -2280,11 +3108,11 @@
         <v>50</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.27</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2700000000000002</v>
       </c>
     </row>
@@ -2293,11 +3121,11 @@
         <v>51</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2953999999999999</v>
       </c>
       <c r="G77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2954000000000003</v>
       </c>
     </row>
@@ -2306,11 +3134,11 @@
         <v>52</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3208</v>
       </c>
       <c r="G78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3208000000000004</v>
       </c>
     </row>
@@ -2319,11 +3147,11 @@
         <v>53</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3461999999999998</v>
       </c>
       <c r="G79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3462000000000005</v>
       </c>
     </row>
@@ -2332,11 +3160,11 @@
         <v>54</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3715999999999999</v>
       </c>
       <c r="G80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3716000000000006</v>
       </c>
     </row>
@@ -2345,11 +3173,11 @@
         <v>55</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.397</v>
       </c>
       <c r="G81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3970000000000007</v>
       </c>
     </row>
@@ -2358,11 +3186,11 @@
         <v>56</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4223999999999999</v>
       </c>
       <c r="G82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4224000000000008</v>
       </c>
     </row>
@@ -2371,11 +3199,11 @@
         <v>57</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4478</v>
       </c>
       <c r="G83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4478000000000009</v>
       </c>
     </row>
@@ -2384,11 +3212,11 @@
         <v>58</v>
       </c>
       <c r="F84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4731999999999998</v>
       </c>
       <c r="G84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.473200000000001</v>
       </c>
     </row>
@@ -2397,11 +3225,11 @@
         <v>59</v>
       </c>
       <c r="F85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4985999999999999</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.498600000000001</v>
       </c>
     </row>
@@ -2410,11 +3238,11 @@
         <v>60</v>
       </c>
       <c r="F86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.524</v>
       </c>
       <c r="G86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5240000000000011</v>
       </c>
     </row>
@@ -2423,11 +3251,11 @@
         <v>61</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5493999999999999</v>
       </c>
       <c r="G87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5494000000000012</v>
       </c>
     </row>
@@ -2436,11 +3264,11 @@
         <v>62</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5748</v>
       </c>
       <c r="G88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5748000000000013</v>
       </c>
     </row>
@@ -2449,11 +3277,11 @@
         <v>63</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6001999999999998</v>
       </c>
       <c r="G89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6002000000000014</v>
       </c>
     </row>
@@ -2462,11 +3290,11 @@
         <v>64</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6255999999999999</v>
       </c>
       <c r="G90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6256000000000015</v>
       </c>
     </row>
@@ -2475,11 +3303,11 @@
         <v>65</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.651</v>
       </c>
       <c r="G91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6510000000000016</v>
       </c>
     </row>
@@ -2488,11 +3316,11 @@
         <v>66</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6763999999999999</v>
       </c>
       <c r="G92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6764000000000017</v>
       </c>
     </row>
@@ -2501,11 +3329,11 @@
         <v>67</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:F156" si="5">E93*0.0254</f>
+        <f t="shared" ref="F93:F156" si="6">E93*0.0254</f>
         <v>1.7018</v>
       </c>
       <c r="G93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7018000000000018</v>
       </c>
     </row>
@@ -2514,11 +3342,11 @@
         <v>68</v>
       </c>
       <c r="F94">
+        <f t="shared" si="6"/>
+        <v>1.7271999999999998</v>
+      </c>
+      <c r="G94">
         <f t="shared" si="5"/>
-        <v>1.7271999999999998</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="4"/>
         <v>1.7272000000000018</v>
       </c>
     </row>
@@ -2527,11 +3355,11 @@
         <v>69</v>
       </c>
       <c r="F95">
+        <f t="shared" si="6"/>
+        <v>1.7525999999999999</v>
+      </c>
+      <c r="G95">
         <f t="shared" si="5"/>
-        <v>1.7525999999999999</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="4"/>
         <v>1.7526000000000019</v>
       </c>
     </row>
@@ -2540,11 +3368,11 @@
         <v>70</v>
       </c>
       <c r="F96">
+        <f t="shared" si="6"/>
+        <v>1.778</v>
+      </c>
+      <c r="G96">
         <f t="shared" si="5"/>
-        <v>1.778</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="4"/>
         <v>1.778000000000002</v>
       </c>
     </row>
@@ -2553,11 +3381,11 @@
         <v>71</v>
       </c>
       <c r="F97">
+        <f t="shared" si="6"/>
+        <v>1.8033999999999999</v>
+      </c>
+      <c r="G97">
         <f t="shared" si="5"/>
-        <v>1.8033999999999999</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="4"/>
         <v>1.8034000000000021</v>
       </c>
     </row>
@@ -2566,11 +3394,11 @@
         <v>72</v>
       </c>
       <c r="F98">
+        <f t="shared" si="6"/>
+        <v>1.8288</v>
+      </c>
+      <c r="G98">
         <f t="shared" si="5"/>
-        <v>1.8288</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="4"/>
         <v>1.8288000000000022</v>
       </c>
     </row>
@@ -2579,11 +3407,11 @@
         <v>73</v>
       </c>
       <c r="F99">
+        <f t="shared" si="6"/>
+        <v>1.8541999999999998</v>
+      </c>
+      <c r="G99">
         <f t="shared" si="5"/>
-        <v>1.8541999999999998</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="4"/>
         <v>1.8542000000000023</v>
       </c>
     </row>
@@ -2592,11 +3420,11 @@
         <v>74</v>
       </c>
       <c r="F100">
+        <f t="shared" si="6"/>
+        <v>1.8795999999999999</v>
+      </c>
+      <c r="G100">
         <f t="shared" si="5"/>
-        <v>1.8795999999999999</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="4"/>
         <v>1.8796000000000024</v>
       </c>
     </row>
@@ -2605,11 +3433,11 @@
         <v>75</v>
       </c>
       <c r="F101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.905</v>
       </c>
       <c r="G101">
-        <f t="shared" ref="G101:G164" si="6">G100+G$36/10</f>
+        <f t="shared" ref="G101:G164" si="7">G100+G$36/10</f>
         <v>1.9050000000000025</v>
       </c>
     </row>
@@ -2618,11 +3446,11 @@
         <v>76</v>
       </c>
       <c r="F102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9303999999999999</v>
       </c>
       <c r="G102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9304000000000026</v>
       </c>
     </row>
@@ -2631,11 +3459,11 @@
         <v>77</v>
       </c>
       <c r="F103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9558</v>
       </c>
       <c r="G103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9558000000000026</v>
       </c>
     </row>
@@ -2644,11 +3472,11 @@
         <v>78</v>
       </c>
       <c r="F104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9811999999999999</v>
       </c>
       <c r="G104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9812000000000027</v>
       </c>
     </row>
@@ -2657,11 +3485,11 @@
         <v>79</v>
       </c>
       <c r="F105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0065999999999997</v>
       </c>
       <c r="G105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0066000000000028</v>
       </c>
     </row>
@@ -2670,11 +3498,11 @@
         <v>80</v>
       </c>
       <c r="F106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.032</v>
       </c>
       <c r="G106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0320000000000027</v>
       </c>
     </row>
@@ -2683,11 +3511,11 @@
         <v>81</v>
       </c>
       <c r="F107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0573999999999999</v>
       </c>
       <c r="G107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0574000000000026</v>
       </c>
     </row>
@@ -2696,11 +3524,11 @@
         <v>82</v>
       </c>
       <c r="F108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0827999999999998</v>
       </c>
       <c r="G108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0828000000000024</v>
       </c>
     </row>
@@ -2709,11 +3537,11 @@
         <v>83</v>
       </c>
       <c r="F109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1082000000000001</v>
       </c>
       <c r="G109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1082000000000023</v>
       </c>
     </row>
@@ -2722,11 +3550,11 @@
         <v>84</v>
       </c>
       <c r="F110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1335999999999999</v>
       </c>
       <c r="G110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1336000000000022</v>
       </c>
     </row>
@@ -2735,11 +3563,11 @@
         <v>85</v>
       </c>
       <c r="F111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1589999999999998</v>
       </c>
       <c r="G111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.159000000000002</v>
       </c>
     </row>
@@ -2748,11 +3576,11 @@
         <v>86</v>
       </c>
       <c r="F112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1844000000000001</v>
       </c>
       <c r="G112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1844000000000019</v>
       </c>
     </row>
@@ -2761,11 +3589,11 @@
         <v>87</v>
       </c>
       <c r="F113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2098</v>
       </c>
       <c r="G113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2098000000000018</v>
       </c>
     </row>
@@ -2774,11 +3602,11 @@
         <v>88</v>
       </c>
       <c r="F114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2351999999999999</v>
       </c>
       <c r="G114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2352000000000016</v>
       </c>
     </row>
@@ -2787,11 +3615,11 @@
         <v>89</v>
       </c>
       <c r="F115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2605999999999997</v>
       </c>
       <c r="G115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2606000000000015</v>
       </c>
     </row>
@@ -2800,11 +3628,11 @@
         <v>90</v>
       </c>
       <c r="F116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.286</v>
       </c>
       <c r="G116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2860000000000014</v>
       </c>
     </row>
@@ -2813,11 +3641,11 @@
         <v>91</v>
       </c>
       <c r="F117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3113999999999999</v>
       </c>
       <c r="G117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3114000000000012</v>
       </c>
     </row>
@@ -2826,11 +3654,11 @@
         <v>92</v>
       </c>
       <c r="F118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3367999999999998</v>
       </c>
       <c r="G118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3368000000000011</v>
       </c>
     </row>
@@ -2839,11 +3667,11 @@
         <v>93</v>
       </c>
       <c r="F119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3622000000000001</v>
       </c>
       <c r="G119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.362200000000001</v>
       </c>
     </row>
@@ -2852,11 +3680,11 @@
         <v>94</v>
       </c>
       <c r="F120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3875999999999999</v>
       </c>
       <c r="G120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3876000000000008</v>
       </c>
     </row>
@@ -2865,11 +3693,11 @@
         <v>95</v>
       </c>
       <c r="F121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4129999999999998</v>
       </c>
       <c r="G121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4130000000000007</v>
       </c>
     </row>
@@ -2878,11 +3706,11 @@
         <v>96</v>
       </c>
       <c r="F122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4383999999999997</v>
       </c>
       <c r="G122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4384000000000006</v>
       </c>
     </row>
@@ -2891,11 +3719,11 @@
         <v>97</v>
       </c>
       <c r="F123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4638</v>
       </c>
       <c r="G123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4638000000000004</v>
       </c>
     </row>
@@ -2904,11 +3732,11 @@
         <v>98</v>
       </c>
       <c r="F124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.4891999999999999</v>
       </c>
       <c r="G124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4892000000000003</v>
       </c>
     </row>
@@ -2917,11 +3745,11 @@
         <v>99</v>
       </c>
       <c r="F125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5145999999999997</v>
       </c>
       <c r="G125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5146000000000002</v>
       </c>
     </row>
@@ -2930,11 +3758,11 @@
         <v>100</v>
       </c>
       <c r="F126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.54</v>
       </c>
       <c r="G126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.54</v>
       </c>
     </row>
@@ -2943,11 +3771,11 @@
         <v>101</v>
       </c>
       <c r="F127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5653999999999999</v>
       </c>
       <c r="G127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5653999999999999</v>
       </c>
     </row>
@@ -2956,11 +3784,11 @@
         <v>102</v>
       </c>
       <c r="F128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5907999999999998</v>
       </c>
       <c r="G128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5907999999999998</v>
       </c>
     </row>
@@ -2969,11 +3797,11 @@
         <v>103</v>
       </c>
       <c r="F129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6162000000000001</v>
       </c>
       <c r="G129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6161999999999996</v>
       </c>
     </row>
@@ -2982,11 +3810,11 @@
         <v>104</v>
       </c>
       <c r="F130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6415999999999999</v>
       </c>
       <c r="G130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6415999999999995</v>
       </c>
     </row>
@@ -2995,11 +3823,11 @@
         <v>105</v>
       </c>
       <c r="F131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6669999999999998</v>
       </c>
       <c r="G131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6669999999999994</v>
       </c>
     </row>
@@ -3008,11 +3836,11 @@
         <v>106</v>
       </c>
       <c r="F132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.6923999999999997</v>
       </c>
       <c r="G132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.6923999999999992</v>
       </c>
     </row>
@@ -3021,11 +3849,11 @@
         <v>107</v>
       </c>
       <c r="F133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7178</v>
       </c>
       <c r="G133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7177999999999991</v>
       </c>
     </row>
@@ -3034,11 +3862,11 @@
         <v>108</v>
       </c>
       <c r="F134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7431999999999999</v>
       </c>
       <c r="G134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.743199999999999</v>
       </c>
     </row>
@@ -3047,11 +3875,11 @@
         <v>109</v>
       </c>
       <c r="F135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7685999999999997</v>
       </c>
       <c r="G135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7685999999999988</v>
       </c>
     </row>
@@ -3060,11 +3888,11 @@
         <v>110</v>
       </c>
       <c r="F136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.794</v>
       </c>
       <c r="G136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7939999999999987</v>
       </c>
     </row>
@@ -3073,11 +3901,11 @@
         <v>111</v>
       </c>
       <c r="F137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8193999999999999</v>
       </c>
       <c r="G137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8193999999999986</v>
       </c>
     </row>
@@ -3086,11 +3914,11 @@
         <v>112</v>
       </c>
       <c r="F138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8447999999999998</v>
       </c>
       <c r="G138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8447999999999984</v>
       </c>
     </row>
@@ -3099,11 +3927,11 @@
         <v>113</v>
       </c>
       <c r="F139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8702000000000001</v>
       </c>
       <c r="G139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8701999999999983</v>
       </c>
     </row>
@@ -3112,11 +3940,11 @@
         <v>114</v>
       </c>
       <c r="F140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8956</v>
       </c>
       <c r="G140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8955999999999982</v>
       </c>
     </row>
@@ -3125,11 +3953,11 @@
         <v>115</v>
       </c>
       <c r="F141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9209999999999998</v>
       </c>
       <c r="G141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.920999999999998</v>
       </c>
     </row>
@@ -3138,11 +3966,11 @@
         <v>116</v>
       </c>
       <c r="F142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9463999999999997</v>
       </c>
       <c r="G142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9463999999999979</v>
       </c>
     </row>
@@ -3151,11 +3979,11 @@
         <v>117</v>
       </c>
       <c r="F143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9718</v>
       </c>
       <c r="G143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9717999999999978</v>
       </c>
     </row>
@@ -3164,11 +3992,11 @@
         <v>118</v>
       </c>
       <c r="F144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9971999999999999</v>
       </c>
       <c r="G144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9971999999999976</v>
       </c>
     </row>
@@ -3177,11 +4005,11 @@
         <v>119</v>
       </c>
       <c r="F145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0225999999999997</v>
       </c>
       <c r="G145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0225999999999975</v>
       </c>
     </row>
@@ -3190,11 +4018,11 @@
         <v>120</v>
       </c>
       <c r="F146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.048</v>
       </c>
       <c r="G146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0479999999999974</v>
       </c>
     </row>
@@ -3203,11 +4031,11 @@
         <v>121</v>
       </c>
       <c r="F147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0733999999999999</v>
       </c>
       <c r="G147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0733999999999972</v>
       </c>
     </row>
@@ -3216,11 +4044,11 @@
         <v>122</v>
       </c>
       <c r="F148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0987999999999998</v>
       </c>
       <c r="G148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0987999999999971</v>
       </c>
     </row>
@@ -3229,11 +4057,11 @@
         <v>123</v>
       </c>
       <c r="F149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1242000000000001</v>
       </c>
       <c r="G149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.124199999999997</v>
       </c>
     </row>
@@ -3242,11 +4070,11 @@
         <v>124</v>
       </c>
       <c r="F150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1496</v>
       </c>
       <c r="G150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1495999999999968</v>
       </c>
     </row>
@@ -3255,11 +4083,11 @@
         <v>125</v>
       </c>
       <c r="F151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="G151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1749999999999967</v>
       </c>
     </row>
@@ -3268,11 +4096,11 @@
         <v>126</v>
       </c>
       <c r="F152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2003999999999997</v>
       </c>
       <c r="G152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2003999999999966</v>
       </c>
     </row>
@@ -3281,11 +4109,11 @@
         <v>127</v>
       </c>
       <c r="F153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2258</v>
       </c>
       <c r="G153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2257999999999964</v>
       </c>
     </row>
@@ -3294,11 +4122,11 @@
         <v>128</v>
       </c>
       <c r="F154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2511999999999999</v>
       </c>
       <c r="G154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2511999999999963</v>
       </c>
     </row>
@@ -3307,11 +4135,11 @@
         <v>129</v>
       </c>
       <c r="F155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2765999999999997</v>
       </c>
       <c r="G155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.2765999999999962</v>
       </c>
     </row>
@@ -3320,11 +4148,11 @@
         <v>130</v>
       </c>
       <c r="F156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.302</v>
       </c>
       <c r="G156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.301999999999996</v>
       </c>
     </row>
@@ -3333,11 +4161,11 @@
         <v>131</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157:F220" si="7">E157*0.0254</f>
+        <f t="shared" ref="F157:F220" si="8">E157*0.0254</f>
         <v>3.3273999999999999</v>
       </c>
       <c r="G157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3273999999999959</v>
       </c>
     </row>
@@ -3346,11 +4174,11 @@
         <v>132</v>
       </c>
       <c r="F158">
+        <f t="shared" si="8"/>
+        <v>3.3527999999999998</v>
+      </c>
+      <c r="G158">
         <f t="shared" si="7"/>
-        <v>3.3527999999999998</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="6"/>
         <v>3.3527999999999958</v>
       </c>
     </row>
@@ -3359,11 +4187,11 @@
         <v>133</v>
       </c>
       <c r="F159">
+        <f t="shared" si="8"/>
+        <v>3.3781999999999996</v>
+      </c>
+      <c r="G159">
         <f t="shared" si="7"/>
-        <v>3.3781999999999996</v>
-      </c>
-      <c r="G159">
-        <f t="shared" si="6"/>
         <v>3.3781999999999957</v>
       </c>
     </row>
@@ -3372,11 +4200,11 @@
         <v>134</v>
       </c>
       <c r="F160">
+        <f t="shared" si="8"/>
+        <v>3.4036</v>
+      </c>
+      <c r="G160">
         <f t="shared" si="7"/>
-        <v>3.4036</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="6"/>
         <v>3.4035999999999955</v>
       </c>
     </row>
@@ -3385,11 +4213,11 @@
         <v>135</v>
       </c>
       <c r="F161">
+        <f t="shared" si="8"/>
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="G161">
         <f t="shared" si="7"/>
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="6"/>
         <v>3.4289999999999954</v>
       </c>
     </row>
@@ -3398,11 +4226,11 @@
         <v>136</v>
       </c>
       <c r="F162">
+        <f t="shared" si="8"/>
+        <v>3.4543999999999997</v>
+      </c>
+      <c r="G162">
         <f t="shared" si="7"/>
-        <v>3.4543999999999997</v>
-      </c>
-      <c r="G162">
-        <f t="shared" si="6"/>
         <v>3.4543999999999953</v>
       </c>
     </row>
@@ -3411,11 +4239,11 @@
         <v>137</v>
       </c>
       <c r="F163">
+        <f t="shared" si="8"/>
+        <v>3.4798</v>
+      </c>
+      <c r="G163">
         <f t="shared" si="7"/>
-        <v>3.4798</v>
-      </c>
-      <c r="G163">
-        <f t="shared" si="6"/>
         <v>3.4797999999999951</v>
       </c>
     </row>
@@ -3424,11 +4252,11 @@
         <v>138</v>
       </c>
       <c r="F164">
+        <f t="shared" si="8"/>
+        <v>3.5051999999999999</v>
+      </c>
+      <c r="G164">
         <f t="shared" si="7"/>
-        <v>3.5051999999999999</v>
-      </c>
-      <c r="G164">
-        <f t="shared" si="6"/>
         <v>3.505199999999995</v>
       </c>
     </row>
@@ -3437,11 +4265,11 @@
         <v>139</v>
       </c>
       <c r="F165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5305999999999997</v>
       </c>
       <c r="G165">
-        <f t="shared" ref="G165:G228" si="8">G164+G$36/10</f>
+        <f t="shared" ref="G165:G228" si="9">G164+G$36/10</f>
         <v>3.5305999999999949</v>
       </c>
     </row>
@@ -3450,11 +4278,11 @@
         <v>140</v>
       </c>
       <c r="F166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.556</v>
       </c>
       <c r="G166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5559999999999947</v>
       </c>
     </row>
@@ -3463,11 +4291,11 @@
         <v>141</v>
       </c>
       <c r="F167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.5813999999999999</v>
       </c>
       <c r="G167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5813999999999946</v>
       </c>
     </row>
@@ -3476,11 +4304,11 @@
         <v>142</v>
       </c>
       <c r="F168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6067999999999998</v>
       </c>
       <c r="G168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6067999999999945</v>
       </c>
     </row>
@@ -3489,11 +4317,11 @@
         <v>143</v>
       </c>
       <c r="F169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6321999999999997</v>
       </c>
       <c r="G169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6321999999999943</v>
       </c>
     </row>
@@ -3502,11 +4330,11 @@
         <v>144</v>
       </c>
       <c r="F170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6576</v>
       </c>
       <c r="G170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6575999999999942</v>
       </c>
     </row>
@@ -3515,11 +4343,11 @@
         <v>145</v>
       </c>
       <c r="F171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6829999999999998</v>
       </c>
       <c r="G171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.6829999999999941</v>
       </c>
     </row>
@@ -3528,11 +4356,11 @@
         <v>146</v>
       </c>
       <c r="F172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7083999999999997</v>
       </c>
       <c r="G172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7083999999999939</v>
       </c>
     </row>
@@ -3541,11 +4369,11 @@
         <v>147</v>
       </c>
       <c r="F173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7338</v>
       </c>
       <c r="G173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7337999999999938</v>
       </c>
     </row>
@@ -3554,11 +4382,11 @@
         <v>148</v>
       </c>
       <c r="F174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7591999999999999</v>
       </c>
       <c r="G174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7591999999999937</v>
       </c>
     </row>
@@ -3567,11 +4395,11 @@
         <v>149</v>
       </c>
       <c r="F175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7845999999999997</v>
       </c>
       <c r="G175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.7845999999999935</v>
       </c>
     </row>
@@ -3580,11 +4408,11 @@
         <v>150</v>
       </c>
       <c r="F176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.81</v>
       </c>
       <c r="G176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8099999999999934</v>
       </c>
     </row>
@@ -3593,11 +4421,11 @@
         <v>151</v>
       </c>
       <c r="F177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8353999999999999</v>
       </c>
       <c r="G177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8353999999999933</v>
       </c>
     </row>
@@ -3606,11 +4434,11 @@
         <v>152</v>
       </c>
       <c r="F178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8607999999999998</v>
       </c>
       <c r="G178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8607999999999931</v>
       </c>
     </row>
@@ -3619,11 +4447,11 @@
         <v>153</v>
       </c>
       <c r="F179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8861999999999997</v>
       </c>
       <c r="G179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.886199999999993</v>
       </c>
     </row>
@@ -3632,11 +4460,11 @@
         <v>154</v>
       </c>
       <c r="F180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9116</v>
       </c>
       <c r="G180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9115999999999929</v>
       </c>
     </row>
@@ -3645,11 +4473,11 @@
         <v>155</v>
       </c>
       <c r="F181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9369999999999998</v>
       </c>
       <c r="G181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9369999999999927</v>
       </c>
     </row>
@@ -3658,11 +4486,11 @@
         <v>156</v>
       </c>
       <c r="F182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9623999999999997</v>
       </c>
       <c r="G182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9623999999999926</v>
       </c>
     </row>
@@ -3671,11 +4499,11 @@
         <v>157</v>
       </c>
       <c r="F183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9878</v>
       </c>
       <c r="G183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9877999999999925</v>
       </c>
     </row>
@@ -3684,11 +4512,11 @@
         <v>158</v>
       </c>
       <c r="F184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0131999999999994</v>
       </c>
       <c r="G184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0131999999999923</v>
       </c>
     </row>
@@ -3697,11 +4525,11 @@
         <v>159</v>
       </c>
       <c r="F185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0385999999999997</v>
       </c>
       <c r="G185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0385999999999926</v>
       </c>
     </row>
@@ -3710,11 +4538,11 @@
         <v>160</v>
       </c>
       <c r="F186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0640000000000001</v>
       </c>
       <c r="G186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.063999999999993</v>
       </c>
     </row>
@@ -3723,11 +4551,11 @@
         <v>161</v>
       </c>
       <c r="F187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.0893999999999995</v>
       </c>
       <c r="G187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0893999999999933</v>
       </c>
     </row>
@@ -3736,11 +4564,11 @@
         <v>162</v>
       </c>
       <c r="F188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1147999999999998</v>
       </c>
       <c r="G188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1147999999999936</v>
       </c>
     </row>
@@ -3749,11 +4577,11 @@
         <v>163</v>
       </c>
       <c r="F189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1402000000000001</v>
       </c>
       <c r="G189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1401999999999939</v>
       </c>
     </row>
@@ -3762,11 +4590,11 @@
         <v>164</v>
       </c>
       <c r="F190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1655999999999995</v>
       </c>
       <c r="G190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1655999999999942</v>
       </c>
     </row>
@@ -3775,11 +4603,11 @@
         <v>165</v>
       </c>
       <c r="F191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.1909999999999998</v>
       </c>
       <c r="G191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1909999999999945</v>
       </c>
     </row>
@@ -3788,11 +4616,11 @@
         <v>166</v>
       </c>
       <c r="F192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2164000000000001</v>
       </c>
       <c r="G192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2163999999999948</v>
       </c>
     </row>
@@ -3801,11 +4629,11 @@
         <v>167</v>
       </c>
       <c r="F193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2417999999999996</v>
       </c>
       <c r="G193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2417999999999951</v>
       </c>
     </row>
@@ -3814,11 +4642,11 @@
         <v>168</v>
       </c>
       <c r="F194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2671999999999999</v>
       </c>
       <c r="G194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2671999999999954</v>
       </c>
     </row>
@@ -3827,11 +4655,11 @@
         <v>169</v>
       </c>
       <c r="F195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2926000000000002</v>
       </c>
       <c r="G195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2925999999999958</v>
       </c>
     </row>
@@ -3840,11 +4668,11 @@
         <v>170</v>
       </c>
       <c r="F196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="G196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.3179999999999961</v>
       </c>
     </row>
@@ -3853,11 +4681,11 @@
         <v>171</v>
       </c>
       <c r="F197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3433999999999999</v>
       </c>
       <c r="G197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.3433999999999964</v>
       </c>
     </row>
@@ -3866,11 +4694,11 @@
         <v>172</v>
       </c>
       <c r="F198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3688000000000002</v>
       </c>
       <c r="G198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.3687999999999967</v>
       </c>
     </row>
@@ -3879,11 +4707,11 @@
         <v>173</v>
       </c>
       <c r="F199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.3941999999999997</v>
       </c>
       <c r="G199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.394199999999997</v>
       </c>
     </row>
@@ -3892,11 +4720,11 @@
         <v>174</v>
       </c>
       <c r="F200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4196</v>
       </c>
       <c r="G200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4195999999999973</v>
       </c>
     </row>
@@ -3905,11 +4733,11 @@
         <v>175</v>
       </c>
       <c r="F201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4449999999999994</v>
       </c>
       <c r="G201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4449999999999976</v>
       </c>
     </row>
@@ -3918,11 +4746,11 @@
         <v>176</v>
       </c>
       <c r="F202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4703999999999997</v>
       </c>
       <c r="G202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4703999999999979</v>
       </c>
     </row>
@@ -3931,11 +4759,11 @@
         <v>177</v>
       </c>
       <c r="F203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.4958</v>
       </c>
       <c r="G203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.4957999999999982</v>
       </c>
     </row>
@@ -3944,11 +4772,11 @@
         <v>178</v>
       </c>
       <c r="F204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5211999999999994</v>
       </c>
       <c r="G204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5211999999999986</v>
       </c>
     </row>
@@ -3957,11 +4785,11 @@
         <v>179</v>
       </c>
       <c r="F205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5465999999999998</v>
       </c>
       <c r="G205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5465999999999989</v>
       </c>
     </row>
@@ -3970,11 +4798,11 @@
         <v>180</v>
       </c>
       <c r="F206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5720000000000001</v>
       </c>
       <c r="G206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5719999999999992</v>
       </c>
     </row>
@@ -3983,11 +4811,11 @@
         <v>181</v>
       </c>
       <c r="F207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.5973999999999995</v>
       </c>
       <c r="G207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5973999999999995</v>
       </c>
     </row>
@@ -3996,11 +4824,11 @@
         <v>182</v>
       </c>
       <c r="F208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6227999999999998</v>
       </c>
       <c r="G208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6227999999999998</v>
       </c>
     </row>
@@ -4009,11 +4837,11 @@
         <v>183</v>
       </c>
       <c r="F209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6482000000000001</v>
       </c>
       <c r="G209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6482000000000001</v>
       </c>
     </row>
@@ -4022,11 +4850,11 @@
         <v>184</v>
       </c>
       <c r="F210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6735999999999995</v>
       </c>
       <c r="G210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6736000000000004</v>
       </c>
     </row>
@@ -4035,11 +4863,11 @@
         <v>185</v>
       </c>
       <c r="F211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6989999999999998</v>
       </c>
       <c r="G211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6990000000000007</v>
       </c>
     </row>
@@ -4048,11 +4876,11 @@
         <v>186</v>
       </c>
       <c r="F212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7244000000000002</v>
       </c>
       <c r="G212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.724400000000001</v>
       </c>
     </row>
@@ -4061,11 +4889,11 @@
         <v>187</v>
       </c>
       <c r="F213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7497999999999996</v>
       </c>
       <c r="G213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.7498000000000014</v>
       </c>
     </row>
@@ -4074,11 +4902,11 @@
         <v>188</v>
       </c>
       <c r="F214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.7751999999999999</v>
       </c>
       <c r="G214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.7752000000000017</v>
       </c>
     </row>
@@ -4087,11 +4915,11 @@
         <v>189</v>
       </c>
       <c r="F215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8006000000000002</v>
       </c>
       <c r="G215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.800600000000002</v>
       </c>
     </row>
@@ -4100,11 +4928,11 @@
         <v>190</v>
       </c>
       <c r="F216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8259999999999996</v>
       </c>
       <c r="G216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8260000000000023</v>
       </c>
     </row>
@@ -4113,11 +4941,11 @@
         <v>191</v>
       </c>
       <c r="F217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8513999999999999</v>
       </c>
       <c r="G217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8514000000000026</v>
       </c>
     </row>
@@ -4126,11 +4954,11 @@
         <v>192</v>
       </c>
       <c r="F218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8767999999999994</v>
       </c>
       <c r="G218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.8768000000000029</v>
       </c>
     </row>
@@ -4139,11 +4967,11 @@
         <v>193</v>
       </c>
       <c r="F219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9021999999999997</v>
       </c>
       <c r="G219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9022000000000032</v>
       </c>
     </row>
@@ -4152,11 +4980,11 @@
         <v>194</v>
       </c>
       <c r="F220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.9276</v>
       </c>
       <c r="G220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9276000000000035</v>
       </c>
     </row>
@@ -4165,11 +4993,11 @@
         <v>195</v>
       </c>
       <c r="F221">
-        <f t="shared" ref="F221:F284" si="9">E221*0.0254</f>
+        <f t="shared" ref="F221:F284" si="10">E221*0.0254</f>
         <v>4.9529999999999994</v>
       </c>
       <c r="G221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9530000000000038</v>
       </c>
     </row>
@@ -4178,11 +5006,11 @@
         <v>196</v>
       </c>
       <c r="F222">
+        <f t="shared" si="10"/>
+        <v>4.9783999999999997</v>
+      </c>
+      <c r="G222">
         <f t="shared" si="9"/>
-        <v>4.9783999999999997</v>
-      </c>
-      <c r="G222">
-        <f t="shared" si="8"/>
         <v>4.9784000000000042</v>
       </c>
     </row>
@@ -4191,11 +5019,11 @@
         <v>197</v>
       </c>
       <c r="F223">
+        <f t="shared" si="10"/>
+        <v>5.0038</v>
+      </c>
+      <c r="G223">
         <f t="shared" si="9"/>
-        <v>5.0038</v>
-      </c>
-      <c r="G223">
-        <f t="shared" si="8"/>
         <v>5.0038000000000045</v>
       </c>
     </row>
@@ -4204,11 +5032,11 @@
         <v>198</v>
       </c>
       <c r="F224">
+        <f t="shared" si="10"/>
+        <v>5.0291999999999994</v>
+      </c>
+      <c r="G224">
         <f t="shared" si="9"/>
-        <v>5.0291999999999994</v>
-      </c>
-      <c r="G224">
-        <f t="shared" si="8"/>
         <v>5.0292000000000048</v>
       </c>
     </row>
@@ -4217,11 +5045,11 @@
         <v>199</v>
       </c>
       <c r="F225">
+        <f t="shared" si="10"/>
+        <v>5.0545999999999998</v>
+      </c>
+      <c r="G225">
         <f t="shared" si="9"/>
-        <v>5.0545999999999998</v>
-      </c>
-      <c r="G225">
-        <f t="shared" si="8"/>
         <v>5.0546000000000051</v>
       </c>
     </row>
@@ -4230,11 +5058,11 @@
         <v>200</v>
       </c>
       <c r="F226">
+        <f t="shared" si="10"/>
+        <v>5.08</v>
+      </c>
+      <c r="G226">
         <f t="shared" si="9"/>
-        <v>5.08</v>
-      </c>
-      <c r="G226">
-        <f t="shared" si="8"/>
         <v>5.0800000000000054</v>
       </c>
     </row>
@@ -4243,11 +5071,11 @@
         <v>201</v>
       </c>
       <c r="F227">
+        <f t="shared" si="10"/>
+        <v>5.1053999999999995</v>
+      </c>
+      <c r="G227">
         <f t="shared" si="9"/>
-        <v>5.1053999999999995</v>
-      </c>
-      <c r="G227">
-        <f t="shared" si="8"/>
         <v>5.1054000000000057</v>
       </c>
     </row>
@@ -4256,11 +5084,11 @@
         <v>202</v>
       </c>
       <c r="F228">
+        <f t="shared" si="10"/>
+        <v>5.1307999999999998</v>
+      </c>
+      <c r="G228">
         <f t="shared" si="9"/>
-        <v>5.1307999999999998</v>
-      </c>
-      <c r="G228">
-        <f t="shared" si="8"/>
         <v>5.130800000000006</v>
       </c>
     </row>
@@ -4269,11 +5097,11 @@
         <v>203</v>
       </c>
       <c r="F229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1562000000000001</v>
       </c>
       <c r="G229">
-        <f t="shared" ref="G229:G292" si="10">G228+G$36/10</f>
+        <f t="shared" ref="G229:G292" si="11">G228+G$36/10</f>
         <v>5.1562000000000063</v>
       </c>
     </row>
@@ -4282,11 +5110,11 @@
         <v>204</v>
       </c>
       <c r="F230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1815999999999995</v>
       </c>
       <c r="G230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.1816000000000066</v>
       </c>
     </row>
@@ -4295,11 +5123,11 @@
         <v>205</v>
       </c>
       <c r="F231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2069999999999999</v>
       </c>
       <c r="G231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.207000000000007</v>
       </c>
     </row>
@@ -4308,11 +5136,11 @@
         <v>206</v>
       </c>
       <c r="F232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2324000000000002</v>
       </c>
       <c r="G232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2324000000000073</v>
       </c>
     </row>
@@ -4321,11 +5149,11 @@
         <v>207</v>
       </c>
       <c r="F233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2577999999999996</v>
       </c>
       <c r="G233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2578000000000076</v>
       </c>
     </row>
@@ -4334,11 +5162,11 @@
         <v>208</v>
       </c>
       <c r="F234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.2831999999999999</v>
       </c>
       <c r="G234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2832000000000079</v>
       </c>
     </row>
@@ -4347,11 +5175,11 @@
         <v>209</v>
       </c>
       <c r="F235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3086000000000002</v>
       </c>
       <c r="G235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3086000000000082</v>
       </c>
     </row>
@@ -4360,11 +5188,11 @@
         <v>210</v>
       </c>
       <c r="F236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3339999999999996</v>
       </c>
       <c r="G236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3340000000000085</v>
       </c>
     </row>
@@ -4373,11 +5201,11 @@
         <v>211</v>
       </c>
       <c r="F237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3593999999999999</v>
       </c>
       <c r="G237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3594000000000088</v>
       </c>
     </row>
@@ -4386,11 +5214,11 @@
         <v>212</v>
       </c>
       <c r="F238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3847999999999994</v>
       </c>
       <c r="G238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.3848000000000091</v>
       </c>
     </row>
@@ -4399,11 +5227,11 @@
         <v>213</v>
       </c>
       <c r="F239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4101999999999997</v>
       </c>
       <c r="G239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4102000000000094</v>
       </c>
     </row>
@@ -4412,11 +5240,11 @@
         <v>214</v>
       </c>
       <c r="F240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4356</v>
       </c>
       <c r="G240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4356000000000098</v>
       </c>
     </row>
@@ -4425,11 +5253,11 @@
         <v>215</v>
       </c>
       <c r="F241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4609999999999994</v>
       </c>
       <c r="G241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4610000000000101</v>
       </c>
     </row>
@@ -4438,11 +5266,11 @@
         <v>216</v>
       </c>
       <c r="F242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.4863999999999997</v>
       </c>
       <c r="G242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4864000000000104</v>
       </c>
     </row>
@@ -4451,11 +5279,11 @@
         <v>217</v>
       </c>
       <c r="F243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5118</v>
       </c>
       <c r="G243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5118000000000107</v>
       </c>
     </row>
@@ -4464,11 +5292,11 @@
         <v>218</v>
       </c>
       <c r="F244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5371999999999995</v>
       </c>
       <c r="G244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.537200000000011</v>
       </c>
     </row>
@@ -4477,11 +5305,11 @@
         <v>219</v>
       </c>
       <c r="F245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5625999999999998</v>
       </c>
       <c r="G245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5626000000000113</v>
       </c>
     </row>
@@ -4490,11 +5318,11 @@
         <v>220</v>
       </c>
       <c r="F246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.5880000000000001</v>
       </c>
       <c r="G246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5880000000000116</v>
       </c>
     </row>
@@ -4503,11 +5331,11 @@
         <v>221</v>
       </c>
       <c r="F247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6133999999999995</v>
       </c>
       <c r="G247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6134000000000119</v>
       </c>
     </row>
@@ -4516,11 +5344,11 @@
         <v>222</v>
       </c>
       <c r="F248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6387999999999998</v>
       </c>
       <c r="G248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6388000000000122</v>
       </c>
     </row>
@@ -4529,11 +5357,11 @@
         <v>223</v>
       </c>
       <c r="F249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6642000000000001</v>
       </c>
       <c r="G249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6642000000000126</v>
       </c>
     </row>
@@ -4542,11 +5370,11 @@
         <v>224</v>
       </c>
       <c r="F250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.6895999999999995</v>
       </c>
       <c r="G250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.6896000000000129</v>
       </c>
     </row>
@@ -4555,11 +5383,11 @@
         <v>225</v>
       </c>
       <c r="F251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7149999999999999</v>
       </c>
       <c r="G251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.7150000000000132</v>
       </c>
     </row>
@@ -4568,11 +5396,11 @@
         <v>226</v>
       </c>
       <c r="F252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7404000000000002</v>
       </c>
       <c r="G252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.7404000000000135</v>
       </c>
     </row>
@@ -4581,11 +5409,11 @@
         <v>227</v>
       </c>
       <c r="F253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7657999999999996</v>
       </c>
       <c r="G253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.7658000000000138</v>
       </c>
     </row>
@@ -4594,11 +5422,11 @@
         <v>228</v>
       </c>
       <c r="F254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.7911999999999999</v>
       </c>
       <c r="G254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.7912000000000141</v>
       </c>
     </row>
@@ -4607,11 +5435,11 @@
         <v>229</v>
       </c>
       <c r="F255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8165999999999993</v>
       </c>
       <c r="G255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8166000000000144</v>
       </c>
     </row>
@@ -4620,11 +5448,11 @@
         <v>230</v>
       </c>
       <c r="F256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8419999999999996</v>
       </c>
       <c r="G256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8420000000000147</v>
       </c>
     </row>
@@ -4633,11 +5461,11 @@
         <v>231</v>
       </c>
       <c r="F257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8673999999999999</v>
       </c>
       <c r="G257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.867400000000015</v>
       </c>
     </row>
@@ -4646,11 +5474,11 @@
         <v>232</v>
       </c>
       <c r="F258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8927999999999994</v>
       </c>
       <c r="G258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8928000000000154</v>
       </c>
     </row>
@@ -4659,11 +5487,11 @@
         <v>233</v>
       </c>
       <c r="F259">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9181999999999997</v>
       </c>
       <c r="G259">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.9182000000000157</v>
       </c>
     </row>
@@ -4672,11 +5500,11 @@
         <v>234</v>
       </c>
       <c r="F260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9436</v>
       </c>
       <c r="G260">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.943600000000016</v>
       </c>
     </row>
@@ -4685,11 +5513,11 @@
         <v>235</v>
       </c>
       <c r="F261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9689999999999994</v>
       </c>
       <c r="G261">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.9690000000000163</v>
       </c>
     </row>
@@ -4698,11 +5526,11 @@
         <v>236</v>
       </c>
       <c r="F262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9943999999999997</v>
       </c>
       <c r="G262">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.9944000000000166</v>
       </c>
     </row>
@@ -4711,11 +5539,11 @@
         <v>237</v>
       </c>
       <c r="F263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0198</v>
       </c>
       <c r="G263">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0198000000000169</v>
       </c>
     </row>
@@ -4724,11 +5552,11 @@
         <v>238</v>
       </c>
       <c r="F264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0451999999999995</v>
       </c>
       <c r="G264">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0452000000000172</v>
       </c>
     </row>
@@ -4737,11 +5565,11 @@
         <v>239</v>
       </c>
       <c r="F265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0705999999999998</v>
       </c>
       <c r="G265">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0706000000000175</v>
       </c>
     </row>
@@ -4750,11 +5578,11 @@
         <v>240</v>
       </c>
       <c r="F266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0960000000000001</v>
       </c>
       <c r="G266">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0960000000000178</v>
       </c>
     </row>
@@ -4763,11 +5591,11 @@
         <v>241</v>
       </c>
       <c r="F267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1213999999999995</v>
       </c>
       <c r="G267">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1214000000000182</v>
       </c>
     </row>
@@ -4776,11 +5604,11 @@
         <v>242</v>
       </c>
       <c r="F268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1467999999999998</v>
       </c>
       <c r="G268">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1468000000000185</v>
       </c>
     </row>
@@ -4789,11 +5617,11 @@
         <v>243</v>
       </c>
       <c r="F269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1722000000000001</v>
       </c>
       <c r="G269">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1722000000000188</v>
       </c>
     </row>
@@ -4802,11 +5630,11 @@
         <v>244</v>
       </c>
       <c r="F270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1975999999999996</v>
       </c>
       <c r="G270">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1976000000000191</v>
       </c>
     </row>
@@ -4815,11 +5643,11 @@
         <v>245</v>
       </c>
       <c r="F271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.2229999999999999</v>
       </c>
       <c r="G271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2230000000000194</v>
       </c>
     </row>
@@ -4828,11 +5656,11 @@
         <v>246</v>
       </c>
       <c r="F272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.2484000000000002</v>
       </c>
       <c r="G272">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2484000000000197</v>
       </c>
     </row>
@@ -4841,11 +5669,11 @@
         <v>247</v>
       </c>
       <c r="F273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.2737999999999996</v>
       </c>
       <c r="G273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.27380000000002</v>
       </c>
     </row>
@@ -4854,11 +5682,11 @@
         <v>248</v>
       </c>
       <c r="F274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.2991999999999999</v>
       </c>
       <c r="G274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2992000000000203</v>
       </c>
     </row>
@@ -4867,11 +5695,11 @@
         <v>249</v>
       </c>
       <c r="F275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.3245999999999993</v>
       </c>
       <c r="G275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.3246000000000206</v>
       </c>
     </row>
@@ -4880,11 +5708,11 @@
         <v>250</v>
       </c>
       <c r="F276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.35</v>
       </c>
       <c r="G276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.350000000000021</v>
       </c>
     </row>
@@ -4893,11 +5721,11 @@
         <v>251</v>
       </c>
       <c r="F277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.3754</v>
       </c>
       <c r="G277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.3754000000000213</v>
       </c>
     </row>
@@ -4906,11 +5734,11 @@
         <v>252</v>
       </c>
       <c r="F278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4007999999999994</v>
       </c>
       <c r="G278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4008000000000216</v>
       </c>
     </row>
@@ -4919,11 +5747,11 @@
         <v>253</v>
       </c>
       <c r="F279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4261999999999997</v>
       </c>
       <c r="G279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4262000000000219</v>
       </c>
     </row>
@@ -4932,11 +5760,11 @@
         <v>254</v>
       </c>
       <c r="F280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4516</v>
       </c>
       <c r="G280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4516000000000222</v>
       </c>
     </row>
@@ -4945,11 +5773,11 @@
         <v>255</v>
       </c>
       <c r="F281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4769999999999994</v>
       </c>
       <c r="G281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4770000000000225</v>
       </c>
     </row>
@@ -4958,11 +5786,11 @@
         <v>256</v>
       </c>
       <c r="F282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5023999999999997</v>
       </c>
       <c r="G282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.5024000000000228</v>
       </c>
     </row>
@@ -4971,11 +5799,11 @@
         <v>257</v>
       </c>
       <c r="F283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5278</v>
       </c>
       <c r="G283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.5278000000000231</v>
       </c>
     </row>
@@ -4984,11 +5812,11 @@
         <v>258</v>
       </c>
       <c r="F284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5531999999999995</v>
       </c>
       <c r="G284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.5532000000000235</v>
       </c>
     </row>
@@ -4997,11 +5825,11 @@
         <v>259</v>
       </c>
       <c r="F285">
-        <f t="shared" ref="F285:F348" si="11">E285*0.0254</f>
+        <f t="shared" ref="F285:F348" si="12">E285*0.0254</f>
         <v>6.5785999999999998</v>
       </c>
       <c r="G285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.5786000000000238</v>
       </c>
     </row>
@@ -5010,11 +5838,11 @@
         <v>260</v>
       </c>
       <c r="F286">
+        <f t="shared" si="12"/>
+        <v>6.6040000000000001</v>
+      </c>
+      <c r="G286">
         <f t="shared" si="11"/>
-        <v>6.6040000000000001</v>
-      </c>
-      <c r="G286">
-        <f t="shared" si="10"/>
         <v>6.6040000000000241</v>
       </c>
     </row>
@@ -5023,11 +5851,11 @@
         <v>261</v>
       </c>
       <c r="F287">
+        <f t="shared" si="12"/>
+        <v>6.6293999999999995</v>
+      </c>
+      <c r="G287">
         <f t="shared" si="11"/>
-        <v>6.6293999999999995</v>
-      </c>
-      <c r="G287">
-        <f t="shared" si="10"/>
         <v>6.6294000000000244</v>
       </c>
     </row>
@@ -5036,11 +5864,11 @@
         <v>262</v>
       </c>
       <c r="F288">
+        <f t="shared" si="12"/>
+        <v>6.6547999999999998</v>
+      </c>
+      <c r="G288">
         <f t="shared" si="11"/>
-        <v>6.6547999999999998</v>
-      </c>
-      <c r="G288">
-        <f t="shared" si="10"/>
         <v>6.6548000000000247</v>
       </c>
     </row>
@@ -5049,11 +5877,11 @@
         <v>263</v>
       </c>
       <c r="F289">
+        <f t="shared" si="12"/>
+        <v>6.6802000000000001</v>
+      </c>
+      <c r="G289">
         <f t="shared" si="11"/>
-        <v>6.6802000000000001</v>
-      </c>
-      <c r="G289">
-        <f t="shared" si="10"/>
         <v>6.680200000000025</v>
       </c>
     </row>
@@ -5062,11 +5890,11 @@
         <v>264</v>
       </c>
       <c r="F290">
+        <f t="shared" si="12"/>
+        <v>6.7055999999999996</v>
+      </c>
+      <c r="G290">
         <f t="shared" si="11"/>
-        <v>6.7055999999999996</v>
-      </c>
-      <c r="G290">
-        <f t="shared" si="10"/>
         <v>6.7056000000000253</v>
       </c>
     </row>
@@ -5075,11 +5903,11 @@
         <v>265</v>
       </c>
       <c r="F291">
+        <f t="shared" si="12"/>
+        <v>6.7309999999999999</v>
+      </c>
+      <c r="G291">
         <f t="shared" si="11"/>
-        <v>6.7309999999999999</v>
-      </c>
-      <c r="G291">
-        <f t="shared" si="10"/>
         <v>6.7310000000000256</v>
       </c>
     </row>
@@ -5088,11 +5916,11 @@
         <v>266</v>
       </c>
       <c r="F292">
+        <f t="shared" si="12"/>
+        <v>6.7563999999999993</v>
+      </c>
+      <c r="G292">
         <f t="shared" si="11"/>
-        <v>6.7563999999999993</v>
-      </c>
-      <c r="G292">
-        <f t="shared" si="10"/>
         <v>6.7564000000000259</v>
       </c>
     </row>
@@ -5101,11 +5929,11 @@
         <v>267</v>
       </c>
       <c r="F293">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.7817999999999996</v>
       </c>
       <c r="G293">
-        <f t="shared" ref="G293:G356" si="12">G292+G$36/10</f>
+        <f t="shared" ref="G293:G356" si="13">G292+G$36/10</f>
         <v>6.7818000000000263</v>
       </c>
     </row>
@@ -5114,11 +5942,11 @@
         <v>268</v>
       </c>
       <c r="F294">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8071999999999999</v>
       </c>
       <c r="G294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.8072000000000266</v>
       </c>
     </row>
@@ -5127,11 +5955,11 @@
         <v>269</v>
       </c>
       <c r="F295">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8325999999999993</v>
       </c>
       <c r="G295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.8326000000000269</v>
       </c>
     </row>
@@ -5140,11 +5968,11 @@
         <v>270</v>
       </c>
       <c r="F296">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8579999999999997</v>
       </c>
       <c r="G296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.8580000000000272</v>
       </c>
     </row>
@@ -5153,11 +5981,11 @@
         <v>271</v>
       </c>
       <c r="F297">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8834</v>
       </c>
       <c r="G297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.8834000000000275</v>
       </c>
     </row>
@@ -5166,11 +5994,11 @@
         <v>272</v>
       </c>
       <c r="F298">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9087999999999994</v>
       </c>
       <c r="G298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9088000000000278</v>
       </c>
     </row>
@@ -5179,11 +6007,11 @@
         <v>273</v>
       </c>
       <c r="F299">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9341999999999997</v>
       </c>
       <c r="G299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9342000000000281</v>
       </c>
     </row>
@@ -5192,11 +6020,11 @@
         <v>274</v>
       </c>
       <c r="F300">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9596</v>
       </c>
       <c r="G300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9596000000000284</v>
       </c>
     </row>
@@ -5205,11 +6033,11 @@
         <v>275</v>
       </c>
       <c r="F301">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.9849999999999994</v>
       </c>
       <c r="G301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9850000000000287</v>
       </c>
     </row>
@@ -5218,11 +6046,11 @@
         <v>276</v>
       </c>
       <c r="F302">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0103999999999997</v>
       </c>
       <c r="G302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.0104000000000291</v>
       </c>
     </row>
@@ -5231,11 +6059,11 @@
         <v>277</v>
       </c>
       <c r="F303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0358000000000001</v>
       </c>
       <c r="G303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.0358000000000294</v>
       </c>
     </row>
@@ -5244,11 +6072,11 @@
         <v>278</v>
       </c>
       <c r="F304">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0611999999999995</v>
       </c>
       <c r="G304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.0612000000000297</v>
       </c>
     </row>
@@ -5257,11 +6085,11 @@
         <v>279</v>
       </c>
       <c r="F305">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0865999999999998</v>
       </c>
       <c r="G305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.08660000000003</v>
       </c>
     </row>
@@ -5270,11 +6098,11 @@
         <v>280</v>
       </c>
       <c r="F306">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1120000000000001</v>
       </c>
       <c r="G306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1120000000000303</v>
       </c>
     </row>
@@ -5283,11 +6111,11 @@
         <v>281</v>
       </c>
       <c r="F307">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1373999999999995</v>
       </c>
       <c r="G307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1374000000000306</v>
       </c>
     </row>
@@ -5296,11 +6124,11 @@
         <v>282</v>
       </c>
       <c r="F308">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1627999999999998</v>
       </c>
       <c r="G308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1628000000000309</v>
       </c>
     </row>
@@ -5309,11 +6137,11 @@
         <v>283</v>
       </c>
       <c r="F309">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1882000000000001</v>
       </c>
       <c r="G309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1882000000000312</v>
       </c>
     </row>
@@ -5322,11 +6150,11 @@
         <v>284</v>
       </c>
       <c r="F310">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2135999999999996</v>
       </c>
       <c r="G310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2136000000000315</v>
       </c>
     </row>
@@ -5335,11 +6163,11 @@
         <v>285</v>
       </c>
       <c r="F311">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2389999999999999</v>
       </c>
       <c r="G311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2390000000000319</v>
       </c>
     </row>
@@ -5348,11 +6176,11 @@
         <v>286</v>
       </c>
       <c r="F312">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2643999999999993</v>
       </c>
       <c r="G312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2644000000000322</v>
       </c>
     </row>
@@ -5361,11 +6189,11 @@
         <v>287</v>
       </c>
       <c r="F313">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.2897999999999996</v>
       </c>
       <c r="G313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.2898000000000325</v>
       </c>
     </row>
@@ -5374,11 +6202,11 @@
         <v>288</v>
       </c>
       <c r="F314">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3151999999999999</v>
       </c>
       <c r="G314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3152000000000328</v>
       </c>
     </row>
@@ -5387,11 +6215,11 @@
         <v>289</v>
       </c>
       <c r="F315">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3405999999999993</v>
       </c>
       <c r="G315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3406000000000331</v>
       </c>
     </row>
@@ -5400,11 +6228,11 @@
         <v>290</v>
       </c>
       <c r="F316">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3659999999999997</v>
       </c>
       <c r="G316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3660000000000334</v>
       </c>
     </row>
@@ -5413,11 +6241,11 @@
         <v>291</v>
       </c>
       <c r="F317">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3914</v>
       </c>
       <c r="G317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.3914000000000337</v>
       </c>
     </row>
@@ -5426,11 +6254,11 @@
         <v>292</v>
       </c>
       <c r="F318">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4167999999999994</v>
       </c>
       <c r="G318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.416800000000034</v>
       </c>
     </row>
@@ -5439,11 +6267,11 @@
         <v>293</v>
       </c>
       <c r="F319">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4421999999999997</v>
       </c>
       <c r="G319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.4422000000000343</v>
       </c>
     </row>
@@ -5452,11 +6280,11 @@
         <v>294</v>
       </c>
       <c r="F320">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4676</v>
       </c>
       <c r="G320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.4676000000000347</v>
       </c>
     </row>
@@ -5465,11 +6293,11 @@
         <v>295</v>
       </c>
       <c r="F321">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.4929999999999994</v>
       </c>
       <c r="G321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.493000000000035</v>
       </c>
     </row>
@@ -5478,11 +6306,11 @@
         <v>296</v>
       </c>
       <c r="F322">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5183999999999997</v>
       </c>
       <c r="G322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.5184000000000353</v>
       </c>
     </row>
@@ -5491,11 +6319,11 @@
         <v>297</v>
       </c>
       <c r="F323">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5438000000000001</v>
       </c>
       <c r="G323">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.5438000000000356</v>
       </c>
     </row>
@@ -5504,11 +6332,11 @@
         <v>298</v>
       </c>
       <c r="F324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5691999999999995</v>
       </c>
       <c r="G324">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.5692000000000359</v>
       </c>
     </row>
@@ -5517,11 +6345,11 @@
         <v>299</v>
       </c>
       <c r="F325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.5945999999999998</v>
       </c>
       <c r="G325">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.5946000000000362</v>
       </c>
     </row>
@@ -5530,11 +6358,11 @@
         <v>300</v>
       </c>
       <c r="F326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.62</v>
       </c>
       <c r="G326">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6200000000000365</v>
       </c>
     </row>
@@ -5543,11 +6371,11 @@
         <v>301</v>
       </c>
       <c r="F327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6453999999999995</v>
       </c>
       <c r="G327">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6454000000000368</v>
       </c>
     </row>
@@ -5556,11 +6384,11 @@
         <v>302</v>
       </c>
       <c r="F328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6707999999999998</v>
       </c>
       <c r="G328">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6708000000000371</v>
       </c>
     </row>
@@ -5569,11 +6397,11 @@
         <v>303</v>
       </c>
       <c r="F329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6961999999999993</v>
       </c>
       <c r="G329">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.6962000000000375</v>
       </c>
     </row>
@@ -5582,11 +6410,11 @@
         <v>304</v>
       </c>
       <c r="F330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7215999999999996</v>
       </c>
       <c r="G330">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7216000000000378</v>
       </c>
     </row>
@@ -5595,11 +6423,11 @@
         <v>305</v>
       </c>
       <c r="F331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7469999999999999</v>
       </c>
       <c r="G331">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7470000000000381</v>
       </c>
     </row>
@@ -5608,11 +6436,11 @@
         <v>306</v>
       </c>
       <c r="F332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7723999999999993</v>
       </c>
       <c r="G332">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7724000000000384</v>
       </c>
     </row>
@@ -5621,11 +6449,11 @@
         <v>307</v>
       </c>
       <c r="F333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7977999999999996</v>
       </c>
       <c r="G333">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.7978000000000387</v>
       </c>
     </row>
@@ -5634,11 +6462,11 @@
         <v>308</v>
       </c>
       <c r="F334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8231999999999999</v>
       </c>
       <c r="G334">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.823200000000039</v>
       </c>
     </row>
@@ -5647,11 +6475,11 @@
         <v>309</v>
       </c>
       <c r="F335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8485999999999994</v>
       </c>
       <c r="G335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8486000000000393</v>
       </c>
     </row>
@@ -5660,11 +6488,11 @@
         <v>310</v>
       </c>
       <c r="F336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8739999999999997</v>
       </c>
       <c r="G336">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8740000000000396</v>
       </c>
     </row>
@@ -5673,11 +6501,11 @@
         <v>311</v>
       </c>
       <c r="F337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.8994</v>
       </c>
       <c r="G337">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.8994000000000399</v>
       </c>
     </row>
@@ -5686,11 +6514,11 @@
         <v>312</v>
       </c>
       <c r="F338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9247999999999994</v>
       </c>
       <c r="G338">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.9248000000000403</v>
       </c>
     </row>
@@ -5699,11 +6527,11 @@
         <v>313</v>
       </c>
       <c r="F339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9501999999999997</v>
       </c>
       <c r="G339">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.9502000000000406</v>
       </c>
     </row>
@@ -5712,11 +6540,11 @@
         <v>314</v>
       </c>
       <c r="F340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9756</v>
       </c>
       <c r="G340">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.9756000000000409</v>
       </c>
     </row>
@@ -5725,11 +6553,11 @@
         <v>315</v>
       </c>
       <c r="F341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.0009999999999994</v>
       </c>
       <c r="G341">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.0010000000000403</v>
       </c>
     </row>
@@ -5738,11 +6566,11 @@
         <v>316</v>
       </c>
       <c r="F342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.0263999999999989</v>
       </c>
       <c r="G342">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.0264000000000397</v>
       </c>
     </row>
@@ -5751,11 +6579,11 @@
         <v>317</v>
       </c>
       <c r="F343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.0518000000000001</v>
       </c>
       <c r="G343">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.0518000000000391</v>
       </c>
     </row>
@@ -5764,11 +6592,11 @@
         <v>318</v>
       </c>
       <c r="F344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.0771999999999995</v>
       </c>
       <c r="G344">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.0772000000000386</v>
       </c>
     </row>
@@ -5777,11 +6605,11 @@
         <v>319</v>
       </c>
       <c r="F345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1025999999999989</v>
       </c>
       <c r="G345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.102600000000038</v>
       </c>
     </row>
@@ -5790,11 +6618,11 @@
         <v>320</v>
       </c>
       <c r="F346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1280000000000001</v>
       </c>
       <c r="G346">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1280000000000374</v>
       </c>
     </row>
@@ -5803,11 +6631,11 @@
         <v>321</v>
       </c>
       <c r="F347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1533999999999995</v>
       </c>
       <c r="G347">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1534000000000368</v>
       </c>
     </row>
@@ -5816,11 +6644,11 @@
         <v>322</v>
       </c>
       <c r="F348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.178799999999999</v>
       </c>
       <c r="G348">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1788000000000363</v>
       </c>
     </row>
@@ -5829,11 +6657,11 @@
         <v>323</v>
       </c>
       <c r="F349">
-        <f t="shared" ref="F349:F412" si="13">E349*0.0254</f>
+        <f t="shared" ref="F349:F412" si="14">E349*0.0254</f>
         <v>8.2042000000000002</v>
       </c>
       <c r="G349">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.2042000000000357</v>
       </c>
     </row>
@@ -5842,11 +6670,11 @@
         <v>324</v>
       </c>
       <c r="F350">
+        <f t="shared" si="14"/>
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="G350">
         <f t="shared" si="13"/>
-        <v>8.2295999999999996</v>
-      </c>
-      <c r="G350">
-        <f t="shared" si="12"/>
         <v>8.2296000000000351</v>
       </c>
     </row>
@@ -5855,11 +6683,11 @@
         <v>325</v>
       </c>
       <c r="F351">
+        <f t="shared" si="14"/>
+        <v>8.254999999999999</v>
+      </c>
+      <c r="G351">
         <f t="shared" si="13"/>
-        <v>8.254999999999999</v>
-      </c>
-      <c r="G351">
-        <f t="shared" si="12"/>
         <v>8.2550000000000345</v>
       </c>
     </row>
@@ -5868,11 +6696,11 @@
         <v>326</v>
       </c>
       <c r="F352">
+        <f t="shared" si="14"/>
+        <v>8.2804000000000002</v>
+      </c>
+      <c r="G352">
         <f t="shared" si="13"/>
-        <v>8.2804000000000002</v>
-      </c>
-      <c r="G352">
-        <f t="shared" si="12"/>
         <v>8.280400000000034</v>
       </c>
     </row>
@@ -5881,11 +6709,11 @@
         <v>327</v>
       </c>
       <c r="F353">
+        <f t="shared" si="14"/>
+        <v>8.3057999999999996</v>
+      </c>
+      <c r="G353">
         <f t="shared" si="13"/>
-        <v>8.3057999999999996</v>
-      </c>
-      <c r="G353">
-        <f t="shared" si="12"/>
         <v>8.3058000000000334</v>
       </c>
     </row>
@@ -5894,11 +6722,11 @@
         <v>328</v>
       </c>
       <c r="F354">
+        <f t="shared" si="14"/>
+        <v>8.3311999999999991</v>
+      </c>
+      <c r="G354">
         <f t="shared" si="13"/>
-        <v>8.3311999999999991</v>
-      </c>
-      <c r="G354">
-        <f t="shared" si="12"/>
         <v>8.3312000000000328</v>
       </c>
     </row>
@@ -5907,11 +6735,11 @@
         <v>329</v>
       </c>
       <c r="F355">
+        <f t="shared" si="14"/>
+        <v>8.3566000000000003</v>
+      </c>
+      <c r="G355">
         <f t="shared" si="13"/>
-        <v>8.3566000000000003</v>
-      </c>
-      <c r="G355">
-        <f t="shared" si="12"/>
         <v>8.3566000000000322</v>
       </c>
     </row>
@@ -5920,11 +6748,11 @@
         <v>330</v>
       </c>
       <c r="F356">
+        <f t="shared" si="14"/>
+        <v>8.3819999999999997</v>
+      </c>
+      <c r="G356">
         <f t="shared" si="13"/>
-        <v>8.3819999999999997</v>
-      </c>
-      <c r="G356">
-        <f t="shared" si="12"/>
         <v>8.3820000000000316</v>
       </c>
     </row>
@@ -5933,11 +6761,11 @@
         <v>331</v>
       </c>
       <c r="F357">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4073999999999991</v>
       </c>
       <c r="G357">
-        <f t="shared" ref="G357:G420" si="14">G356+G$36/10</f>
+        <f t="shared" ref="G357:G420" si="15">G356+G$36/10</f>
         <v>8.4074000000000311</v>
       </c>
     </row>
@@ -5946,11 +6774,11 @@
         <v>332</v>
       </c>
       <c r="F358">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4328000000000003</v>
       </c>
       <c r="G358">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.4328000000000305</v>
       </c>
     </row>
@@ -5959,11 +6787,11 @@
         <v>333</v>
       </c>
       <c r="F359">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4581999999999997</v>
       </c>
       <c r="G359">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.4582000000000299</v>
       </c>
     </row>
@@ -5972,11 +6800,11 @@
         <v>334</v>
       </c>
       <c r="F360">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.4835999999999991</v>
       </c>
       <c r="G360">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.4836000000000293</v>
       </c>
     </row>
@@ -5985,11 +6813,11 @@
         <v>335</v>
       </c>
       <c r="F361">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5090000000000003</v>
       </c>
       <c r="G361">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.5090000000000288</v>
       </c>
     </row>
@@ -5998,11 +6826,11 @@
         <v>336</v>
       </c>
       <c r="F362">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5343999999999998</v>
       </c>
       <c r="G362">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.5344000000000282</v>
       </c>
     </row>
@@ -6011,11 +6839,11 @@
         <v>337</v>
       </c>
       <c r="F363">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5597999999999992</v>
       </c>
       <c r="G363">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.5598000000000276</v>
       </c>
     </row>
@@ -6024,11 +6852,11 @@
         <v>338</v>
       </c>
       <c r="F364">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.5852000000000004</v>
       </c>
       <c r="G364">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.585200000000027</v>
       </c>
     </row>
@@ -6037,11 +6865,11 @@
         <v>339</v>
       </c>
       <c r="F365">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.6105999999999998</v>
       </c>
       <c r="G365">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.6106000000000265</v>
       </c>
     </row>
@@ -6050,11 +6878,11 @@
         <v>340</v>
       </c>
       <c r="F366">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.6359999999999992</v>
       </c>
       <c r="G366">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.6360000000000259</v>
       </c>
     </row>
@@ -6063,11 +6891,11 @@
         <v>341</v>
       </c>
       <c r="F367">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.6614000000000004</v>
       </c>
       <c r="G367">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.6614000000000253</v>
       </c>
     </row>
@@ -6076,11 +6904,11 @@
         <v>342</v>
       </c>
       <c r="F368">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.6867999999999999</v>
       </c>
       <c r="G368">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.6868000000000247</v>
       </c>
     </row>
@@ -6089,11 +6917,11 @@
         <v>343</v>
       </c>
       <c r="F369">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.7121999999999993</v>
       </c>
       <c r="G369">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.7122000000000241</v>
       </c>
     </row>
@@ -6102,11 +6930,11 @@
         <v>344</v>
       </c>
       <c r="F370">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.7376000000000005</v>
       </c>
       <c r="G370">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.7376000000000236</v>
       </c>
     </row>
@@ -6115,11 +6943,11 @@
         <v>345</v>
       </c>
       <c r="F371">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.7629999999999999</v>
       </c>
       <c r="G371">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.763000000000023</v>
       </c>
     </row>
@@ -6128,11 +6956,11 @@
         <v>346</v>
       </c>
       <c r="F372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.7883999999999993</v>
       </c>
       <c r="G372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.7884000000000224</v>
       </c>
     </row>
@@ -6141,11 +6969,11 @@
         <v>347</v>
       </c>
       <c r="F373">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8138000000000005</v>
       </c>
       <c r="G373">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.8138000000000218</v>
       </c>
     </row>
@@ -6154,11 +6982,11 @@
         <v>348</v>
       </c>
       <c r="F374">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8391999999999999</v>
       </c>
       <c r="G374">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.8392000000000213</v>
       </c>
     </row>
@@ -6167,11 +6995,11 @@
         <v>349</v>
       </c>
       <c r="F375">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8645999999999994</v>
       </c>
       <c r="G375">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.8646000000000207</v>
       </c>
     </row>
@@ -6180,11 +7008,11 @@
         <v>350</v>
       </c>
       <c r="F376">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.8899999999999988</v>
       </c>
       <c r="G376">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.8900000000000201</v>
       </c>
     </row>
@@ -6193,11 +7021,11 @@
         <v>351</v>
       </c>
       <c r="F377">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9154</v>
       </c>
       <c r="G377">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.9154000000000195</v>
       </c>
     </row>
@@ -6206,11 +7034,11 @@
         <v>352</v>
       </c>
       <c r="F378">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9407999999999994</v>
       </c>
       <c r="G378">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.940800000000019</v>
       </c>
     </row>
@@ -6219,11 +7047,11 @@
         <v>353</v>
       </c>
       <c r="F379">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9661999999999988</v>
       </c>
       <c r="G379">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.9662000000000184</v>
       </c>
     </row>
@@ -6232,11 +7060,11 @@
         <v>354</v>
       </c>
       <c r="F380">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.9916</v>
       </c>
       <c r="G380">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.9916000000000178</v>
       </c>
     </row>
@@ -6245,11 +7073,11 @@
         <v>355</v>
       </c>
       <c r="F381">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0169999999999995</v>
       </c>
       <c r="G381">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0170000000000172</v>
       </c>
     </row>
@@ -6258,11 +7086,11 @@
         <v>356</v>
       </c>
       <c r="F382">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0423999999999989</v>
       </c>
       <c r="G382">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0424000000000166</v>
       </c>
     </row>
@@ -6271,11 +7099,11 @@
         <v>357</v>
       </c>
       <c r="F383">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0678000000000001</v>
       </c>
       <c r="G383">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0678000000000161</v>
       </c>
     </row>
@@ -6284,11 +7112,11 @@
         <v>358</v>
       </c>
       <c r="F384">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0931999999999995</v>
       </c>
       <c r="G384">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0932000000000155</v>
       </c>
     </row>
@@ -6297,11 +7125,11 @@
         <v>359</v>
       </c>
       <c r="F385">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.1185999999999989</v>
       </c>
       <c r="G385">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.1186000000000149</v>
       </c>
     </row>
@@ -6310,11 +7138,11 @@
         <v>360</v>
       </c>
       <c r="F386">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.1440000000000001</v>
       </c>
       <c r="G386">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.1440000000000143</v>
       </c>
     </row>
@@ -6323,11 +7151,11 @@
         <v>361</v>
       </c>
       <c r="F387">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.1693999999999996</v>
       </c>
       <c r="G387">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.1694000000000138</v>
       </c>
     </row>
@@ -6336,11 +7164,11 @@
         <v>362</v>
       </c>
       <c r="F388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.194799999999999</v>
       </c>
       <c r="G388">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.1948000000000132</v>
       </c>
     </row>
@@ -6349,11 +7177,11 @@
         <v>363</v>
       </c>
       <c r="F389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2202000000000002</v>
       </c>
       <c r="G389">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.2202000000000126</v>
       </c>
     </row>
@@ -6362,11 +7190,11 @@
         <v>364</v>
       </c>
       <c r="F390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2455999999999996</v>
       </c>
       <c r="G390">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.245600000000012</v>
       </c>
     </row>
@@ -6375,11 +7203,11 @@
         <v>365</v>
       </c>
       <c r="F391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.270999999999999</v>
       </c>
       <c r="G391">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.2710000000000115</v>
       </c>
     </row>
@@ -6388,11 +7216,11 @@
         <v>366</v>
       </c>
       <c r="F392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2964000000000002</v>
       </c>
       <c r="G392">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.2964000000000109</v>
       </c>
     </row>
@@ -6401,11 +7229,11 @@
         <v>367</v>
       </c>
       <c r="F393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3217999999999996</v>
       </c>
       <c r="G393">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.3218000000000103</v>
       </c>
     </row>
@@ -6414,11 +7242,11 @@
         <v>368</v>
       </c>
       <c r="F394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3471999999999991</v>
       </c>
       <c r="G394">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.3472000000000097</v>
       </c>
     </row>
@@ -6427,11 +7255,11 @@
         <v>369</v>
       </c>
       <c r="F395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3726000000000003</v>
       </c>
       <c r="G395">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.3726000000000091</v>
       </c>
     </row>
@@ -6440,11 +7268,11 @@
         <v>370</v>
       </c>
       <c r="F396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.3979999999999997</v>
       </c>
       <c r="G396">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.3980000000000086</v>
       </c>
     </row>
@@ -6453,11 +7281,11 @@
         <v>371</v>
       </c>
       <c r="F397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4233999999999991</v>
       </c>
       <c r="G397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.423400000000008</v>
       </c>
     </row>
@@ -6466,11 +7294,11 @@
         <v>372</v>
       </c>
       <c r="F398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4488000000000003</v>
       </c>
       <c r="G398">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.4488000000000074</v>
       </c>
     </row>
@@ -6479,11 +7307,11 @@
         <v>373</v>
       </c>
       <c r="F399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4741999999999997</v>
       </c>
       <c r="G399">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.4742000000000068</v>
       </c>
     </row>
@@ -6492,11 +7320,11 @@
         <v>374</v>
       </c>
       <c r="F400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.4995999999999992</v>
       </c>
       <c r="G400">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.4996000000000063</v>
       </c>
     </row>
@@ -6505,11 +7333,11 @@
         <v>375</v>
       </c>
       <c r="F401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5250000000000004</v>
       </c>
       <c r="G401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.5250000000000057</v>
       </c>
     </row>
@@ -6518,11 +7346,11 @@
         <v>376</v>
       </c>
       <c r="F402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5503999999999998</v>
       </c>
       <c r="G402">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.5504000000000051</v>
       </c>
     </row>
@@ -6531,11 +7359,11 @@
         <v>377</v>
       </c>
       <c r="F403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.5757999999999992</v>
       </c>
       <c r="G403">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.5758000000000045</v>
       </c>
     </row>
@@ -6544,11 +7372,11 @@
         <v>378</v>
       </c>
       <c r="F404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6012000000000004</v>
       </c>
       <c r="G404">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.601200000000004</v>
       </c>
     </row>
@@ -6557,11 +7385,11 @@
         <v>379</v>
       </c>
       <c r="F405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6265999999999998</v>
       </c>
       <c r="G405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.6266000000000034</v>
       </c>
     </row>
@@ -6570,11 +7398,11 @@
         <v>380</v>
       </c>
       <c r="F406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6519999999999992</v>
       </c>
       <c r="G406">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.6520000000000028</v>
       </c>
     </row>
@@ -6583,11 +7411,11 @@
         <v>381</v>
       </c>
       <c r="F407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.6774000000000004</v>
       </c>
       <c r="G407">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.6774000000000022</v>
       </c>
     </row>
@@ -6596,11 +7424,11 @@
         <v>382</v>
       </c>
       <c r="F408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7027999999999999</v>
       </c>
       <c r="G408">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.7028000000000016</v>
       </c>
     </row>
@@ -6609,11 +7437,11 @@
         <v>383</v>
       </c>
       <c r="F409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7281999999999993</v>
       </c>
       <c r="G409">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.7282000000000011</v>
       </c>
     </row>
@@ -6622,11 +7450,11 @@
         <v>384</v>
       </c>
       <c r="F410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7535999999999987</v>
       </c>
       <c r="G410">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.7536000000000005</v>
       </c>
     </row>
@@ -6635,11 +7463,11 @@
         <v>385</v>
       </c>
       <c r="F411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7789999999999999</v>
       </c>
       <c r="G411">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.7789999999999999</v>
       </c>
     </row>
@@ -6648,11 +7476,11 @@
         <v>386</v>
       </c>
       <c r="F412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.8043999999999993</v>
       </c>
       <c r="G412">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.8043999999999993</v>
       </c>
     </row>
@@ -6661,11 +7489,11 @@
         <v>387</v>
       </c>
       <c r="F413">
-        <f t="shared" ref="F413:F476" si="15">E413*0.0254</f>
+        <f t="shared" ref="F413:F476" si="16">E413*0.0254</f>
         <v>9.8297999999999988</v>
       </c>
       <c r="G413">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.8297999999999988</v>
       </c>
     </row>
@@ -6674,11 +7502,11 @@
         <v>388</v>
       </c>
       <c r="F414">
+        <f t="shared" si="16"/>
+        <v>9.8552</v>
+      </c>
+      <c r="G414">
         <f t="shared" si="15"/>
-        <v>9.8552</v>
-      </c>
-      <c r="G414">
-        <f t="shared" si="14"/>
         <v>9.8551999999999982</v>
       </c>
     </row>
@@ -6687,11 +7515,11 @@
         <v>389</v>
       </c>
       <c r="F415">
+        <f t="shared" si="16"/>
+        <v>9.8805999999999994</v>
+      </c>
+      <c r="G415">
         <f t="shared" si="15"/>
-        <v>9.8805999999999994</v>
-      </c>
-      <c r="G415">
-        <f t="shared" si="14"/>
         <v>9.8805999999999976</v>
       </c>
     </row>
@@ -6700,11 +7528,11 @@
         <v>390</v>
       </c>
       <c r="F416">
+        <f t="shared" si="16"/>
+        <v>9.9059999999999988</v>
+      </c>
+      <c r="G416">
         <f t="shared" si="15"/>
-        <v>9.9059999999999988</v>
-      </c>
-      <c r="G416">
-        <f t="shared" si="14"/>
         <v>9.905999999999997</v>
       </c>
     </row>
@@ -6713,11 +7541,11 @@
         <v>391</v>
       </c>
       <c r="F417">
+        <f t="shared" si="16"/>
+        <v>9.9314</v>
+      </c>
+      <c r="G417">
         <f t="shared" si="15"/>
-        <v>9.9314</v>
-      </c>
-      <c r="G417">
-        <f t="shared" si="14"/>
         <v>9.9313999999999965</v>
       </c>
     </row>
@@ -6726,11 +7554,11 @@
         <v>392</v>
       </c>
       <c r="F418">
+        <f t="shared" si="16"/>
+        <v>9.9567999999999994</v>
+      </c>
+      <c r="G418">
         <f t="shared" si="15"/>
-        <v>9.9567999999999994</v>
-      </c>
-      <c r="G418">
-        <f t="shared" si="14"/>
         <v>9.9567999999999959</v>
       </c>
     </row>
@@ -6739,11 +7567,11 @@
         <v>393</v>
       </c>
       <c r="F419">
+        <f t="shared" si="16"/>
+        <v>9.9821999999999989</v>
+      </c>
+      <c r="G419">
         <f t="shared" si="15"/>
-        <v>9.9821999999999989</v>
-      </c>
-      <c r="G419">
-        <f t="shared" si="14"/>
         <v>9.9821999999999953</v>
       </c>
     </row>
@@ -6752,11 +7580,11 @@
         <v>394</v>
       </c>
       <c r="F420">
+        <f t="shared" si="16"/>
+        <v>10.0076</v>
+      </c>
+      <c r="G420">
         <f t="shared" si="15"/>
-        <v>10.0076</v>
-      </c>
-      <c r="G420">
-        <f t="shared" si="14"/>
         <v>10.007599999999995</v>
       </c>
     </row>
@@ -6765,11 +7593,11 @@
         <v>395</v>
       </c>
       <c r="F421">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.032999999999999</v>
       </c>
       <c r="G421">
-        <f t="shared" ref="G421:G463" si="16">G420+G$36/10</f>
+        <f t="shared" ref="G421:G463" si="17">G420+G$36/10</f>
         <v>10.032999999999994</v>
       </c>
     </row>
@@ -6778,11 +7606,11 @@
         <v>396</v>
       </c>
       <c r="F422">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.058399999999999</v>
       </c>
       <c r="G422">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.058399999999994</v>
       </c>
     </row>
@@ -6791,11 +7619,11 @@
         <v>397</v>
       </c>
       <c r="F423">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.0838</v>
       </c>
       <c r="G423">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.083799999999993</v>
       </c>
     </row>
@@ -6804,11 +7632,11 @@
         <v>398</v>
       </c>
       <c r="F424">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.1092</v>
       </c>
       <c r="G424">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.109199999999992</v>
       </c>
     </row>
@@ -6817,11 +7645,11 @@
         <v>399</v>
       </c>
       <c r="F425">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.134599999999999</v>
       </c>
       <c r="G425">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.134599999999992</v>
       </c>
     </row>
@@ -6830,11 +7658,11 @@
         <v>400</v>
       </c>
       <c r="F426">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.16</v>
       </c>
       <c r="G426">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.159999999999991</v>
       </c>
     </row>
@@ -6843,11 +7671,11 @@
         <v>401</v>
       </c>
       <c r="F427">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.1854</v>
       </c>
       <c r="G427">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.185399999999991</v>
       </c>
     </row>
@@ -6856,11 +7684,11 @@
         <v>402</v>
       </c>
       <c r="F428">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.210799999999999</v>
       </c>
       <c r="G428">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.21079999999999</v>
       </c>
     </row>
@@ -6869,11 +7697,11 @@
         <v>403</v>
       </c>
       <c r="F429">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.2362</v>
       </c>
       <c r="G429">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.23619999999999</v>
       </c>
     </row>
@@ -6882,11 +7710,11 @@
         <v>404</v>
       </c>
       <c r="F430">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.2616</v>
       </c>
       <c r="G430">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.261599999999989</v>
       </c>
     </row>
@@ -6895,11 +7723,11 @@
         <v>405</v>
       </c>
       <c r="F431">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.286999999999999</v>
       </c>
       <c r="G431">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.286999999999988</v>
       </c>
     </row>
@@ -6908,11 +7736,11 @@
         <v>406</v>
       </c>
       <c r="F432">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.3124</v>
       </c>
       <c r="G432">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.312399999999988</v>
       </c>
     </row>
@@ -6921,11 +7749,11 @@
         <v>407</v>
       </c>
       <c r="F433">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.3378</v>
       </c>
       <c r="G433">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.337799999999987</v>
       </c>
     </row>
@@ -6934,11 +7762,11 @@
         <v>408</v>
       </c>
       <c r="F434">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.363199999999999</v>
       </c>
       <c r="G434">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.363199999999987</v>
       </c>
     </row>
@@ -6947,11 +7775,11 @@
         <v>409</v>
       </c>
       <c r="F435">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.3886</v>
       </c>
       <c r="G435">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.388599999999986</v>
       </c>
     </row>
@@ -6960,11 +7788,11 @@
         <v>410</v>
       </c>
       <c r="F436">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.414</v>
       </c>
       <c r="G436">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.413999999999985</v>
       </c>
     </row>
@@ -6973,11 +7801,11 @@
         <v>411</v>
       </c>
       <c r="F437">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.439399999999999</v>
       </c>
       <c r="G437">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.439399999999985</v>
       </c>
     </row>
@@ -6986,11 +7814,11 @@
         <v>412</v>
       </c>
       <c r="F438">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.4648</v>
       </c>
       <c r="G438">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.464799999999984</v>
       </c>
     </row>
@@ -6999,11 +7827,11 @@
         <v>413</v>
       </c>
       <c r="F439">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.4902</v>
       </c>
       <c r="G439">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.490199999999984</v>
       </c>
     </row>
@@ -7012,11 +7840,11 @@
         <v>414</v>
       </c>
       <c r="F440">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.515599999999999</v>
       </c>
       <c r="G440">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.515599999999983</v>
       </c>
     </row>
@@ -7025,11 +7853,11 @@
         <v>415</v>
       </c>
       <c r="F441">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.541</v>
       </c>
       <c r="G441">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.540999999999983</v>
       </c>
     </row>
@@ -7038,11 +7866,11 @@
         <v>416</v>
       </c>
       <c r="F442">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.5664</v>
       </c>
       <c r="G442">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.566399999999982</v>
       </c>
     </row>
@@ -7051,11 +7879,11 @@
         <v>417</v>
       </c>
       <c r="F443">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.591799999999999</v>
       </c>
       <c r="G443">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.591799999999981</v>
       </c>
     </row>
@@ -7064,11 +7892,11 @@
         <v>418</v>
       </c>
       <c r="F444">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.6172</v>
       </c>
       <c r="G444">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.617199999999981</v>
       </c>
     </row>
@@ -7077,11 +7905,11 @@
         <v>419</v>
       </c>
       <c r="F445">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.6426</v>
       </c>
       <c r="G445">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.64259999999998</v>
       </c>
     </row>
@@ -7090,11 +7918,11 @@
         <v>420</v>
       </c>
       <c r="F446">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.667999999999999</v>
       </c>
       <c r="G446">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.66799999999998</v>
       </c>
     </row>
@@ -7103,11 +7931,11 @@
         <v>421</v>
       </c>
       <c r="F447">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.693399999999999</v>
       </c>
       <c r="G447">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.693399999999979</v>
       </c>
     </row>
@@ -7116,11 +7944,11 @@
         <v>422</v>
       </c>
       <c r="F448">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.7188</v>
       </c>
       <c r="G448">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.718799999999979</v>
       </c>
     </row>
@@ -7129,11 +7957,11 @@
         <v>423</v>
       </c>
       <c r="F449">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.744199999999999</v>
       </c>
       <c r="G449">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.744199999999978</v>
       </c>
     </row>
@@ -7142,11 +7970,11 @@
         <v>424</v>
       </c>
       <c r="F450">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.769599999999999</v>
       </c>
       <c r="G450">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.769599999999977</v>
       </c>
     </row>
@@ -7155,11 +7983,11 @@
         <v>425</v>
       </c>
       <c r="F451">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.795</v>
       </c>
       <c r="G451">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.794999999999977</v>
       </c>
     </row>
@@ -7168,11 +7996,11 @@
         <v>426</v>
       </c>
       <c r="F452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.820399999999999</v>
       </c>
       <c r="G452">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.820399999999976</v>
       </c>
     </row>
@@ -7181,11 +8009,11 @@
         <v>427</v>
       </c>
       <c r="F453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.845799999999999</v>
       </c>
       <c r="G453">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.845799999999976</v>
       </c>
     </row>
@@ -7194,11 +8022,11 @@
         <v>428</v>
       </c>
       <c r="F454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.8712</v>
       </c>
       <c r="G454">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.871199999999975</v>
       </c>
     </row>
@@ -7207,11 +8035,11 @@
         <v>429</v>
       </c>
       <c r="F455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.896599999999999</v>
       </c>
       <c r="G455">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.896599999999975</v>
       </c>
     </row>
@@ -7220,11 +8048,11 @@
         <v>430</v>
       </c>
       <c r="F456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.921999999999999</v>
       </c>
       <c r="G456">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.921999999999974</v>
       </c>
     </row>
@@ -7233,11 +8061,11 @@
         <v>431</v>
       </c>
       <c r="F457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.9474</v>
       </c>
       <c r="G457">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.947399999999973</v>
       </c>
     </row>
@@ -7246,11 +8074,11 @@
         <v>432</v>
       </c>
       <c r="F458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.972799999999999</v>
       </c>
       <c r="G458">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.972799999999973</v>
       </c>
     </row>
@@ -7259,11 +8087,11 @@
         <v>433</v>
       </c>
       <c r="F459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.998199999999999</v>
       </c>
       <c r="G459">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.998199999999972</v>
       </c>
     </row>
@@ -7272,11 +8100,11 @@
         <v>434</v>
       </c>
       <c r="F460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.0236</v>
       </c>
       <c r="G460">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.023599999999972</v>
       </c>
     </row>
@@ -7285,11 +8113,11 @@
         <v>435</v>
       </c>
       <c r="F461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.048999999999999</v>
       </c>
       <c r="G461">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.048999999999971</v>
       </c>
     </row>
@@ -7298,11 +8126,11 @@
         <v>436</v>
       </c>
       <c r="F462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.074399999999999</v>
       </c>
       <c r="G462">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.07439999999997</v>
       </c>
     </row>
@@ -7311,11 +8139,11 @@
         <v>437</v>
       </c>
       <c r="F463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.0998</v>
       </c>
       <c r="G463">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11.09979999999997</v>
       </c>
     </row>
@@ -7324,11 +8152,11 @@
         <v>438</v>
       </c>
       <c r="F464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.1252</v>
       </c>
       <c r="G464">
-        <f t="shared" ref="G464:G466" si="17">G463+G$36/10</f>
+        <f>G463+G$36/10</f>
         <v>11.125199999999969</v>
       </c>
     </row>
@@ -7337,11 +8165,11 @@
         <v>439</v>
       </c>
       <c r="F465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.150599999999999</v>
       </c>
       <c r="G465">
-        <f t="shared" si="17"/>
+        <f>G464+G$36/10</f>
         <v>11.150599999999969</v>
       </c>
     </row>
@@ -7350,11 +8178,11 @@
         <v>440</v>
       </c>
       <c r="F466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.176</v>
       </c>
       <c r="G466">
-        <f t="shared" si="17"/>
+        <f>G465+G$36/10</f>
         <v>11.175999999999968</v>
       </c>
     </row>
@@ -7363,7 +8191,7 @@
         <v>441</v>
       </c>
       <c r="F467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.2014</v>
       </c>
     </row>
@@ -7372,7 +8200,7 @@
         <v>442</v>
       </c>
       <c r="F468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.226799999999999</v>
       </c>
     </row>
@@ -7381,7 +8209,7 @@
         <v>443</v>
       </c>
       <c r="F469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.2522</v>
       </c>
     </row>
@@ -7390,7 +8218,7 @@
         <v>444</v>
       </c>
       <c r="F470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.2776</v>
       </c>
     </row>
@@ -7399,7 +8227,7 @@
         <v>445</v>
       </c>
       <c r="F471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.302999999999999</v>
       </c>
     </row>
@@ -7408,7 +8236,7 @@
         <v>446</v>
       </c>
       <c r="F472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.3284</v>
       </c>
     </row>
@@ -7417,7 +8245,7 @@
         <v>447</v>
       </c>
       <c r="F473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.3538</v>
       </c>
     </row>
@@ -7426,7 +8254,7 @@
         <v>448</v>
       </c>
       <c r="F474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.379199999999999</v>
       </c>
     </row>
@@ -7435,7 +8263,7 @@
         <v>449</v>
       </c>
       <c r="F475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.4046</v>
       </c>
     </row>
@@ -7444,7 +8272,7 @@
         <v>450</v>
       </c>
       <c r="F476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.43</v>
       </c>
     </row>

--- a/SOFTWARE/Thermal/1D forloops/layup2.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/layup2.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -246,11 +245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104833408"/>
-        <c:axId val="104834944"/>
+        <c:axId val="163339648"/>
+        <c:axId val="185701504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104833408"/>
+        <c:axId val="163339648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -260,12 +259,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104834944"/>
+        <c:crossAx val="185701504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104834944"/>
+        <c:axId val="185701504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,7 +275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104833408"/>
+        <c:crossAx val="163339648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -426,11 +425,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110070016"/>
-        <c:axId val="110075904"/>
+        <c:axId val="185726464"/>
+        <c:axId val="185728000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110070016"/>
+        <c:axId val="185726464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,12 +439,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110075904"/>
+        <c:crossAx val="185728000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110075904"/>
+        <c:axId val="185728000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,7 +455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110070016"/>
+        <c:crossAx val="185726464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -532,16 +531,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>625.58660174639692</c:v>
+                  <c:v>156.39665043659923</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1275.1950775592029</c:v>
+                  <c:v>318.79876938980073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>657.0531079240177</c:v>
+                  <c:v>164.26327698100442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>764.1398855565493</c:v>
+                  <c:v>191.03497138913733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,16 +581,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>684.59796399216236</c:v>
+                  <c:v>171.14949099804059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1180.1480767804358</c:v>
+                  <c:v>295.03701919510894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>728.13478330414023</c:v>
+                  <c:v>182.03369582603506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1193.5614207742028</c:v>
+                  <c:v>298.3903551935507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,11 +605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110096768"/>
-        <c:axId val="110098304"/>
+        <c:axId val="187460992"/>
+        <c:axId val="187462784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110096768"/>
+        <c:axId val="187460992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,12 +619,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110098304"/>
+        <c:crossAx val="187462784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110098304"/>
+        <c:axId val="187462784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,7 +635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110096768"/>
+        <c:crossAx val="187460992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -786,11 +785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92984064"/>
-        <c:axId val="92974080"/>
+        <c:axId val="187481088"/>
+        <c:axId val="187486976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92984064"/>
+        <c:axId val="187481088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,12 +799,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92974080"/>
+        <c:crossAx val="187486976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92974080"/>
+        <c:axId val="187486976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,7 +815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92984064"/>
+        <c:crossAx val="187481088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -892,16 +891,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>697.80490534858836</c:v>
+                  <c:v>174.45122633714709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1302.6551106257007</c:v>
+                  <c:v>325.66377765642517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1422.9765384618629</c:v>
+                  <c:v>355.74413461546573</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1890.9082819138976</c:v>
+                  <c:v>472.72707047847439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,16 +941,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>737.55296392033711</c:v>
+                  <c:v>184.38824098008428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1228.6442142553708</c:v>
+                  <c:v>307.1610535638427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1538.971993214032</c:v>
+                  <c:v>384.74299830350799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2049.0862153850826</c:v>
+                  <c:v>512.27155384627065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,11 +965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45869312"/>
-        <c:axId val="80617472"/>
+        <c:axId val="187495936"/>
+        <c:axId val="187497472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45869312"/>
+        <c:axId val="187495936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,12 +979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80617472"/>
+        <c:crossAx val="187497472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80617472"/>
+        <c:axId val="187497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45869312"/>
+        <c:crossAx val="187495936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1464,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1514,6 +1513,10 @@
       <c r="G4">
         <v>0.49647000000000002</v>
       </c>
+      <c r="H4">
+        <f>G4*6^2*PI()</f>
+        <v>56.149434170198084</v>
+      </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
@@ -1561,6 +1564,10 @@
       <c r="G5">
         <v>0.80940000000000001</v>
       </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H11" si="0">G5*6^2*PI()</f>
+        <v>91.540983377360831</v>
+      </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
@@ -1638,6 +1645,10 @@
       <c r="G6">
         <v>1.2910999999999999</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>146.01996990179214</v>
+      </c>
       <c r="I6" t="s">
         <v>7</v>
       </c>
@@ -1674,16 +1685,16 @@
         <v>2.4584000000000001</v>
       </c>
       <c r="V6">
-        <f>U6*T6*T6*PI()</f>
-        <v>625.58660174639692</v>
+        <f>U6*T6*T6*PI()/4</f>
+        <v>156.39665043659923</v>
       </c>
       <c r="X6">
         <f>AH7</f>
         <v>2.7422</v>
       </c>
       <c r="Y6">
-        <f>X6*T6^2*PI()</f>
-        <v>697.80490534858836</v>
+        <f>X6*T6^2*PI()/4</f>
+        <v>174.45122633714709</v>
       </c>
       <c r="AA6" t="s">
         <v>6</v>
@@ -1729,6 +1740,10 @@
       <c r="G7">
         <v>1.6917</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>191.32676251480271</v>
+      </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
@@ -1762,34 +1777,34 @@
         <v>2.8188</v>
       </c>
       <c r="V7">
-        <f t="shared" ref="V7:V13" si="0">U7*T7*T7*PI()</f>
-        <v>1275.1950775592029</v>
+        <f t="shared" ref="V7:V13" si="1">U7*T7*T7*PI()/4</f>
+        <v>318.79876938980073</v>
       </c>
       <c r="X7">
         <f>AH9</f>
         <v>2.8795000000000002</v>
       </c>
       <c r="Y7">
-        <f t="shared" ref="Y7:Y13" si="1">X7*T7^2*PI()</f>
-        <v>1302.6551106257007</v>
+        <f t="shared" ref="Y7:Y13" si="2">X7*T7^2*PI()/4</f>
+        <v>325.66377765642517</v>
       </c>
       <c r="AA7" t="s">
         <v>14</v>
       </c>
       <c r="AB7">
-        <f>AI7*0.0254</f>
+        <f t="shared" ref="AB7:AB14" si="3">AI7*0.0254</f>
         <v>0.48259999999999997</v>
       </c>
       <c r="AC7">
-        <f>AI7*0.0254</f>
+        <f t="shared" ref="AC7:AD14" si="4">AI7*0.0254</f>
         <v>0.48259999999999997</v>
       </c>
       <c r="AD7">
-        <f>AJ7*0.0254</f>
+        <f t="shared" si="4"/>
         <v>5.4101999999999997</v>
       </c>
       <c r="AE7">
-        <f>AJ7*0.0254</f>
+        <f t="shared" ref="AE7:AE14" si="5">AJ7*0.0254</f>
         <v>5.4101999999999997</v>
       </c>
       <c r="AF7">
@@ -1821,6 +1836,10 @@
       <c r="G8">
         <v>1.9214</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>217.30522048586744</v>
+      </c>
       <c r="I8" t="s">
         <v>9</v>
       </c>
@@ -1854,34 +1873,34 @@
         <v>0.92954000000000003</v>
       </c>
       <c r="V8">
-        <f t="shared" si="0"/>
-        <v>657.0531079240177</v>
+        <f t="shared" si="1"/>
+        <v>164.26327698100442</v>
       </c>
       <c r="X8">
         <f>AH11</f>
         <v>2.0131000000000001</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="1"/>
-        <v>1422.9765384618629</v>
+        <f t="shared" si="2"/>
+        <v>355.74413461546573</v>
       </c>
       <c r="AA8" t="s">
         <v>15</v>
       </c>
       <c r="AB8">
-        <f>AI8*0.0254</f>
+        <f t="shared" si="3"/>
         <v>0.53339999999999999</v>
       </c>
       <c r="AC8">
-        <f>AI8*0.0254</f>
+        <f t="shared" si="4"/>
         <v>0.53339999999999999</v>
       </c>
       <c r="AD8">
-        <f>AJ8*0.0254</f>
+        <f t="shared" si="4"/>
         <v>5.6133999999999995</v>
       </c>
       <c r="AE8">
-        <f>AJ8*0.0254</f>
+        <f t="shared" si="5"/>
         <v>5.6133999999999995</v>
       </c>
       <c r="AF8">
@@ -1913,6 +1932,10 @@
       <c r="G9">
         <v>2.1320999999999999</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>241.13482908187672</v>
+      </c>
       <c r="I9" t="s">
         <v>10</v>
       </c>
@@ -1946,34 +1969,34 @@
         <v>0.75072000000000005</v>
       </c>
       <c r="V9">
-        <f t="shared" si="0"/>
-        <v>764.1398855565493</v>
+        <f t="shared" si="1"/>
+        <v>191.03497138913733</v>
       </c>
       <c r="X9">
         <f>AH13</f>
         <v>1.8576999999999999</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="1"/>
-        <v>1890.9082819138976</v>
+        <f t="shared" si="2"/>
+        <v>472.72707047847439</v>
       </c>
       <c r="AA9" t="s">
         <v>7</v>
       </c>
       <c r="AB9">
-        <f>AI9*0.0254</f>
+        <f t="shared" si="3"/>
         <v>0.43179999999999996</v>
       </c>
       <c r="AC9">
-        <f>AI9*0.0254</f>
+        <f t="shared" si="4"/>
         <v>0.43179999999999996</v>
       </c>
       <c r="AD9">
-        <f>AJ9*0.0254</f>
+        <f t="shared" si="4"/>
         <v>6.0705999999999998</v>
       </c>
       <c r="AE9">
-        <f>AJ9*0.0254</f>
+        <f t="shared" si="5"/>
         <v>6.0705999999999998</v>
       </c>
       <c r="AF9">
@@ -2005,6 +2028,10 @@
       <c r="G10">
         <v>2.4215</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>273.86519798403663</v>
+      </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
@@ -2041,34 +2068,34 @@
         <v>2.6903000000000001</v>
       </c>
       <c r="V10">
-        <f t="shared" si="0"/>
-        <v>684.59796399216236</v>
+        <f t="shared" si="1"/>
+        <v>171.14949099804059</v>
       </c>
       <c r="X10">
         <f>AH8</f>
         <v>2.8984000000000001</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="1"/>
-        <v>737.55296392033711</v>
+        <f t="shared" si="2"/>
+        <v>184.38824098008428</v>
       </c>
       <c r="AA10" t="s">
         <v>8</v>
       </c>
       <c r="AB10">
-        <f>AI10*0.0254</f>
+        <f t="shared" si="3"/>
         <v>0.4572</v>
       </c>
       <c r="AC10">
-        <f>AI10*0.0254</f>
+        <f t="shared" si="4"/>
         <v>0.4572</v>
       </c>
       <c r="AD10">
-        <f>AJ10*0.0254</f>
+        <f t="shared" si="4"/>
         <v>5.4609999999999994</v>
       </c>
       <c r="AE10">
-        <f>AJ10*0.0254</f>
+        <f t="shared" si="5"/>
         <v>5.4609999999999994</v>
       </c>
       <c r="AF10">
@@ -2100,6 +2127,10 @@
       <c r="G11">
         <v>2.6808000000000001</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>303.19133708676662</v>
+      </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
@@ -2133,34 +2164,34 @@
         <v>2.6086999999999998</v>
       </c>
       <c r="V11">
-        <f t="shared" si="0"/>
-        <v>1180.1480767804358</v>
+        <f t="shared" si="1"/>
+        <v>295.03701919510894</v>
       </c>
       <c r="X11">
         <f>AH10</f>
         <v>2.7159</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="1"/>
-        <v>1228.6442142553708</v>
+        <f t="shared" si="2"/>
+        <v>307.1610535638427</v>
       </c>
       <c r="AA11" t="s">
         <v>17</v>
       </c>
       <c r="AB11">
-        <f>AI11*0.0254</f>
+        <f t="shared" si="3"/>
         <v>0.254</v>
       </c>
       <c r="AC11">
-        <f>AI11*0.0254</f>
+        <f t="shared" si="4"/>
         <v>0.254</v>
       </c>
       <c r="AD11">
-        <f>AJ11*0.0254</f>
+        <f t="shared" si="4"/>
         <v>4.4196</v>
       </c>
       <c r="AE11">
-        <f>AJ11*0.0254</f>
+        <f t="shared" si="5"/>
         <v>4.4196</v>
       </c>
       <c r="AF11">
@@ -2211,34 +2242,34 @@
         <v>1.0301</v>
       </c>
       <c r="V12">
-        <f t="shared" si="0"/>
-        <v>728.13478330414023</v>
+        <f t="shared" si="1"/>
+        <v>182.03369582603506</v>
       </c>
       <c r="X12">
         <f>AH12</f>
         <v>2.1772</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="1"/>
-        <v>1538.971993214032</v>
+        <f t="shared" si="2"/>
+        <v>384.74299830350799</v>
       </c>
       <c r="AA12" t="s">
         <v>16</v>
       </c>
       <c r="AB12">
-        <f>AI12*0.0254</f>
+        <f t="shared" si="3"/>
         <v>0.254</v>
       </c>
       <c r="AC12">
-        <f>AI12*0.0254</f>
+        <f t="shared" si="4"/>
         <v>0.254</v>
       </c>
       <c r="AD12">
-        <f>AJ12*0.0254</f>
+        <f t="shared" si="4"/>
         <v>4.9021999999999997</v>
       </c>
       <c r="AE12">
-        <f>AJ12*0.0254</f>
+        <f t="shared" si="5"/>
         <v>4.9021999999999997</v>
       </c>
       <c r="AF12">
@@ -2289,34 +2320,34 @@
         <v>1.1726000000000001</v>
       </c>
       <c r="V13">
-        <f t="shared" si="0"/>
-        <v>1193.5614207742028</v>
+        <f t="shared" si="1"/>
+        <v>298.3903551935507</v>
       </c>
       <c r="X13">
         <f>AH14</f>
         <v>2.0131000000000001</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="1"/>
-        <v>2049.0862153850826</v>
+        <f t="shared" si="2"/>
+        <v>512.27155384627065</v>
       </c>
       <c r="AA13" t="s">
         <v>9</v>
       </c>
       <c r="AB13">
-        <f>AI13*0.0254</f>
+        <f t="shared" si="3"/>
         <v>0.254</v>
       </c>
       <c r="AC13">
-        <f>AI13*0.0254</f>
+        <f t="shared" si="4"/>
         <v>0.254</v>
       </c>
       <c r="AD13">
-        <f>AJ13*0.0254</f>
+        <f t="shared" si="4"/>
         <v>3.9623999999999997</v>
       </c>
       <c r="AE13">
-        <f>AJ13*0.0254</f>
+        <f t="shared" si="5"/>
         <v>3.9623999999999997</v>
       </c>
       <c r="AF13">
@@ -2338,19 +2369,19 @@
         <v>10</v>
       </c>
       <c r="AB14">
-        <f>AI14*0.0254</f>
+        <f t="shared" si="3"/>
         <v>0.254</v>
       </c>
       <c r="AC14">
-        <f>AI14*0.0254</f>
+        <f t="shared" si="4"/>
         <v>0.254</v>
       </c>
       <c r="AD14">
-        <f>AJ14*0.0254</f>
+        <f t="shared" si="4"/>
         <v>4.4196</v>
       </c>
       <c r="AE14">
-        <f>AJ14*0.0254</f>
+        <f t="shared" si="5"/>
         <v>4.4196</v>
       </c>
       <c r="AF14">
@@ -2406,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C29" si="2">C$20*B22</f>
+        <f t="shared" ref="C22:C29" si="6">C$20*B22</f>
         <v>5.08</v>
       </c>
     </row>
@@ -2415,7 +2446,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.62</v>
       </c>
     </row>
@@ -2424,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.16</v>
       </c>
     </row>
@@ -2433,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.7</v>
       </c>
     </row>
@@ -2442,7 +2473,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15.24</v>
       </c>
     </row>
@@ -2451,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17.78</v>
       </c>
       <c r="E27">
@@ -2462,7 +2493,7 @@
         <v>2.5399999999999999E-2</v>
       </c>
       <c r="G27">
-        <f t="shared" ref="G27:G34" si="3">G28-G$36/10</f>
+        <f t="shared" ref="G27:G34" si="7">G28-G$36/10</f>
         <v>2.5399999999999964E-2</v>
       </c>
     </row>
@@ -2471,7 +2502,7 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20.32</v>
       </c>
       <c r="E28">
@@ -2482,7 +2513,7 @@
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.0799999999999963E-2</v>
       </c>
     </row>
@@ -2491,18 +2522,18 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22.86</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F92" si="4">E29*0.0254</f>
+        <f t="shared" ref="F29:F92" si="8">E29*0.0254</f>
         <v>7.619999999999999E-2</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.6199999999999962E-2</v>
       </c>
     </row>
@@ -2511,11 +2542,11 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1016</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.10159999999999997</v>
       </c>
     </row>
@@ -2524,11 +2555,11 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.127</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.12699999999999997</v>
       </c>
     </row>
@@ -2537,11 +2568,11 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.15239999999999998</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.15239999999999998</v>
       </c>
     </row>
@@ -2550,11 +2581,11 @@
         <v>7</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.17779999999999999</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17779999999999999</v>
       </c>
     </row>
@@ -2563,11 +2594,11 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.20319999999999999</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.20319999999999999</v>
       </c>
     </row>
@@ -2576,7 +2607,7 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.2286</v>
       </c>
       <c r="G35">
@@ -2589,7 +2620,7 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.254</v>
       </c>
       <c r="G36">
@@ -2601,11 +2632,11 @@
         <v>11</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.27939999999999998</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G100" si="5">G36+G$36/10</f>
+        <f t="shared" ref="G37:G100" si="9">G36+G$36/10</f>
         <v>0.27939999999999998</v>
       </c>
     </row>
@@ -2614,11 +2645,11 @@
         <v>12</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30479999999999996</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.30479999999999996</v>
       </c>
     </row>
@@ -2627,11 +2658,11 @@
         <v>13</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.33019999999999999</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.33019999999999994</v>
       </c>
     </row>
@@ -2640,11 +2671,11 @@
         <v>14</v>
       </c>
       <c r="F40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.35559999999999997</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.35559999999999992</v>
       </c>
     </row>
@@ -2653,11 +2684,11 @@
         <v>15</v>
       </c>
       <c r="F41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.38099999999999989</v>
       </c>
     </row>
@@ -2666,11 +2697,11 @@
         <v>16</v>
       </c>
       <c r="F42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.40639999999999998</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.40639999999999987</v>
       </c>
     </row>
@@ -2679,11 +2710,11 @@
         <v>17</v>
       </c>
       <c r="F43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.43179999999999996</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.43179999999999985</v>
       </c>
     </row>
@@ -2692,11 +2723,11 @@
         <v>18</v>
       </c>
       <c r="F44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.4572</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.45719999999999983</v>
       </c>
     </row>
@@ -2705,11 +2736,11 @@
         <v>19</v>
       </c>
       <c r="F45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.48259999999999997</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.48259999999999981</v>
       </c>
     </row>
@@ -2718,11 +2749,11 @@
         <v>20</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.50800000000000001</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.50799999999999979</v>
       </c>
     </row>
@@ -2731,11 +2762,11 @@
         <v>21</v>
       </c>
       <c r="F47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.53339999999999999</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.53339999999999976</v>
       </c>
     </row>
@@ -2744,11 +2775,11 @@
         <v>22</v>
       </c>
       <c r="F48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.55879999999999996</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.55879999999999974</v>
       </c>
     </row>
@@ -2757,11 +2788,11 @@
         <v>23</v>
       </c>
       <c r="F49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.58419999999999994</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.58419999999999972</v>
       </c>
     </row>
@@ -2770,11 +2801,11 @@
         <v>24</v>
       </c>
       <c r="F50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.60959999999999992</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.6095999999999997</v>
       </c>
     </row>
@@ -2783,11 +2814,11 @@
         <v>25</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.63500000000000001</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.63499999999999968</v>
       </c>
     </row>
@@ -2796,11 +2827,11 @@
         <v>26</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.66039999999999999</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.66039999999999965</v>
       </c>
     </row>
@@ -2809,11 +2840,11 @@
         <v>27</v>
       </c>
       <c r="F53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.68579999999999997</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.68579999999999963</v>
       </c>
     </row>
@@ -2822,11 +2853,11 @@
         <v>28</v>
       </c>
       <c r="F54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.71119999999999994</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.71119999999999961</v>
       </c>
     </row>
@@ -2835,11 +2866,11 @@
         <v>29</v>
       </c>
       <c r="F55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.73659999999999992</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.73659999999999959</v>
       </c>
     </row>
@@ -2848,11 +2879,11 @@
         <v>30</v>
       </c>
       <c r="F56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.76200000000000001</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.76199999999999957</v>
       </c>
     </row>
@@ -2861,11 +2892,11 @@
         <v>31</v>
       </c>
       <c r="F57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.78739999999999999</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.78739999999999954</v>
       </c>
     </row>
@@ -2874,11 +2905,11 @@
         <v>32</v>
       </c>
       <c r="F58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.81279999999999997</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.81279999999999952</v>
       </c>
     </row>
@@ -2887,11 +2918,11 @@
         <v>33</v>
       </c>
       <c r="F59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.83819999999999995</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.8381999999999995</v>
       </c>
     </row>
@@ -2900,11 +2931,11 @@
         <v>34</v>
       </c>
       <c r="F60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.86359999999999992</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.86359999999999948</v>
       </c>
     </row>
@@ -2913,11 +2944,11 @@
         <v>35</v>
       </c>
       <c r="F61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.88900000000000001</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.88899999999999946</v>
       </c>
     </row>
@@ -2926,11 +2957,11 @@
         <v>36</v>
       </c>
       <c r="F62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.91439999999999999</v>
       </c>
       <c r="G62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.91439999999999944</v>
       </c>
     </row>
@@ -2939,11 +2970,11 @@
         <v>37</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.93979999999999997</v>
       </c>
       <c r="G63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.93979999999999941</v>
       </c>
     </row>
@@ -2952,11 +2983,11 @@
         <v>38</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.96519999999999995</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.96519999999999939</v>
       </c>
     </row>
@@ -2965,11 +2996,11 @@
         <v>39</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99059999999999993</v>
       </c>
       <c r="G65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99059999999999937</v>
       </c>
     </row>
@@ -2978,11 +3009,11 @@
         <v>40</v>
       </c>
       <c r="F66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.016</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0159999999999993</v>
       </c>
     </row>
@@ -2991,11 +3022,11 @@
         <v>41</v>
       </c>
       <c r="F67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0413999999999999</v>
       </c>
       <c r="G67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0413999999999994</v>
       </c>
     </row>
@@ -3004,11 +3035,11 @@
         <v>42</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0668</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0667999999999995</v>
       </c>
     </row>
@@ -3017,11 +3048,11 @@
         <v>43</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0922000000000001</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0921999999999996</v>
       </c>
     </row>
@@ -3030,11 +3061,11 @@
         <v>44</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1175999999999999</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.1175999999999997</v>
       </c>
     </row>
@@ -3043,11 +3074,11 @@
         <v>45</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.143</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.1429999999999998</v>
       </c>
     </row>
@@ -3056,11 +3087,11 @@
         <v>46</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1683999999999999</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.1683999999999999</v>
       </c>
     </row>
@@ -3069,11 +3100,11 @@
         <v>47</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1938</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.1938</v>
       </c>
     </row>
@@ -3082,11 +3113,11 @@
         <v>48</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2191999999999998</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.2192000000000001</v>
       </c>
     </row>
@@ -3095,11 +3126,11 @@
         <v>49</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2445999999999999</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.2446000000000002</v>
       </c>
     </row>
@@ -3108,11 +3139,11 @@
         <v>50</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.27</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.2700000000000002</v>
       </c>
     </row>
@@ -3121,11 +3152,11 @@
         <v>51</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2953999999999999</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.2954000000000003</v>
       </c>
     </row>
@@ -3134,11 +3165,11 @@
         <v>52</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3208</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3208000000000004</v>
       </c>
     </row>
@@ -3147,11 +3178,11 @@
         <v>53</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3461999999999998</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3462000000000005</v>
       </c>
     </row>
@@ -3160,11 +3191,11 @@
         <v>54</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.3715999999999999</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3716000000000006</v>
       </c>
     </row>
@@ -3173,11 +3204,11 @@
         <v>55</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.397</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.3970000000000007</v>
       </c>
     </row>
@@ -3186,11 +3217,11 @@
         <v>56</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4223999999999999</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4224000000000008</v>
       </c>
     </row>
@@ -3199,11 +3230,11 @@
         <v>57</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4478</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.4478000000000009</v>
       </c>
     </row>
@@ -3212,11 +3243,11 @@
         <v>58</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4731999999999998</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.473200000000001</v>
       </c>
     </row>
@@ -3225,11 +3256,11 @@
         <v>59</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4985999999999999</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.498600000000001</v>
       </c>
     </row>
@@ -3238,11 +3269,11 @@
         <v>60</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.524</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5240000000000011</v>
       </c>
     </row>
@@ -3251,11 +3282,11 @@
         <v>61</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5493999999999999</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5494000000000012</v>
       </c>
     </row>
@@ -3264,11 +3295,11 @@
         <v>62</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.5748</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.5748000000000013</v>
       </c>
     </row>
@@ -3277,11 +3308,11 @@
         <v>63</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6001999999999998</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6002000000000014</v>
       </c>
     </row>
@@ -3290,11 +3321,11 @@
         <v>64</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6255999999999999</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6256000000000015</v>
       </c>
     </row>
@@ -3303,11 +3334,11 @@
         <v>65</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.651</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6510000000000016</v>
       </c>
     </row>
@@ -3316,11 +3347,11 @@
         <v>66</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6763999999999999</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.6764000000000017</v>
       </c>
     </row>
@@ -3329,11 +3360,11 @@
         <v>67</v>
       </c>
       <c r="F93">
-        <f t="shared" ref="F93:F156" si="6">E93*0.0254</f>
+        <f t="shared" ref="F93:F156" si="10">E93*0.0254</f>
         <v>1.7018</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7018000000000018</v>
       </c>
     </row>
@@ -3342,11 +3373,11 @@
         <v>68</v>
       </c>
       <c r="F94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7271999999999998</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7272000000000018</v>
       </c>
     </row>
@@ -3355,11 +3386,11 @@
         <v>69</v>
       </c>
       <c r="F95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7525999999999999</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.7526000000000019</v>
       </c>
     </row>
@@ -3368,11 +3399,11 @@
         <v>70</v>
       </c>
       <c r="F96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.778</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.778000000000002</v>
       </c>
     </row>
@@ -3381,11 +3412,11 @@
         <v>71</v>
       </c>
       <c r="F97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.8033999999999999</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8034000000000021</v>
       </c>
     </row>
@@ -3394,11 +3425,11 @@
         <v>72</v>
       </c>
       <c r="F98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.8288</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8288000000000022</v>
       </c>
     </row>
@@ -3407,11 +3438,11 @@
         <v>73</v>
       </c>
       <c r="F99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.8541999999999998</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8542000000000023</v>
       </c>
     </row>
@@ -3420,11 +3451,11 @@
         <v>74</v>
       </c>
       <c r="F100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.8795999999999999</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.8796000000000024</v>
       </c>
     </row>
@@ -3433,11 +3464,11 @@
         <v>75</v>
       </c>
       <c r="F101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.905</v>
       </c>
       <c r="G101">
-        <f t="shared" ref="G101:G164" si="7">G100+G$36/10</f>
+        <f t="shared" ref="G101:G164" si="11">G100+G$36/10</f>
         <v>1.9050000000000025</v>
       </c>
     </row>
@@ -3446,11 +3477,11 @@
         <v>76</v>
       </c>
       <c r="F102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9303999999999999</v>
       </c>
       <c r="G102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.9304000000000026</v>
       </c>
     </row>
@@ -3459,11 +3490,11 @@
         <v>77</v>
       </c>
       <c r="F103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9558</v>
       </c>
       <c r="G103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.9558000000000026</v>
       </c>
     </row>
@@ -3472,11 +3503,11 @@
         <v>78</v>
       </c>
       <c r="F104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9811999999999999</v>
       </c>
       <c r="G104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.9812000000000027</v>
       </c>
     </row>
@@ -3485,11 +3516,11 @@
         <v>79</v>
       </c>
       <c r="F105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.0065999999999997</v>
       </c>
       <c r="G105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0066000000000028</v>
       </c>
     </row>
@@ -3498,11 +3529,11 @@
         <v>80</v>
       </c>
       <c r="F106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.032</v>
       </c>
       <c r="G106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0320000000000027</v>
       </c>
     </row>
@@ -3511,11 +3542,11 @@
         <v>81</v>
       </c>
       <c r="F107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.0573999999999999</v>
       </c>
       <c r="G107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0574000000000026</v>
       </c>
     </row>
@@ -3524,11 +3555,11 @@
         <v>82</v>
       </c>
       <c r="F108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.0827999999999998</v>
       </c>
       <c r="G108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.0828000000000024</v>
       </c>
     </row>
@@ -3537,11 +3568,11 @@
         <v>83</v>
       </c>
       <c r="F109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1082000000000001</v>
       </c>
       <c r="G109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.1082000000000023</v>
       </c>
     </row>
@@ -3550,11 +3581,11 @@
         <v>84</v>
       </c>
       <c r="F110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1335999999999999</v>
       </c>
       <c r="G110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.1336000000000022</v>
       </c>
     </row>
@@ -3563,11 +3594,11 @@
         <v>85</v>
       </c>
       <c r="F111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1589999999999998</v>
       </c>
       <c r="G111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.159000000000002</v>
       </c>
     </row>
@@ -3576,11 +3607,11 @@
         <v>86</v>
       </c>
       <c r="F112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1844000000000001</v>
       </c>
       <c r="G112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.1844000000000019</v>
       </c>
     </row>
@@ -3589,11 +3620,11 @@
         <v>87</v>
       </c>
       <c r="F113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.2098</v>
       </c>
       <c r="G113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.2098000000000018</v>
       </c>
     </row>
@@ -3602,11 +3633,11 @@
         <v>88</v>
       </c>
       <c r="F114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.2351999999999999</v>
       </c>
       <c r="G114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.2352000000000016</v>
       </c>
     </row>
@@ -3615,11 +3646,11 @@
         <v>89</v>
       </c>
       <c r="F115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.2605999999999997</v>
       </c>
       <c r="G115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.2606000000000015</v>
       </c>
     </row>
@@ -3628,11 +3659,11 @@
         <v>90</v>
       </c>
       <c r="F116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.286</v>
       </c>
       <c r="G116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.2860000000000014</v>
       </c>
     </row>
@@ -3641,11 +3672,11 @@
         <v>91</v>
       </c>
       <c r="F117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.3113999999999999</v>
       </c>
       <c r="G117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.3114000000000012</v>
       </c>
     </row>
@@ -3654,11 +3685,11 @@
         <v>92</v>
       </c>
       <c r="F118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.3367999999999998</v>
       </c>
       <c r="G118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.3368000000000011</v>
       </c>
     </row>
@@ -3667,11 +3698,11 @@
         <v>93</v>
       </c>
       <c r="F119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.3622000000000001</v>
       </c>
       <c r="G119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.362200000000001</v>
       </c>
     </row>
@@ -3680,11 +3711,11 @@
         <v>94</v>
       </c>
       <c r="F120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.3875999999999999</v>
       </c>
       <c r="G120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.3876000000000008</v>
       </c>
     </row>
@@ -3693,11 +3724,11 @@
         <v>95</v>
       </c>
       <c r="F121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4129999999999998</v>
       </c>
       <c r="G121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4130000000000007</v>
       </c>
     </row>
@@ -3706,11 +3737,11 @@
         <v>96</v>
       </c>
       <c r="F122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4383999999999997</v>
       </c>
       <c r="G122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4384000000000006</v>
       </c>
     </row>
@@ -3719,11 +3750,11 @@
         <v>97</v>
       </c>
       <c r="F123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4638</v>
       </c>
       <c r="G123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4638000000000004</v>
       </c>
     </row>
@@ -3732,11 +3763,11 @@
         <v>98</v>
       </c>
       <c r="F124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.4891999999999999</v>
       </c>
       <c r="G124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4892000000000003</v>
       </c>
     </row>
@@ -3745,11 +3776,11 @@
         <v>99</v>
       </c>
       <c r="F125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.5145999999999997</v>
       </c>
       <c r="G125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5146000000000002</v>
       </c>
     </row>
@@ -3758,11 +3789,11 @@
         <v>100</v>
       </c>
       <c r="F126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.54</v>
       </c>
       <c r="G126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.54</v>
       </c>
     </row>
@@ -3771,11 +3802,11 @@
         <v>101</v>
       </c>
       <c r="F127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.5653999999999999</v>
       </c>
       <c r="G127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5653999999999999</v>
       </c>
     </row>
@@ -3784,11 +3815,11 @@
         <v>102</v>
       </c>
       <c r="F128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.5907999999999998</v>
       </c>
       <c r="G128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5907999999999998</v>
       </c>
     </row>
@@ -3797,11 +3828,11 @@
         <v>103</v>
       </c>
       <c r="F129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.6162000000000001</v>
       </c>
       <c r="G129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.6161999999999996</v>
       </c>
     </row>
@@ -3810,11 +3841,11 @@
         <v>104</v>
       </c>
       <c r="F130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.6415999999999999</v>
       </c>
       <c r="G130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.6415999999999995</v>
       </c>
     </row>
@@ -3823,11 +3854,11 @@
         <v>105</v>
       </c>
       <c r="F131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.6669999999999998</v>
       </c>
       <c r="G131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.6669999999999994</v>
       </c>
     </row>
@@ -3836,11 +3867,11 @@
         <v>106</v>
       </c>
       <c r="F132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.6923999999999997</v>
       </c>
       <c r="G132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.6923999999999992</v>
       </c>
     </row>
@@ -3849,11 +3880,11 @@
         <v>107</v>
       </c>
       <c r="F133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.7178</v>
       </c>
       <c r="G133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.7177999999999991</v>
       </c>
     </row>
@@ -3862,11 +3893,11 @@
         <v>108</v>
       </c>
       <c r="F134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.7431999999999999</v>
       </c>
       <c r="G134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.743199999999999</v>
       </c>
     </row>
@@ -3875,11 +3906,11 @@
         <v>109</v>
       </c>
       <c r="F135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.7685999999999997</v>
       </c>
       <c r="G135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.7685999999999988</v>
       </c>
     </row>
@@ -3888,11 +3919,11 @@
         <v>110</v>
       </c>
       <c r="F136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.794</v>
       </c>
       <c r="G136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.7939999999999987</v>
       </c>
     </row>
@@ -3901,11 +3932,11 @@
         <v>111</v>
       </c>
       <c r="F137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.8193999999999999</v>
       </c>
       <c r="G137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.8193999999999986</v>
       </c>
     </row>
@@ -3914,11 +3945,11 @@
         <v>112</v>
       </c>
       <c r="F138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.8447999999999998</v>
       </c>
       <c r="G138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.8447999999999984</v>
       </c>
     </row>
@@ -3927,11 +3958,11 @@
         <v>113</v>
       </c>
       <c r="F139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.8702000000000001</v>
       </c>
       <c r="G139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.8701999999999983</v>
       </c>
     </row>
@@ -3940,11 +3971,11 @@
         <v>114</v>
       </c>
       <c r="F140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.8956</v>
       </c>
       <c r="G140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.8955999999999982</v>
       </c>
     </row>
@@ -3953,11 +3984,11 @@
         <v>115</v>
       </c>
       <c r="F141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.9209999999999998</v>
       </c>
       <c r="G141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.920999999999998</v>
       </c>
     </row>
@@ -3966,11 +3997,11 @@
         <v>116</v>
       </c>
       <c r="F142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.9463999999999997</v>
       </c>
       <c r="G142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.9463999999999979</v>
       </c>
     </row>
@@ -3979,11 +4010,11 @@
         <v>117</v>
       </c>
       <c r="F143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.9718</v>
       </c>
       <c r="G143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.9717999999999978</v>
       </c>
     </row>
@@ -3992,11 +4023,11 @@
         <v>118</v>
       </c>
       <c r="F144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.9971999999999999</v>
       </c>
       <c r="G144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.9971999999999976</v>
       </c>
     </row>
@@ -4005,11 +4036,11 @@
         <v>119</v>
       </c>
       <c r="F145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.0225999999999997</v>
       </c>
       <c r="G145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.0225999999999975</v>
       </c>
     </row>
@@ -4018,11 +4049,11 @@
         <v>120</v>
       </c>
       <c r="F146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.048</v>
       </c>
       <c r="G146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.0479999999999974</v>
       </c>
     </row>
@@ -4031,11 +4062,11 @@
         <v>121</v>
       </c>
       <c r="F147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.0733999999999999</v>
       </c>
       <c r="G147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.0733999999999972</v>
       </c>
     </row>
@@ -4044,11 +4075,11 @@
         <v>122</v>
       </c>
       <c r="F148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.0987999999999998</v>
       </c>
       <c r="G148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.0987999999999971</v>
       </c>
     </row>
@@ -4057,11 +4088,11 @@
         <v>123</v>
       </c>
       <c r="F149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.1242000000000001</v>
       </c>
       <c r="G149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.124199999999997</v>
       </c>
     </row>
@@ -4070,11 +4101,11 @@
         <v>124</v>
       </c>
       <c r="F150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.1496</v>
       </c>
       <c r="G150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.1495999999999968</v>
       </c>
     </row>
@@ -4083,11 +4114,11 @@
         <v>125</v>
       </c>
       <c r="F151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="G151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.1749999999999967</v>
       </c>
     </row>
@@ -4096,11 +4127,11 @@
         <v>126</v>
       </c>
       <c r="F152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.2003999999999997</v>
       </c>
       <c r="G152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.2003999999999966</v>
       </c>
     </row>
@@ -4109,11 +4140,11 @@
         <v>127</v>
       </c>
       <c r="F153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.2258</v>
       </c>
       <c r="G153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.2257999999999964</v>
       </c>
     </row>
@@ -4122,11 +4153,11 @@
         <v>128</v>
       </c>
       <c r="F154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.2511999999999999</v>
       </c>
       <c r="G154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.2511999999999963</v>
       </c>
     </row>
@@ -4135,11 +4166,11 @@
         <v>129</v>
       </c>
       <c r="F155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.2765999999999997</v>
       </c>
       <c r="G155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.2765999999999962</v>
       </c>
     </row>
@@ -4148,11 +4179,11 @@
         <v>130</v>
       </c>
       <c r="F156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.302</v>
       </c>
       <c r="G156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.301999999999996</v>
       </c>
     </row>
@@ -4161,11 +4192,11 @@
         <v>131</v>
       </c>
       <c r="F157">
-        <f t="shared" ref="F157:F220" si="8">E157*0.0254</f>
+        <f t="shared" ref="F157:F220" si="12">E157*0.0254</f>
         <v>3.3273999999999999</v>
       </c>
       <c r="G157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.3273999999999959</v>
       </c>
     </row>
@@ -4174,11 +4205,11 @@
         <v>132</v>
       </c>
       <c r="F158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.3527999999999998</v>
       </c>
       <c r="G158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.3527999999999958</v>
       </c>
     </row>
@@ -4187,11 +4218,11 @@
         <v>133</v>
       </c>
       <c r="F159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.3781999999999996</v>
       </c>
       <c r="G159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.3781999999999957</v>
       </c>
     </row>
@@ -4200,11 +4231,11 @@
         <v>134</v>
       </c>
       <c r="F160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.4036</v>
       </c>
       <c r="G160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4035999999999955</v>
       </c>
     </row>
@@ -4213,11 +4244,11 @@
         <v>135</v>
       </c>
       <c r="F161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.4289999999999998</v>
       </c>
       <c r="G161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4289999999999954</v>
       </c>
     </row>
@@ -4226,11 +4257,11 @@
         <v>136</v>
       </c>
       <c r="F162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.4543999999999997</v>
       </c>
       <c r="G162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4543999999999953</v>
       </c>
     </row>
@@ -4239,11 +4270,11 @@
         <v>137</v>
       </c>
       <c r="F163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.4798</v>
       </c>
       <c r="G163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4797999999999951</v>
       </c>
     </row>
@@ -4252,11 +4283,11 @@
         <v>138</v>
       </c>
       <c r="F164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5051999999999999</v>
       </c>
       <c r="G164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.505199999999995</v>
       </c>
     </row>
@@ -4265,11 +4296,11 @@
         <v>139</v>
       </c>
       <c r="F165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5305999999999997</v>
       </c>
       <c r="G165">
-        <f t="shared" ref="G165:G228" si="9">G164+G$36/10</f>
+        <f t="shared" ref="G165:G228" si="13">G164+G$36/10</f>
         <v>3.5305999999999949</v>
       </c>
     </row>
@@ -4278,11 +4309,11 @@
         <v>140</v>
       </c>
       <c r="F166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.556</v>
       </c>
       <c r="G166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.5559999999999947</v>
       </c>
     </row>
@@ -4291,11 +4322,11 @@
         <v>141</v>
       </c>
       <c r="F167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.5813999999999999</v>
       </c>
       <c r="G167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.5813999999999946</v>
       </c>
     </row>
@@ -4304,11 +4335,11 @@
         <v>142</v>
       </c>
       <c r="F168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.6067999999999998</v>
       </c>
       <c r="G168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.6067999999999945</v>
       </c>
     </row>
@@ -4317,11 +4348,11 @@
         <v>143</v>
       </c>
       <c r="F169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.6321999999999997</v>
       </c>
       <c r="G169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.6321999999999943</v>
       </c>
     </row>
@@ -4330,11 +4361,11 @@
         <v>144</v>
       </c>
       <c r="F170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.6576</v>
       </c>
       <c r="G170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.6575999999999942</v>
       </c>
     </row>
@@ -4343,11 +4374,11 @@
         <v>145</v>
       </c>
       <c r="F171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.6829999999999998</v>
       </c>
       <c r="G171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.6829999999999941</v>
       </c>
     </row>
@@ -4356,11 +4387,11 @@
         <v>146</v>
       </c>
       <c r="F172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.7083999999999997</v>
       </c>
       <c r="G172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.7083999999999939</v>
       </c>
     </row>
@@ -4369,11 +4400,11 @@
         <v>147</v>
       </c>
       <c r="F173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.7338</v>
       </c>
       <c r="G173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.7337999999999938</v>
       </c>
     </row>
@@ -4382,11 +4413,11 @@
         <v>148</v>
       </c>
       <c r="F174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.7591999999999999</v>
       </c>
       <c r="G174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.7591999999999937</v>
       </c>
     </row>
@@ -4395,11 +4426,11 @@
         <v>149</v>
       </c>
       <c r="F175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.7845999999999997</v>
       </c>
       <c r="G175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.7845999999999935</v>
       </c>
     </row>
@@ -4408,11 +4439,11 @@
         <v>150</v>
       </c>
       <c r="F176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.81</v>
       </c>
       <c r="G176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.8099999999999934</v>
       </c>
     </row>
@@ -4421,11 +4452,11 @@
         <v>151</v>
       </c>
       <c r="F177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8353999999999999</v>
       </c>
       <c r="G177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.8353999999999933</v>
       </c>
     </row>
@@ -4434,11 +4465,11 @@
         <v>152</v>
       </c>
       <c r="F178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8607999999999998</v>
       </c>
       <c r="G178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.8607999999999931</v>
       </c>
     </row>
@@ -4447,11 +4478,11 @@
         <v>153</v>
       </c>
       <c r="F179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.8861999999999997</v>
       </c>
       <c r="G179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.886199999999993</v>
       </c>
     </row>
@@ -4460,11 +4491,11 @@
         <v>154</v>
       </c>
       <c r="F180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.9116</v>
       </c>
       <c r="G180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.9115999999999929</v>
       </c>
     </row>
@@ -4473,11 +4504,11 @@
         <v>155</v>
       </c>
       <c r="F181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.9369999999999998</v>
       </c>
       <c r="G181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.9369999999999927</v>
       </c>
     </row>
@@ -4486,11 +4517,11 @@
         <v>156</v>
       </c>
       <c r="F182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.9623999999999997</v>
       </c>
       <c r="G182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.9623999999999926</v>
       </c>
     </row>
@@ -4499,11 +4530,11 @@
         <v>157</v>
       </c>
       <c r="F183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.9878</v>
       </c>
       <c r="G183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.9877999999999925</v>
       </c>
     </row>
@@ -4512,11 +4543,11 @@
         <v>158</v>
       </c>
       <c r="F184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.0131999999999994</v>
       </c>
       <c r="G184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.0131999999999923</v>
       </c>
     </row>
@@ -4525,11 +4556,11 @@
         <v>159</v>
       </c>
       <c r="F185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.0385999999999997</v>
       </c>
       <c r="G185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.0385999999999926</v>
       </c>
     </row>
@@ -4538,11 +4569,11 @@
         <v>160</v>
       </c>
       <c r="F186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.0640000000000001</v>
       </c>
       <c r="G186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.063999999999993</v>
       </c>
     </row>
@@ -4551,11 +4582,11 @@
         <v>161</v>
       </c>
       <c r="F187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.0893999999999995</v>
       </c>
       <c r="G187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.0893999999999933</v>
       </c>
     </row>
@@ -4564,11 +4595,11 @@
         <v>162</v>
       </c>
       <c r="F188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.1147999999999998</v>
       </c>
       <c r="G188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.1147999999999936</v>
       </c>
     </row>
@@ -4577,11 +4608,11 @@
         <v>163</v>
       </c>
       <c r="F189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.1402000000000001</v>
       </c>
       <c r="G189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.1401999999999939</v>
       </c>
     </row>
@@ -4590,11 +4621,11 @@
         <v>164</v>
       </c>
       <c r="F190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.1655999999999995</v>
       </c>
       <c r="G190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.1655999999999942</v>
       </c>
     </row>
@@ -4603,11 +4634,11 @@
         <v>165</v>
       </c>
       <c r="F191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.1909999999999998</v>
       </c>
       <c r="G191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.1909999999999945</v>
       </c>
     </row>
@@ -4616,11 +4647,11 @@
         <v>166</v>
       </c>
       <c r="F192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.2164000000000001</v>
       </c>
       <c r="G192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.2163999999999948</v>
       </c>
     </row>
@@ -4629,11 +4660,11 @@
         <v>167</v>
       </c>
       <c r="F193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.2417999999999996</v>
       </c>
       <c r="G193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.2417999999999951</v>
       </c>
     </row>
@@ -4642,11 +4673,11 @@
         <v>168</v>
       </c>
       <c r="F194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.2671999999999999</v>
       </c>
       <c r="G194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.2671999999999954</v>
       </c>
     </row>
@@ -4655,11 +4686,11 @@
         <v>169</v>
       </c>
       <c r="F195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.2926000000000002</v>
       </c>
       <c r="G195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.2925999999999958</v>
       </c>
     </row>
@@ -4668,11 +4699,11 @@
         <v>170</v>
       </c>
       <c r="F196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="G196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.3179999999999961</v>
       </c>
     </row>
@@ -4681,11 +4712,11 @@
         <v>171</v>
       </c>
       <c r="F197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.3433999999999999</v>
       </c>
       <c r="G197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.3433999999999964</v>
       </c>
     </row>
@@ -4694,11 +4725,11 @@
         <v>172</v>
       </c>
       <c r="F198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.3688000000000002</v>
       </c>
       <c r="G198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.3687999999999967</v>
       </c>
     </row>
@@ -4707,11 +4738,11 @@
         <v>173</v>
       </c>
       <c r="F199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.3941999999999997</v>
       </c>
       <c r="G199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.394199999999997</v>
       </c>
     </row>
@@ -4720,11 +4751,11 @@
         <v>174</v>
       </c>
       <c r="F200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4196</v>
       </c>
       <c r="G200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.4195999999999973</v>
       </c>
     </row>
@@ -4733,11 +4764,11 @@
         <v>175</v>
       </c>
       <c r="F201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4449999999999994</v>
       </c>
       <c r="G201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.4449999999999976</v>
       </c>
     </row>
@@ -4746,11 +4777,11 @@
         <v>176</v>
       </c>
       <c r="F202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4703999999999997</v>
       </c>
       <c r="G202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.4703999999999979</v>
       </c>
     </row>
@@ -4759,11 +4790,11 @@
         <v>177</v>
       </c>
       <c r="F203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.4958</v>
       </c>
       <c r="G203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.4957999999999982</v>
       </c>
     </row>
@@ -4772,11 +4803,11 @@
         <v>178</v>
       </c>
       <c r="F204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5211999999999994</v>
       </c>
       <c r="G204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.5211999999999986</v>
       </c>
     </row>
@@ -4785,11 +4816,11 @@
         <v>179</v>
       </c>
       <c r="F205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5465999999999998</v>
       </c>
       <c r="G205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.5465999999999989</v>
       </c>
     </row>
@@ -4798,11 +4829,11 @@
         <v>180</v>
       </c>
       <c r="F206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5720000000000001</v>
       </c>
       <c r="G206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.5719999999999992</v>
       </c>
     </row>
@@ -4811,11 +4842,11 @@
         <v>181</v>
       </c>
       <c r="F207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.5973999999999995</v>
       </c>
       <c r="G207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.5973999999999995</v>
       </c>
     </row>
@@ -4824,11 +4855,11 @@
         <v>182</v>
       </c>
       <c r="F208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.6227999999999998</v>
       </c>
       <c r="G208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.6227999999999998</v>
       </c>
     </row>
@@ -4837,11 +4868,11 @@
         <v>183</v>
       </c>
       <c r="F209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.6482000000000001</v>
       </c>
       <c r="G209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.6482000000000001</v>
       </c>
     </row>
@@ -4850,11 +4881,11 @@
         <v>184</v>
       </c>
       <c r="F210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.6735999999999995</v>
       </c>
       <c r="G210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.6736000000000004</v>
       </c>
     </row>
@@ -4863,11 +4894,11 @@
         <v>185</v>
       </c>
       <c r="F211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.6989999999999998</v>
       </c>
       <c r="G211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.6990000000000007</v>
       </c>
     </row>
@@ -4876,11 +4907,11 @@
         <v>186</v>
       </c>
       <c r="F212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.7244000000000002</v>
       </c>
       <c r="G212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.724400000000001</v>
       </c>
     </row>
@@ -4889,11 +4920,11 @@
         <v>187</v>
       </c>
       <c r="F213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.7497999999999996</v>
       </c>
       <c r="G213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.7498000000000014</v>
       </c>
     </row>
@@ -4902,11 +4933,11 @@
         <v>188</v>
       </c>
       <c r="F214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.7751999999999999</v>
       </c>
       <c r="G214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.7752000000000017</v>
       </c>
     </row>
@@ -4915,11 +4946,11 @@
         <v>189</v>
       </c>
       <c r="F215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.8006000000000002</v>
       </c>
       <c r="G215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.800600000000002</v>
       </c>
     </row>
@@ -4928,11 +4959,11 @@
         <v>190</v>
       </c>
       <c r="F216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.8259999999999996</v>
       </c>
       <c r="G216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.8260000000000023</v>
       </c>
     </row>
@@ -4941,11 +4972,11 @@
         <v>191</v>
       </c>
       <c r="F217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.8513999999999999</v>
       </c>
       <c r="G217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.8514000000000026</v>
       </c>
     </row>
@@ -4954,11 +4985,11 @@
         <v>192</v>
       </c>
       <c r="F218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.8767999999999994</v>
       </c>
       <c r="G218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.8768000000000029</v>
       </c>
     </row>
@@ -4967,11 +4998,11 @@
         <v>193</v>
       </c>
       <c r="F219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.9021999999999997</v>
       </c>
       <c r="G219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.9022000000000032</v>
       </c>
     </row>
@@ -4980,11 +5011,11 @@
         <v>194</v>
       </c>
       <c r="F220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.9276</v>
       </c>
       <c r="G220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.9276000000000035</v>
       </c>
     </row>
@@ -4993,11 +5024,11 @@
         <v>195</v>
       </c>
       <c r="F221">
-        <f t="shared" ref="F221:F284" si="10">E221*0.0254</f>
+        <f t="shared" ref="F221:F284" si="14">E221*0.0254</f>
         <v>4.9529999999999994</v>
       </c>
       <c r="G221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.9530000000000038</v>
       </c>
     </row>
@@ -5006,11 +5037,11 @@
         <v>196</v>
       </c>
       <c r="F222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.9783999999999997</v>
       </c>
       <c r="G222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.9784000000000042</v>
       </c>
     </row>
@@ -5019,11 +5050,11 @@
         <v>197</v>
       </c>
       <c r="F223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.0038</v>
       </c>
       <c r="G223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.0038000000000045</v>
       </c>
     </row>
@@ -5032,11 +5063,11 @@
         <v>198</v>
       </c>
       <c r="F224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.0291999999999994</v>
       </c>
       <c r="G224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.0292000000000048</v>
       </c>
     </row>
@@ -5045,11 +5076,11 @@
         <v>199</v>
       </c>
       <c r="F225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.0545999999999998</v>
       </c>
       <c r="G225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.0546000000000051</v>
       </c>
     </row>
@@ -5058,11 +5089,11 @@
         <v>200</v>
       </c>
       <c r="F226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.08</v>
       </c>
       <c r="G226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.0800000000000054</v>
       </c>
     </row>
@@ -5071,11 +5102,11 @@
         <v>201</v>
       </c>
       <c r="F227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.1053999999999995</v>
       </c>
       <c r="G227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.1054000000000057</v>
       </c>
     </row>
@@ -5084,11 +5115,11 @@
         <v>202</v>
       </c>
       <c r="F228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.1307999999999998</v>
       </c>
       <c r="G228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.130800000000006</v>
       </c>
     </row>
@@ -5097,11 +5128,11 @@
         <v>203</v>
       </c>
       <c r="F229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.1562000000000001</v>
       </c>
       <c r="G229">
-        <f t="shared" ref="G229:G292" si="11">G228+G$36/10</f>
+        <f t="shared" ref="G229:G292" si="15">G228+G$36/10</f>
         <v>5.1562000000000063</v>
       </c>
     </row>
@@ -5110,11 +5141,11 @@
         <v>204</v>
       </c>
       <c r="F230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.1815999999999995</v>
       </c>
       <c r="G230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.1816000000000066</v>
       </c>
     </row>
@@ -5123,11 +5154,11 @@
         <v>205</v>
       </c>
       <c r="F231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.2069999999999999</v>
       </c>
       <c r="G231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.207000000000007</v>
       </c>
     </row>
@@ -5136,11 +5167,11 @@
         <v>206</v>
       </c>
       <c r="F232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.2324000000000002</v>
       </c>
       <c r="G232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.2324000000000073</v>
       </c>
     </row>
@@ -5149,11 +5180,11 @@
         <v>207</v>
       </c>
       <c r="F233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.2577999999999996</v>
       </c>
       <c r="G233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.2578000000000076</v>
       </c>
     </row>
@@ -5162,11 +5193,11 @@
         <v>208</v>
       </c>
       <c r="F234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.2831999999999999</v>
       </c>
       <c r="G234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.2832000000000079</v>
       </c>
     </row>
@@ -5175,11 +5206,11 @@
         <v>209</v>
       </c>
       <c r="F235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.3086000000000002</v>
       </c>
       <c r="G235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.3086000000000082</v>
       </c>
     </row>
@@ -5188,11 +5219,11 @@
         <v>210</v>
       </c>
       <c r="F236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.3339999999999996</v>
       </c>
       <c r="G236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.3340000000000085</v>
       </c>
     </row>
@@ -5201,11 +5232,11 @@
         <v>211</v>
       </c>
       <c r="F237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.3593999999999999</v>
       </c>
       <c r="G237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.3594000000000088</v>
       </c>
     </row>
@@ -5214,11 +5245,11 @@
         <v>212</v>
       </c>
       <c r="F238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.3847999999999994</v>
       </c>
       <c r="G238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.3848000000000091</v>
       </c>
     </row>
@@ -5227,11 +5258,11 @@
         <v>213</v>
       </c>
       <c r="F239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.4101999999999997</v>
       </c>
       <c r="G239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.4102000000000094</v>
       </c>
     </row>
@@ -5240,11 +5271,11 @@
         <v>214</v>
       </c>
       <c r="F240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.4356</v>
       </c>
       <c r="G240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.4356000000000098</v>
       </c>
     </row>
@@ -5253,11 +5284,11 @@
         <v>215</v>
       </c>
       <c r="F241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.4609999999999994</v>
       </c>
       <c r="G241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.4610000000000101</v>
       </c>
     </row>
@@ -5266,11 +5297,11 @@
         <v>216</v>
       </c>
       <c r="F242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.4863999999999997</v>
       </c>
       <c r="G242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.4864000000000104</v>
       </c>
     </row>
@@ -5279,11 +5310,11 @@
         <v>217</v>
       </c>
       <c r="F243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.5118</v>
       </c>
       <c r="G243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.5118000000000107</v>
       </c>
     </row>
@@ -5292,11 +5323,11 @@
         <v>218</v>
       </c>
       <c r="F244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.5371999999999995</v>
       </c>
       <c r="G244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.537200000000011</v>
       </c>
     </row>
@@ -5305,11 +5336,11 @@
         <v>219</v>
       </c>
       <c r="F245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.5625999999999998</v>
       </c>
       <c r="G245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.5626000000000113</v>
       </c>
     </row>
@@ -5318,11 +5349,11 @@
         <v>220</v>
       </c>
       <c r="F246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.5880000000000001</v>
       </c>
       <c r="G246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.5880000000000116</v>
       </c>
     </row>
@@ -5331,11 +5362,11 @@
         <v>221</v>
       </c>
       <c r="F247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.6133999999999995</v>
       </c>
       <c r="G247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.6134000000000119</v>
       </c>
     </row>
@@ -5344,11 +5375,11 @@
         <v>222</v>
       </c>
       <c r="F248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.6387999999999998</v>
       </c>
       <c r="G248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.6388000000000122</v>
       </c>
     </row>
@@ -5357,11 +5388,11 @@
         <v>223</v>
       </c>
       <c r="F249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.6642000000000001</v>
       </c>
       <c r="G249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.6642000000000126</v>
       </c>
     </row>
@@ -5370,11 +5401,11 @@
         <v>224</v>
       </c>
       <c r="F250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.6895999999999995</v>
       </c>
       <c r="G250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.6896000000000129</v>
       </c>
     </row>
@@ -5383,11 +5414,11 @@
         <v>225</v>
       </c>
       <c r="F251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.7149999999999999</v>
       </c>
       <c r="G251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.7150000000000132</v>
       </c>
     </row>
@@ -5396,11 +5427,11 @@
         <v>226</v>
       </c>
       <c r="F252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.7404000000000002</v>
       </c>
       <c r="G252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.7404000000000135</v>
       </c>
     </row>
@@ -5409,11 +5440,11 @@
         <v>227</v>
       </c>
       <c r="F253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.7657999999999996</v>
       </c>
       <c r="G253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.7658000000000138</v>
       </c>
     </row>
@@ -5422,11 +5453,11 @@
         <v>228</v>
       </c>
       <c r="F254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.7911999999999999</v>
       </c>
       <c r="G254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.7912000000000141</v>
       </c>
     </row>
@@ -5435,11 +5466,11 @@
         <v>229</v>
       </c>
       <c r="F255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.8165999999999993</v>
       </c>
       <c r="G255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.8166000000000144</v>
       </c>
     </row>
@@ -5448,11 +5479,11 @@
         <v>230</v>
       </c>
       <c r="F256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.8419999999999996</v>
       </c>
       <c r="G256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.8420000000000147</v>
       </c>
     </row>
@@ -5461,11 +5492,11 @@
         <v>231</v>
       </c>
       <c r="F257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.8673999999999999</v>
       </c>
       <c r="G257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.867400000000015</v>
       </c>
     </row>
@@ -5474,11 +5505,11 @@
         <v>232</v>
       </c>
       <c r="F258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.8927999999999994</v>
       </c>
       <c r="G258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.8928000000000154</v>
       </c>
     </row>
@@ -5487,11 +5518,11 @@
         <v>233</v>
       </c>
       <c r="F259">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.9181999999999997</v>
       </c>
       <c r="G259">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.9182000000000157</v>
       </c>
     </row>
@@ -5500,11 +5531,11 @@
         <v>234</v>
       </c>
       <c r="F260">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.9436</v>
       </c>
       <c r="G260">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.943600000000016</v>
       </c>
     </row>
@@ -5513,11 +5544,11 @@
         <v>235</v>
       </c>
       <c r="F261">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.9689999999999994</v>
       </c>
       <c r="G261">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.9690000000000163</v>
       </c>
     </row>
@@ -5526,11 +5557,11 @@
         <v>236</v>
       </c>
       <c r="F262">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.9943999999999997</v>
       </c>
       <c r="G262">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.9944000000000166</v>
       </c>
     </row>
@@ -5539,11 +5570,11 @@
         <v>237</v>
       </c>
       <c r="F263">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.0198</v>
       </c>
       <c r="G263">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.0198000000000169</v>
       </c>
     </row>
@@ -5552,11 +5583,11 @@
         <v>238</v>
       </c>
       <c r="F264">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.0451999999999995</v>
       </c>
       <c r="G264">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.0452000000000172</v>
       </c>
     </row>
@@ -5565,11 +5596,11 @@
         <v>239</v>
       </c>
       <c r="F265">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.0705999999999998</v>
       </c>
       <c r="G265">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.0706000000000175</v>
       </c>
     </row>
@@ -5578,11 +5609,11 @@
         <v>240</v>
       </c>
       <c r="F266">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.0960000000000001</v>
       </c>
       <c r="G266">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.0960000000000178</v>
       </c>
     </row>
@@ -5591,11 +5622,11 @@
         <v>241</v>
       </c>
       <c r="F267">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.1213999999999995</v>
       </c>
       <c r="G267">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.1214000000000182</v>
       </c>
     </row>
@@ -5604,11 +5635,11 @@
         <v>242</v>
       </c>
       <c r="F268">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.1467999999999998</v>
       </c>
       <c r="G268">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.1468000000000185</v>
       </c>
     </row>
@@ -5617,11 +5648,11 @@
         <v>243</v>
       </c>
       <c r="F269">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.1722000000000001</v>
       </c>
       <c r="G269">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.1722000000000188</v>
       </c>
     </row>
@@ -5630,11 +5661,11 @@
         <v>244</v>
       </c>
       <c r="F270">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.1975999999999996</v>
       </c>
       <c r="G270">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.1976000000000191</v>
       </c>
     </row>
@@ -5643,11 +5674,11 @@
         <v>245</v>
       </c>
       <c r="F271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.2229999999999999</v>
       </c>
       <c r="G271">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.2230000000000194</v>
       </c>
     </row>
@@ -5656,11 +5687,11 @@
         <v>246</v>
       </c>
       <c r="F272">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.2484000000000002</v>
       </c>
       <c r="G272">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.2484000000000197</v>
       </c>
     </row>
@@ -5669,11 +5700,11 @@
         <v>247</v>
       </c>
       <c r="F273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.2737999999999996</v>
       </c>
       <c r="G273">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.27380000000002</v>
       </c>
     </row>
@@ -5682,11 +5713,11 @@
         <v>248</v>
       </c>
       <c r="F274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.2991999999999999</v>
       </c>
       <c r="G274">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.2992000000000203</v>
       </c>
     </row>
@@ -5695,11 +5726,11 @@
         <v>249</v>
       </c>
       <c r="F275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.3245999999999993</v>
       </c>
       <c r="G275">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.3246000000000206</v>
       </c>
     </row>
@@ -5708,11 +5739,11 @@
         <v>250</v>
       </c>
       <c r="F276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.35</v>
       </c>
       <c r="G276">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.350000000000021</v>
       </c>
     </row>
@@ -5721,11 +5752,11 @@
         <v>251</v>
       </c>
       <c r="F277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.3754</v>
       </c>
       <c r="G277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.3754000000000213</v>
       </c>
     </row>
@@ -5734,11 +5765,11 @@
         <v>252</v>
       </c>
       <c r="F278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.4007999999999994</v>
       </c>
       <c r="G278">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.4008000000000216</v>
       </c>
     </row>
@@ -5747,11 +5778,11 @@
         <v>253</v>
       </c>
       <c r="F279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.4261999999999997</v>
       </c>
       <c r="G279">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.4262000000000219</v>
       </c>
     </row>
@@ -5760,11 +5791,11 @@
         <v>254</v>
       </c>
       <c r="F280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.4516</v>
       </c>
       <c r="G280">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.4516000000000222</v>
       </c>
     </row>
@@ -5773,11 +5804,11 @@
         <v>255</v>
       </c>
       <c r="F281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.4769999999999994</v>
       </c>
       <c r="G281">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.4770000000000225</v>
       </c>
     </row>
@@ -5786,11 +5817,11 @@
         <v>256</v>
       </c>
       <c r="F282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.5023999999999997</v>
       </c>
       <c r="G282">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.5024000000000228</v>
       </c>
     </row>
@@ -5799,11 +5830,11 @@
         <v>257</v>
       </c>
       <c r="F283">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.5278</v>
       </c>
       <c r="G283">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.5278000000000231</v>
       </c>
     </row>
@@ -5812,11 +5843,11 @@
         <v>258</v>
       </c>
       <c r="F284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.5531999999999995</v>
       </c>
       <c r="G284">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.5532000000000235</v>
       </c>
     </row>
@@ -5825,11 +5856,11 @@
         <v>259</v>
       </c>
       <c r="F285">
-        <f t="shared" ref="F285:F348" si="12">E285*0.0254</f>
+        <f t="shared" ref="F285:F348" si="16">E285*0.0254</f>
         <v>6.5785999999999998</v>
       </c>
       <c r="G285">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.5786000000000238</v>
       </c>
     </row>
@@ -5838,11 +5869,11 @@
         <v>260</v>
       </c>
       <c r="F286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.6040000000000001</v>
       </c>
       <c r="G286">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.6040000000000241</v>
       </c>
     </row>
@@ -5851,11 +5882,11 @@
         <v>261</v>
       </c>
       <c r="F287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.6293999999999995</v>
       </c>
       <c r="G287">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.6294000000000244</v>
       </c>
     </row>
@@ -5864,11 +5895,11 @@
         <v>262</v>
       </c>
       <c r="F288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.6547999999999998</v>
       </c>
       <c r="G288">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.6548000000000247</v>
       </c>
     </row>
@@ -5877,11 +5908,11 @@
         <v>263</v>
       </c>
       <c r="F289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.6802000000000001</v>
       </c>
       <c r="G289">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.680200000000025</v>
       </c>
     </row>
@@ -5890,11 +5921,11 @@
         <v>264</v>
       </c>
       <c r="F290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.7055999999999996</v>
       </c>
       <c r="G290">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.7056000000000253</v>
       </c>
     </row>
@@ -5903,11 +5934,11 @@
         <v>265</v>
       </c>
       <c r="F291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.7309999999999999</v>
       </c>
       <c r="G291">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.7310000000000256</v>
       </c>
     </row>
@@ -5916,11 +5947,11 @@
         <v>266</v>
       </c>
       <c r="F292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.7563999999999993</v>
       </c>
       <c r="G292">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.7564000000000259</v>
       </c>
     </row>
@@ -5929,11 +5960,11 @@
         <v>267</v>
       </c>
       <c r="F293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.7817999999999996</v>
       </c>
       <c r="G293">
-        <f t="shared" ref="G293:G356" si="13">G292+G$36/10</f>
+        <f t="shared" ref="G293:G356" si="17">G292+G$36/10</f>
         <v>6.7818000000000263</v>
       </c>
     </row>
@@ -5942,11 +5973,11 @@
         <v>268</v>
       </c>
       <c r="F294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.8071999999999999</v>
       </c>
       <c r="G294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.8072000000000266</v>
       </c>
     </row>
@@ -5955,11 +5986,11 @@
         <v>269</v>
       </c>
       <c r="F295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.8325999999999993</v>
       </c>
       <c r="G295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.8326000000000269</v>
       </c>
     </row>
@@ -5968,11 +5999,11 @@
         <v>270</v>
       </c>
       <c r="F296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.8579999999999997</v>
       </c>
       <c r="G296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.8580000000000272</v>
       </c>
     </row>
@@ -5981,11 +6012,11 @@
         <v>271</v>
       </c>
       <c r="F297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.8834</v>
       </c>
       <c r="G297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.8834000000000275</v>
       </c>
     </row>
@@ -5994,11 +6025,11 @@
         <v>272</v>
       </c>
       <c r="F298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.9087999999999994</v>
       </c>
       <c r="G298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.9088000000000278</v>
       </c>
     </row>
@@ -6007,11 +6038,11 @@
         <v>273</v>
       </c>
       <c r="F299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.9341999999999997</v>
       </c>
       <c r="G299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.9342000000000281</v>
       </c>
     </row>
@@ -6020,11 +6051,11 @@
         <v>274</v>
       </c>
       <c r="F300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.9596</v>
       </c>
       <c r="G300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.9596000000000284</v>
       </c>
     </row>
@@ -6033,11 +6064,11 @@
         <v>275</v>
       </c>
       <c r="F301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>6.9849999999999994</v>
       </c>
       <c r="G301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6.9850000000000287</v>
       </c>
     </row>
@@ -6046,11 +6077,11 @@
         <v>276</v>
       </c>
       <c r="F302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.0103999999999997</v>
       </c>
       <c r="G302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.0104000000000291</v>
       </c>
     </row>
@@ -6059,11 +6090,11 @@
         <v>277</v>
       </c>
       <c r="F303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.0358000000000001</v>
       </c>
       <c r="G303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.0358000000000294</v>
       </c>
     </row>
@@ -6072,11 +6103,11 @@
         <v>278</v>
       </c>
       <c r="F304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.0611999999999995</v>
       </c>
       <c r="G304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.0612000000000297</v>
       </c>
     </row>
@@ -6085,11 +6116,11 @@
         <v>279</v>
       </c>
       <c r="F305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.0865999999999998</v>
       </c>
       <c r="G305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.08660000000003</v>
       </c>
     </row>
@@ -6098,11 +6129,11 @@
         <v>280</v>
       </c>
       <c r="F306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.1120000000000001</v>
       </c>
       <c r="G306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.1120000000000303</v>
       </c>
     </row>
@@ -6111,11 +6142,11 @@
         <v>281</v>
       </c>
       <c r="F307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.1373999999999995</v>
       </c>
       <c r="G307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.1374000000000306</v>
       </c>
     </row>
@@ -6124,11 +6155,11 @@
         <v>282</v>
       </c>
       <c r="F308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.1627999999999998</v>
       </c>
       <c r="G308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.1628000000000309</v>
       </c>
     </row>
@@ -6137,11 +6168,11 @@
         <v>283</v>
       </c>
       <c r="F309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.1882000000000001</v>
       </c>
       <c r="G309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.1882000000000312</v>
       </c>
     </row>
@@ -6150,11 +6181,11 @@
         <v>284</v>
       </c>
       <c r="F310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.2135999999999996</v>
       </c>
       <c r="G310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.2136000000000315</v>
       </c>
     </row>
@@ -6163,11 +6194,11 @@
         <v>285</v>
       </c>
       <c r="F311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.2389999999999999</v>
       </c>
       <c r="G311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.2390000000000319</v>
       </c>
     </row>
@@ -6176,11 +6207,11 @@
         <v>286</v>
       </c>
       <c r="F312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.2643999999999993</v>
       </c>
       <c r="G312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.2644000000000322</v>
       </c>
     </row>
@@ -6189,11 +6220,11 @@
         <v>287</v>
       </c>
       <c r="F313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.2897999999999996</v>
       </c>
       <c r="G313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.2898000000000325</v>
       </c>
     </row>
@@ -6202,11 +6233,11 @@
         <v>288</v>
       </c>
       <c r="F314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.3151999999999999</v>
       </c>
       <c r="G314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.3152000000000328</v>
       </c>
     </row>
@@ -6215,11 +6246,11 @@
         <v>289</v>
       </c>
       <c r="F315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.3405999999999993</v>
       </c>
       <c r="G315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.3406000000000331</v>
       </c>
     </row>
@@ -6228,11 +6259,11 @@
         <v>290</v>
       </c>
       <c r="F316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.3659999999999997</v>
       </c>
       <c r="G316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.3660000000000334</v>
       </c>
     </row>
@@ -6241,11 +6272,11 @@
         <v>291</v>
       </c>
       <c r="F317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.3914</v>
       </c>
       <c r="G317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.3914000000000337</v>
       </c>
     </row>
@@ -6254,11 +6285,11 @@
         <v>292</v>
       </c>
       <c r="F318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.4167999999999994</v>
       </c>
       <c r="G318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.416800000000034</v>
       </c>
     </row>
@@ -6267,11 +6298,11 @@
         <v>293</v>
       </c>
       <c r="F319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.4421999999999997</v>
       </c>
       <c r="G319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.4422000000000343</v>
       </c>
     </row>
@@ -6280,11 +6311,11 @@
         <v>294</v>
       </c>
       <c r="F320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.4676</v>
       </c>
       <c r="G320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.4676000000000347</v>
       </c>
     </row>
@@ -6293,11 +6324,11 @@
         <v>295</v>
       </c>
       <c r="F321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.4929999999999994</v>
       </c>
       <c r="G321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.493000000000035</v>
       </c>
     </row>
@@ -6306,11 +6337,11 @@
         <v>296</v>
       </c>
       <c r="F322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.5183999999999997</v>
       </c>
       <c r="G322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.5184000000000353</v>
       </c>
     </row>
@@ -6319,11 +6350,11 @@
         <v>297</v>
       </c>
       <c r="F323">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.5438000000000001</v>
       </c>
       <c r="G323">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.5438000000000356</v>
       </c>
     </row>
@@ -6332,11 +6363,11 @@
         <v>298</v>
       </c>
       <c r="F324">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.5691999999999995</v>
       </c>
       <c r="G324">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.5692000000000359</v>
       </c>
     </row>
@@ -6345,11 +6376,11 @@
         <v>299</v>
       </c>
       <c r="F325">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.5945999999999998</v>
       </c>
       <c r="G325">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.5946000000000362</v>
       </c>
     </row>
@@ -6358,11 +6389,11 @@
         <v>300</v>
       </c>
       <c r="F326">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.62</v>
       </c>
       <c r="G326">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.6200000000000365</v>
       </c>
     </row>
@@ -6371,11 +6402,11 @@
         <v>301</v>
       </c>
       <c r="F327">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.6453999999999995</v>
       </c>
       <c r="G327">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.6454000000000368</v>
       </c>
     </row>
@@ -6384,11 +6415,11 @@
         <v>302</v>
       </c>
       <c r="F328">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.6707999999999998</v>
       </c>
       <c r="G328">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.6708000000000371</v>
       </c>
     </row>
@@ -6397,11 +6428,11 @@
         <v>303</v>
       </c>
       <c r="F329">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.6961999999999993</v>
       </c>
       <c r="G329">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.6962000000000375</v>
       </c>
     </row>
@@ -6410,11 +6441,11 @@
         <v>304</v>
       </c>
       <c r="F330">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.7215999999999996</v>
       </c>
       <c r="G330">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.7216000000000378</v>
       </c>
     </row>
@@ -6423,11 +6454,11 @@
         <v>305</v>
       </c>
       <c r="F331">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.7469999999999999</v>
       </c>
       <c r="G331">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.7470000000000381</v>
       </c>
     </row>
@@ -6436,11 +6467,11 @@
         <v>306</v>
       </c>
       <c r="F332">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.7723999999999993</v>
       </c>
       <c r="G332">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.7724000000000384</v>
       </c>
     </row>
@@ -6449,11 +6480,11 @@
         <v>307</v>
       </c>
       <c r="F333">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.7977999999999996</v>
       </c>
       <c r="G333">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.7978000000000387</v>
       </c>
     </row>
@@ -6462,11 +6493,11 @@
         <v>308</v>
       </c>
       <c r="F334">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.8231999999999999</v>
       </c>
       <c r="G334">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.823200000000039</v>
       </c>
     </row>
@@ -6475,11 +6506,11 @@
         <v>309</v>
       </c>
       <c r="F335">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.8485999999999994</v>
       </c>
       <c r="G335">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.8486000000000393</v>
       </c>
     </row>
@@ -6488,11 +6519,11 @@
         <v>310</v>
       </c>
       <c r="F336">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.8739999999999997</v>
       </c>
       <c r="G336">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.8740000000000396</v>
       </c>
     </row>
@@ -6501,11 +6532,11 @@
         <v>311</v>
       </c>
       <c r="F337">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.8994</v>
       </c>
       <c r="G337">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.8994000000000399</v>
       </c>
     </row>
@@ -6514,11 +6545,11 @@
         <v>312</v>
       </c>
       <c r="F338">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.9247999999999994</v>
       </c>
       <c r="G338">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9248000000000403</v>
       </c>
     </row>
@@ -6527,11 +6558,11 @@
         <v>313</v>
       </c>
       <c r="F339">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.9501999999999997</v>
       </c>
       <c r="G339">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9502000000000406</v>
       </c>
     </row>
@@ -6540,11 +6571,11 @@
         <v>314</v>
       </c>
       <c r="F340">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.9756</v>
       </c>
       <c r="G340">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.9756000000000409</v>
       </c>
     </row>
@@ -6553,11 +6584,11 @@
         <v>315</v>
       </c>
       <c r="F341">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.0009999999999994</v>
       </c>
       <c r="G341">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.0010000000000403</v>
       </c>
     </row>
@@ -6566,11 +6597,11 @@
         <v>316</v>
       </c>
       <c r="F342">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.0263999999999989</v>
       </c>
       <c r="G342">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.0264000000000397</v>
       </c>
     </row>
@@ -6579,11 +6610,11 @@
         <v>317</v>
       </c>
       <c r="F343">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.0518000000000001</v>
       </c>
       <c r="G343">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.0518000000000391</v>
       </c>
     </row>
@@ -6592,11 +6623,11 @@
         <v>318</v>
       </c>
       <c r="F344">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.0771999999999995</v>
       </c>
       <c r="G344">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.0772000000000386</v>
       </c>
     </row>
@@ -6605,11 +6636,11 @@
         <v>319</v>
       </c>
       <c r="F345">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.1025999999999989</v>
       </c>
       <c r="G345">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.102600000000038</v>
       </c>
     </row>
@@ -6618,11 +6649,11 @@
         <v>320</v>
       </c>
       <c r="F346">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.1280000000000001</v>
       </c>
       <c r="G346">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.1280000000000374</v>
       </c>
     </row>
@@ -6631,11 +6662,11 @@
         <v>321</v>
       </c>
       <c r="F347">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.1533999999999995</v>
       </c>
       <c r="G347">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.1534000000000368</v>
       </c>
     </row>
@@ -6644,11 +6675,11 @@
         <v>322</v>
       </c>
       <c r="F348">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>8.178799999999999</v>
       </c>
       <c r="G348">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.1788000000000363</v>
       </c>
     </row>
@@ -6657,11 +6688,11 @@
         <v>323</v>
       </c>
       <c r="F349">
-        <f t="shared" ref="F349:F412" si="14">E349*0.0254</f>
+        <f t="shared" ref="F349:F412" si="18">E349*0.0254</f>
         <v>8.2042000000000002</v>
       </c>
       <c r="G349">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.2042000000000357</v>
       </c>
     </row>
@@ -6670,11 +6701,11 @@
         <v>324</v>
       </c>
       <c r="F350">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.2295999999999996</v>
       </c>
       <c r="G350">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.2296000000000351</v>
       </c>
     </row>
@@ -6683,11 +6714,11 @@
         <v>325</v>
       </c>
       <c r="F351">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.254999999999999</v>
       </c>
       <c r="G351">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.2550000000000345</v>
       </c>
     </row>
@@ -6696,11 +6727,11 @@
         <v>326</v>
       </c>
       <c r="F352">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.2804000000000002</v>
       </c>
       <c r="G352">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.280400000000034</v>
       </c>
     </row>
@@ -6709,11 +6740,11 @@
         <v>327</v>
       </c>
       <c r="F353">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.3057999999999996</v>
       </c>
       <c r="G353">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.3058000000000334</v>
       </c>
     </row>
@@ -6722,11 +6753,11 @@
         <v>328</v>
       </c>
       <c r="F354">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.3311999999999991</v>
       </c>
       <c r="G354">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.3312000000000328</v>
       </c>
     </row>
@@ -6735,11 +6766,11 @@
         <v>329</v>
       </c>
       <c r="F355">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.3566000000000003</v>
       </c>
       <c r="G355">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.3566000000000322</v>
       </c>
     </row>
@@ -6748,11 +6779,11 @@
         <v>330</v>
       </c>
       <c r="F356">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.3819999999999997</v>
       </c>
       <c r="G356">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8.3820000000000316</v>
       </c>
     </row>
@@ -6761,11 +6792,11 @@
         <v>331</v>
       </c>
       <c r="F357">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.4073999999999991</v>
       </c>
       <c r="G357">
-        <f t="shared" ref="G357:G420" si="15">G356+G$36/10</f>
+        <f t="shared" ref="G357:G420" si="19">G356+G$36/10</f>
         <v>8.4074000000000311</v>
       </c>
     </row>
@@ -6774,11 +6805,11 @@
         <v>332</v>
       </c>
       <c r="F358">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.4328000000000003</v>
       </c>
       <c r="G358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.4328000000000305</v>
       </c>
     </row>
@@ -6787,11 +6818,11 @@
         <v>333</v>
       </c>
       <c r="F359">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.4581999999999997</v>
       </c>
       <c r="G359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.4582000000000299</v>
       </c>
     </row>
@@ -6800,11 +6831,11 @@
         <v>334</v>
       </c>
       <c r="F360">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.4835999999999991</v>
       </c>
       <c r="G360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.4836000000000293</v>
       </c>
     </row>
@@ -6813,11 +6844,11 @@
         <v>335</v>
       </c>
       <c r="F361">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.5090000000000003</v>
       </c>
       <c r="G361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.5090000000000288</v>
       </c>
     </row>
@@ -6826,11 +6857,11 @@
         <v>336</v>
       </c>
       <c r="F362">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.5343999999999998</v>
       </c>
       <c r="G362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.5344000000000282</v>
       </c>
     </row>
@@ -6839,11 +6870,11 @@
         <v>337</v>
       </c>
       <c r="F363">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.5597999999999992</v>
       </c>
       <c r="G363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.5598000000000276</v>
       </c>
     </row>
@@ -6852,11 +6883,11 @@
         <v>338</v>
       </c>
       <c r="F364">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.5852000000000004</v>
       </c>
       <c r="G364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.585200000000027</v>
       </c>
     </row>
@@ -6865,11 +6896,11 @@
         <v>339</v>
       </c>
       <c r="F365">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.6105999999999998</v>
       </c>
       <c r="G365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.6106000000000265</v>
       </c>
     </row>
@@ -6878,11 +6909,11 @@
         <v>340</v>
       </c>
       <c r="F366">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.6359999999999992</v>
       </c>
       <c r="G366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.6360000000000259</v>
       </c>
     </row>
@@ -6891,11 +6922,11 @@
         <v>341</v>
       </c>
       <c r="F367">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.6614000000000004</v>
       </c>
       <c r="G367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.6614000000000253</v>
       </c>
     </row>
@@ -6904,11 +6935,11 @@
         <v>342</v>
       </c>
       <c r="F368">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.6867999999999999</v>
       </c>
       <c r="G368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.6868000000000247</v>
       </c>
     </row>
@@ -6917,11 +6948,11 @@
         <v>343</v>
       </c>
       <c r="F369">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.7121999999999993</v>
       </c>
       <c r="G369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.7122000000000241</v>
       </c>
     </row>
@@ -6930,11 +6961,11 @@
         <v>344</v>
       </c>
       <c r="F370">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.7376000000000005</v>
       </c>
       <c r="G370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.7376000000000236</v>
       </c>
     </row>
@@ -6943,11 +6974,11 @@
         <v>345</v>
       </c>
       <c r="F371">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.7629999999999999</v>
       </c>
       <c r="G371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.763000000000023</v>
       </c>
     </row>
@@ -6956,11 +6987,11 @@
         <v>346</v>
       </c>
       <c r="F372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.7883999999999993</v>
       </c>
       <c r="G372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.7884000000000224</v>
       </c>
     </row>
@@ -6969,11 +7000,11 @@
         <v>347</v>
       </c>
       <c r="F373">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.8138000000000005</v>
       </c>
       <c r="G373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.8138000000000218</v>
       </c>
     </row>
@@ -6982,11 +7013,11 @@
         <v>348</v>
       </c>
       <c r="F374">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.8391999999999999</v>
       </c>
       <c r="G374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.8392000000000213</v>
       </c>
     </row>
@@ -6995,11 +7026,11 @@
         <v>349</v>
       </c>
       <c r="F375">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.8645999999999994</v>
       </c>
       <c r="G375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.8646000000000207</v>
       </c>
     </row>
@@ -7008,11 +7039,11 @@
         <v>350</v>
       </c>
       <c r="F376">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.8899999999999988</v>
       </c>
       <c r="G376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.8900000000000201</v>
       </c>
     </row>
@@ -7021,11 +7052,11 @@
         <v>351</v>
       </c>
       <c r="F377">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.9154</v>
       </c>
       <c r="G377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.9154000000000195</v>
       </c>
     </row>
@@ -7034,11 +7065,11 @@
         <v>352</v>
       </c>
       <c r="F378">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.9407999999999994</v>
       </c>
       <c r="G378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.940800000000019</v>
       </c>
     </row>
@@ -7047,11 +7078,11 @@
         <v>353</v>
       </c>
       <c r="F379">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.9661999999999988</v>
       </c>
       <c r="G379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.9662000000000184</v>
       </c>
     </row>
@@ -7060,11 +7091,11 @@
         <v>354</v>
       </c>
       <c r="F380">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8.9916</v>
       </c>
       <c r="G380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8.9916000000000178</v>
       </c>
     </row>
@@ -7073,11 +7104,11 @@
         <v>355</v>
       </c>
       <c r="F381">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0169999999999995</v>
       </c>
       <c r="G381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.0170000000000172</v>
       </c>
     </row>
@@ -7086,11 +7117,11 @@
         <v>356</v>
       </c>
       <c r="F382">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0423999999999989</v>
       </c>
       <c r="G382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.0424000000000166</v>
       </c>
     </row>
@@ -7099,11 +7130,11 @@
         <v>357</v>
       </c>
       <c r="F383">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0678000000000001</v>
       </c>
       <c r="G383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.0678000000000161</v>
       </c>
     </row>
@@ -7112,11 +7143,11 @@
         <v>358</v>
       </c>
       <c r="F384">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.0931999999999995</v>
       </c>
       <c r="G384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.0932000000000155</v>
       </c>
     </row>
@@ -7125,11 +7156,11 @@
         <v>359</v>
       </c>
       <c r="F385">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.1185999999999989</v>
       </c>
       <c r="G385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.1186000000000149</v>
       </c>
     </row>
@@ -7138,11 +7169,11 @@
         <v>360</v>
       </c>
       <c r="F386">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.1440000000000001</v>
       </c>
       <c r="G386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.1440000000000143</v>
       </c>
     </row>
@@ -7151,11 +7182,11 @@
         <v>361</v>
       </c>
       <c r="F387">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.1693999999999996</v>
       </c>
       <c r="G387">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.1694000000000138</v>
       </c>
     </row>
@@ -7164,11 +7195,11 @@
         <v>362</v>
       </c>
       <c r="F388">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.194799999999999</v>
       </c>
       <c r="G388">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.1948000000000132</v>
       </c>
     </row>
@@ -7177,11 +7208,11 @@
         <v>363</v>
       </c>
       <c r="F389">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.2202000000000002</v>
       </c>
       <c r="G389">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.2202000000000126</v>
       </c>
     </row>
@@ -7190,11 +7221,11 @@
         <v>364</v>
       </c>
       <c r="F390">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.2455999999999996</v>
       </c>
       <c r="G390">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.245600000000012</v>
       </c>
     </row>
@@ -7203,11 +7234,11 @@
         <v>365</v>
       </c>
       <c r="F391">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.270999999999999</v>
       </c>
       <c r="G391">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.2710000000000115</v>
       </c>
     </row>
@@ -7216,11 +7247,11 @@
         <v>366</v>
       </c>
       <c r="F392">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.2964000000000002</v>
       </c>
       <c r="G392">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.2964000000000109</v>
       </c>
     </row>
@@ -7229,11 +7260,11 @@
         <v>367</v>
       </c>
       <c r="F393">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.3217999999999996</v>
       </c>
       <c r="G393">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.3218000000000103</v>
       </c>
     </row>
@@ -7242,11 +7273,11 @@
         <v>368</v>
       </c>
       <c r="F394">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.3471999999999991</v>
       </c>
       <c r="G394">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.3472000000000097</v>
       </c>
     </row>
@@ -7255,11 +7286,11 @@
         <v>369</v>
       </c>
       <c r="F395">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.3726000000000003</v>
       </c>
       <c r="G395">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.3726000000000091</v>
       </c>
     </row>
@@ -7268,11 +7299,11 @@
         <v>370</v>
       </c>
       <c r="F396">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.3979999999999997</v>
       </c>
       <c r="G396">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.3980000000000086</v>
       </c>
     </row>
@@ -7281,11 +7312,11 @@
         <v>371</v>
       </c>
       <c r="F397">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.4233999999999991</v>
       </c>
       <c r="G397">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.423400000000008</v>
       </c>
     </row>
@@ -7294,11 +7325,11 @@
         <v>372</v>
       </c>
       <c r="F398">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.4488000000000003</v>
       </c>
       <c r="G398">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.4488000000000074</v>
       </c>
     </row>
@@ -7307,11 +7338,11 @@
         <v>373</v>
       </c>
       <c r="F399">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.4741999999999997</v>
       </c>
       <c r="G399">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.4742000000000068</v>
       </c>
     </row>
@@ -7320,11 +7351,11 @@
         <v>374</v>
       </c>
       <c r="F400">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.4995999999999992</v>
       </c>
       <c r="G400">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.4996000000000063</v>
       </c>
     </row>
@@ -7333,11 +7364,11 @@
         <v>375</v>
       </c>
       <c r="F401">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.5250000000000004</v>
       </c>
       <c r="G401">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.5250000000000057</v>
       </c>
     </row>
@@ -7346,11 +7377,11 @@
         <v>376</v>
       </c>
       <c r="F402">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.5503999999999998</v>
       </c>
       <c r="G402">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.5504000000000051</v>
       </c>
     </row>
@@ -7359,11 +7390,11 @@
         <v>377</v>
       </c>
       <c r="F403">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.5757999999999992</v>
       </c>
       <c r="G403">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.5758000000000045</v>
       </c>
     </row>
@@ -7372,11 +7403,11 @@
         <v>378</v>
       </c>
       <c r="F404">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.6012000000000004</v>
       </c>
       <c r="G404">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.601200000000004</v>
       </c>
     </row>
@@ -7385,11 +7416,11 @@
         <v>379</v>
       </c>
       <c r="F405">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.6265999999999998</v>
       </c>
       <c r="G405">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.6266000000000034</v>
       </c>
     </row>
@@ -7398,11 +7429,11 @@
         <v>380</v>
       </c>
       <c r="F406">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.6519999999999992</v>
       </c>
       <c r="G406">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.6520000000000028</v>
       </c>
     </row>
@@ -7411,11 +7442,11 @@
         <v>381</v>
       </c>
       <c r="F407">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.6774000000000004</v>
       </c>
       <c r="G407">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.6774000000000022</v>
       </c>
     </row>
@@ -7424,11 +7455,11 @@
         <v>382</v>
       </c>
       <c r="F408">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.7027999999999999</v>
       </c>
       <c r="G408">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.7028000000000016</v>
       </c>
     </row>
@@ -7437,11 +7468,11 @@
         <v>383</v>
       </c>
       <c r="F409">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.7281999999999993</v>
       </c>
       <c r="G409">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.7282000000000011</v>
       </c>
     </row>
@@ -7450,11 +7481,11 @@
         <v>384</v>
       </c>
       <c r="F410">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.7535999999999987</v>
       </c>
       <c r="G410">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.7536000000000005</v>
       </c>
     </row>
@@ -7463,11 +7494,11 @@
         <v>385</v>
       </c>
       <c r="F411">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.7789999999999999</v>
       </c>
       <c r="G411">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.7789999999999999</v>
       </c>
     </row>
@@ -7476,11 +7507,11 @@
         <v>386</v>
       </c>
       <c r="F412">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>9.8043999999999993</v>
       </c>
       <c r="G412">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.8043999999999993</v>
       </c>
     </row>
@@ -7489,11 +7520,11 @@
         <v>387</v>
       </c>
       <c r="F413">
-        <f t="shared" ref="F413:F476" si="16">E413*0.0254</f>
+        <f t="shared" ref="F413:F476" si="20">E413*0.0254</f>
         <v>9.8297999999999988</v>
       </c>
       <c r="G413">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.8297999999999988</v>
       </c>
     </row>
@@ -7502,11 +7533,11 @@
         <v>388</v>
       </c>
       <c r="F414">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.8552</v>
       </c>
       <c r="G414">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.8551999999999982</v>
       </c>
     </row>
@@ -7515,11 +7546,11 @@
         <v>389</v>
       </c>
       <c r="F415">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.8805999999999994</v>
       </c>
       <c r="G415">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.8805999999999976</v>
       </c>
     </row>
@@ -7528,11 +7559,11 @@
         <v>390</v>
       </c>
       <c r="F416">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.9059999999999988</v>
       </c>
       <c r="G416">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.905999999999997</v>
       </c>
     </row>
@@ -7541,11 +7572,11 @@
         <v>391</v>
       </c>
       <c r="F417">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.9314</v>
       </c>
       <c r="G417">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.9313999999999965</v>
       </c>
     </row>
@@ -7554,11 +7585,11 @@
         <v>392</v>
       </c>
       <c r="F418">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.9567999999999994</v>
       </c>
       <c r="G418">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.9567999999999959</v>
       </c>
     </row>
@@ -7567,11 +7598,11 @@
         <v>393</v>
       </c>
       <c r="F419">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9.9821999999999989</v>
       </c>
       <c r="G419">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9.9821999999999953</v>
       </c>
     </row>
@@ -7580,11 +7611,11 @@
         <v>394</v>
       </c>
       <c r="F420">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.0076</v>
       </c>
       <c r="G420">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>10.007599999999995</v>
       </c>
     </row>
@@ -7593,11 +7624,11 @@
         <v>395</v>
       </c>
       <c r="F421">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.032999999999999</v>
       </c>
       <c r="G421">
-        <f t="shared" ref="G421:G463" si="17">G420+G$36/10</f>
+        <f t="shared" ref="G421:G463" si="21">G420+G$36/10</f>
         <v>10.032999999999994</v>
       </c>
     </row>
@@ -7606,11 +7637,11 @@
         <v>396</v>
       </c>
       <c r="F422">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.058399999999999</v>
       </c>
       <c r="G422">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.058399999999994</v>
       </c>
     </row>
@@ -7619,11 +7650,11 @@
         <v>397</v>
       </c>
       <c r="F423">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.0838</v>
       </c>
       <c r="G423">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.083799999999993</v>
       </c>
     </row>
@@ -7632,11 +7663,11 @@
         <v>398</v>
       </c>
       <c r="F424">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.1092</v>
       </c>
       <c r="G424">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.109199999999992</v>
       </c>
     </row>
@@ -7645,11 +7676,11 @@
         <v>399</v>
       </c>
       <c r="F425">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.134599999999999</v>
       </c>
       <c r="G425">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.134599999999992</v>
       </c>
     </row>
@@ -7658,11 +7689,11 @@
         <v>400</v>
       </c>
       <c r="F426">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.16</v>
       </c>
       <c r="G426">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.159999999999991</v>
       </c>
     </row>
@@ -7671,11 +7702,11 @@
         <v>401</v>
       </c>
       <c r="F427">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.1854</v>
       </c>
       <c r="G427">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.185399999999991</v>
       </c>
     </row>
@@ -7684,11 +7715,11 @@
         <v>402</v>
       </c>
       <c r="F428">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.210799999999999</v>
       </c>
       <c r="G428">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.21079999999999</v>
       </c>
     </row>
@@ -7697,11 +7728,11 @@
         <v>403</v>
       </c>
       <c r="F429">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.2362</v>
       </c>
       <c r="G429">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.23619999999999</v>
       </c>
     </row>
@@ -7710,11 +7741,11 @@
         <v>404</v>
       </c>
       <c r="F430">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.2616</v>
       </c>
       <c r="G430">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.261599999999989</v>
       </c>
     </row>
@@ -7723,11 +7754,11 @@
         <v>405</v>
       </c>
       <c r="F431">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.286999999999999</v>
       </c>
       <c r="G431">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.286999999999988</v>
       </c>
     </row>
@@ -7736,11 +7767,11 @@
         <v>406</v>
       </c>
       <c r="F432">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.3124</v>
       </c>
       <c r="G432">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.312399999999988</v>
       </c>
     </row>
@@ -7749,11 +7780,11 @@
         <v>407</v>
       </c>
       <c r="F433">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.3378</v>
       </c>
       <c r="G433">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.337799999999987</v>
       </c>
     </row>
@@ -7762,11 +7793,11 @@
         <v>408</v>
       </c>
       <c r="F434">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.363199999999999</v>
       </c>
       <c r="G434">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.363199999999987</v>
       </c>
     </row>
@@ -7775,11 +7806,11 @@
         <v>409</v>
       </c>
       <c r="F435">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.3886</v>
       </c>
       <c r="G435">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.388599999999986</v>
       </c>
     </row>
@@ -7788,11 +7819,11 @@
         <v>410</v>
       </c>
       <c r="F436">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.414</v>
       </c>
       <c r="G436">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.413999999999985</v>
       </c>
     </row>
@@ -7801,11 +7832,11 @@
         <v>411</v>
       </c>
       <c r="F437">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.439399999999999</v>
       </c>
       <c r="G437">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.439399999999985</v>
       </c>
     </row>
@@ -7814,11 +7845,11 @@
         <v>412</v>
       </c>
       <c r="F438">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.4648</v>
       </c>
       <c r="G438">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.464799999999984</v>
       </c>
     </row>
@@ -7827,11 +7858,11 @@
         <v>413</v>
       </c>
       <c r="F439">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.4902</v>
       </c>
       <c r="G439">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.490199999999984</v>
       </c>
     </row>
@@ -7840,11 +7871,11 @@
         <v>414</v>
       </c>
       <c r="F440">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.515599999999999</v>
       </c>
       <c r="G440">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.515599999999983</v>
       </c>
     </row>
@@ -7853,11 +7884,11 @@
         <v>415</v>
       </c>
       <c r="F441">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.541</v>
       </c>
       <c r="G441">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.540999999999983</v>
       </c>
     </row>
@@ -7866,11 +7897,11 @@
         <v>416</v>
       </c>
       <c r="F442">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.5664</v>
       </c>
       <c r="G442">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.566399999999982</v>
       </c>
     </row>
@@ -7879,11 +7910,11 @@
         <v>417</v>
       </c>
       <c r="F443">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.591799999999999</v>
       </c>
       <c r="G443">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.591799999999981</v>
       </c>
     </row>
@@ -7892,11 +7923,11 @@
         <v>418</v>
       </c>
       <c r="F444">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.6172</v>
       </c>
       <c r="G444">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.617199999999981</v>
       </c>
     </row>
@@ -7905,11 +7936,11 @@
         <v>419</v>
       </c>
       <c r="F445">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.6426</v>
       </c>
       <c r="G445">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.64259999999998</v>
       </c>
     </row>
@@ -7918,11 +7949,11 @@
         <v>420</v>
       </c>
       <c r="F446">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.667999999999999</v>
       </c>
       <c r="G446">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.66799999999998</v>
       </c>
     </row>
@@ -7931,11 +7962,11 @@
         <v>421</v>
       </c>
       <c r="F447">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.693399999999999</v>
       </c>
       <c r="G447">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.693399999999979</v>
       </c>
     </row>
@@ -7944,11 +7975,11 @@
         <v>422</v>
       </c>
       <c r="F448">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.7188</v>
       </c>
       <c r="G448">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.718799999999979</v>
       </c>
     </row>
@@ -7957,11 +7988,11 @@
         <v>423</v>
       </c>
       <c r="F449">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.744199999999999</v>
       </c>
       <c r="G449">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.744199999999978</v>
       </c>
     </row>
@@ -7970,11 +8001,11 @@
         <v>424</v>
       </c>
       <c r="F450">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.769599999999999</v>
       </c>
       <c r="G450">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.769599999999977</v>
       </c>
     </row>
@@ -7983,11 +8014,11 @@
         <v>425</v>
       </c>
       <c r="F451">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.795</v>
       </c>
       <c r="G451">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.794999999999977</v>
       </c>
     </row>
@@ -7996,11 +8027,11 @@
         <v>426</v>
       </c>
       <c r="F452">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.820399999999999</v>
       </c>
       <c r="G452">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.820399999999976</v>
       </c>
     </row>
@@ -8009,11 +8040,11 @@
         <v>427</v>
       </c>
       <c r="F453">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.845799999999999</v>
       </c>
       <c r="G453">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.845799999999976</v>
       </c>
     </row>
@@ -8022,11 +8053,11 @@
         <v>428</v>
       </c>
       <c r="F454">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.8712</v>
       </c>
       <c r="G454">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.871199999999975</v>
       </c>
     </row>
@@ -8035,11 +8066,11 @@
         <v>429</v>
       </c>
       <c r="F455">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.896599999999999</v>
       </c>
       <c r="G455">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.896599999999975</v>
       </c>
     </row>
@@ -8048,11 +8079,11 @@
         <v>430</v>
       </c>
       <c r="F456">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.921999999999999</v>
       </c>
       <c r="G456">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.921999999999974</v>
       </c>
     </row>
@@ -8061,11 +8092,11 @@
         <v>431</v>
       </c>
       <c r="F457">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.9474</v>
       </c>
       <c r="G457">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.947399999999973</v>
       </c>
     </row>
@@ -8074,11 +8105,11 @@
         <v>432</v>
       </c>
       <c r="F458">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.972799999999999</v>
       </c>
       <c r="G458">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.972799999999973</v>
       </c>
     </row>
@@ -8087,11 +8118,11 @@
         <v>433</v>
       </c>
       <c r="F459">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.998199999999999</v>
       </c>
       <c r="G459">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10.998199999999972</v>
       </c>
     </row>
@@ -8100,11 +8131,11 @@
         <v>434</v>
       </c>
       <c r="F460">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.0236</v>
       </c>
       <c r="G460">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11.023599999999972</v>
       </c>
     </row>
@@ -8113,11 +8144,11 @@
         <v>435</v>
       </c>
       <c r="F461">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.048999999999999</v>
       </c>
       <c r="G461">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11.048999999999971</v>
       </c>
     </row>
@@ -8126,11 +8157,11 @@
         <v>436</v>
       </c>
       <c r="F462">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.074399999999999</v>
       </c>
       <c r="G462">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11.07439999999997</v>
       </c>
     </row>
@@ -8139,11 +8170,11 @@
         <v>437</v>
       </c>
       <c r="F463">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.0998</v>
       </c>
       <c r="G463">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11.09979999999997</v>
       </c>
     </row>
@@ -8152,7 +8183,7 @@
         <v>438</v>
       </c>
       <c r="F464">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.1252</v>
       </c>
       <c r="G464">
@@ -8165,7 +8196,7 @@
         <v>439</v>
       </c>
       <c r="F465">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.150599999999999</v>
       </c>
       <c r="G465">
@@ -8178,7 +8209,7 @@
         <v>440</v>
       </c>
       <c r="F466">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.176</v>
       </c>
       <c r="G466">
@@ -8191,7 +8222,7 @@
         <v>441</v>
       </c>
       <c r="F467">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.2014</v>
       </c>
     </row>
@@ -8200,7 +8231,7 @@
         <v>442</v>
       </c>
       <c r="F468">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.226799999999999</v>
       </c>
     </row>
@@ -8209,7 +8240,7 @@
         <v>443</v>
       </c>
       <c r="F469">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.2522</v>
       </c>
     </row>
@@ -8218,7 +8249,7 @@
         <v>444</v>
       </c>
       <c r="F470">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.2776</v>
       </c>
     </row>
@@ -8227,7 +8258,7 @@
         <v>445</v>
       </c>
       <c r="F471">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.302999999999999</v>
       </c>
     </row>
@@ -8236,7 +8267,7 @@
         <v>446</v>
       </c>
       <c r="F472">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.3284</v>
       </c>
     </row>
@@ -8245,7 +8276,7 @@
         <v>447</v>
       </c>
       <c r="F473">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.3538</v>
       </c>
     </row>
@@ -8254,7 +8285,7 @@
         <v>448</v>
       </c>
       <c r="F474">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.379199999999999</v>
       </c>
     </row>
@@ -8263,7 +8294,7 @@
         <v>449</v>
       </c>
       <c r="F475">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.4046</v>
       </c>
     </row>
@@ -8272,7 +8303,7 @@
         <v>450</v>
       </c>
       <c r="F476">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11.43</v>
       </c>
     </row>
@@ -8281,7 +8312,7 @@
         <v>451</v>
       </c>
       <c r="F477">
-        <f t="shared" ref="F477:F526" si="18">E477*0.0254</f>
+        <f t="shared" ref="F477:F526" si="22">E477*0.0254</f>
         <v>11.455399999999999</v>
       </c>
     </row>
@@ -8290,7 +8321,7 @@
         <v>452</v>
       </c>
       <c r="F478">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.4808</v>
       </c>
     </row>
@@ -8299,7 +8330,7 @@
         <v>453</v>
       </c>
       <c r="F479">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.5062</v>
       </c>
     </row>
@@ -8308,7 +8339,7 @@
         <v>454</v>
       </c>
       <c r="F480">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.531599999999999</v>
       </c>
     </row>
@@ -8317,7 +8348,7 @@
         <v>455</v>
       </c>
       <c r="F481">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.557</v>
       </c>
     </row>
@@ -8326,7 +8357,7 @@
         <v>456</v>
       </c>
       <c r="F482">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.5824</v>
       </c>
     </row>
@@ -8335,7 +8366,7 @@
         <v>457</v>
       </c>
       <c r="F483">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.607799999999999</v>
       </c>
     </row>
@@ -8344,7 +8375,7 @@
         <v>458</v>
       </c>
       <c r="F484">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.633199999999999</v>
       </c>
     </row>
@@ -8353,7 +8384,7 @@
         <v>459</v>
       </c>
       <c r="F485">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.6586</v>
       </c>
     </row>
@@ -8362,7 +8393,7 @@
         <v>460</v>
       </c>
       <c r="F486">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.683999999999999</v>
       </c>
     </row>
@@ -8371,7 +8402,7 @@
         <v>461</v>
       </c>
       <c r="F487">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.709399999999999</v>
       </c>
     </row>
@@ -8380,7 +8411,7 @@
         <v>462</v>
       </c>
       <c r="F488">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.7348</v>
       </c>
     </row>
@@ -8389,7 +8420,7 @@
         <v>463</v>
       </c>
       <c r="F489">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.760199999999999</v>
       </c>
     </row>
@@ -8398,7 +8429,7 @@
         <v>464</v>
       </c>
       <c r="F490">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.785599999999999</v>
       </c>
     </row>
@@ -8407,7 +8438,7 @@
         <v>465</v>
       </c>
       <c r="F491">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.811</v>
       </c>
     </row>
@@ -8416,7 +8447,7 @@
         <v>466</v>
       </c>
       <c r="F492">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.836399999999999</v>
       </c>
     </row>
@@ -8425,7 +8456,7 @@
         <v>467</v>
       </c>
       <c r="F493">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.861799999999999</v>
       </c>
     </row>
@@ -8434,7 +8465,7 @@
         <v>468</v>
       </c>
       <c r="F494">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.8872</v>
       </c>
     </row>
@@ -8443,7 +8474,7 @@
         <v>469</v>
       </c>
       <c r="F495">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.912599999999999</v>
       </c>
     </row>
@@ -8452,7 +8483,7 @@
         <v>470</v>
       </c>
       <c r="F496">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.937999999999999</v>
       </c>
     </row>
@@ -8461,7 +8492,7 @@
         <v>471</v>
       </c>
       <c r="F497">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.9634</v>
       </c>
     </row>
@@ -8470,7 +8501,7 @@
         <v>472</v>
       </c>
       <c r="F498">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11.988799999999999</v>
       </c>
     </row>
@@ -8479,7 +8510,7 @@
         <v>473</v>
       </c>
       <c r="F499">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.014199999999999</v>
       </c>
     </row>
@@ -8488,7 +8519,7 @@
         <v>474</v>
       </c>
       <c r="F500">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.0396</v>
       </c>
     </row>
@@ -8497,7 +8528,7 @@
         <v>475</v>
       </c>
       <c r="F501">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.065</v>
       </c>
     </row>
@@ -8506,7 +8537,7 @@
         <v>476</v>
       </c>
       <c r="F502">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.090399999999999</v>
       </c>
     </row>
@@ -8515,7 +8546,7 @@
         <v>477</v>
       </c>
       <c r="F503">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.1158</v>
       </c>
     </row>
@@ -8524,7 +8555,7 @@
         <v>478</v>
       </c>
       <c r="F504">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.1412</v>
       </c>
     </row>
@@ -8533,7 +8564,7 @@
         <v>479</v>
       </c>
       <c r="F505">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.166599999999999</v>
       </c>
     </row>
@@ -8542,7 +8573,7 @@
         <v>480</v>
       </c>
       <c r="F506">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.192</v>
       </c>
     </row>
@@ -8551,7 +8582,7 @@
         <v>481</v>
       </c>
       <c r="F507">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.2174</v>
       </c>
     </row>
@@ -8560,7 +8591,7 @@
         <v>482</v>
       </c>
       <c r="F508">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.242799999999999</v>
       </c>
     </row>
@@ -8569,7 +8600,7 @@
         <v>483</v>
       </c>
       <c r="F509">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.2682</v>
       </c>
     </row>
@@ -8578,7 +8609,7 @@
         <v>484</v>
       </c>
       <c r="F510">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.2936</v>
       </c>
     </row>
@@ -8587,7 +8618,7 @@
         <v>485</v>
       </c>
       <c r="F511">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.318999999999999</v>
       </c>
     </row>
@@ -8596,7 +8627,7 @@
         <v>486</v>
       </c>
       <c r="F512">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.3444</v>
       </c>
     </row>
@@ -8605,7 +8636,7 @@
         <v>487</v>
       </c>
       <c r="F513">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.3698</v>
       </c>
     </row>
@@ -8614,7 +8645,7 @@
         <v>488</v>
       </c>
       <c r="F514">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.395199999999999</v>
       </c>
     </row>
@@ -8623,7 +8654,7 @@
         <v>489</v>
       </c>
       <c r="F515">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.4206</v>
       </c>
     </row>
@@ -8632,7 +8663,7 @@
         <v>490</v>
       </c>
       <c r="F516">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.446</v>
       </c>
     </row>
@@ -8641,7 +8672,7 @@
         <v>491</v>
       </c>
       <c r="F517">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.471399999999999</v>
       </c>
     </row>
@@ -8650,7 +8681,7 @@
         <v>492</v>
       </c>
       <c r="F518">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.4968</v>
       </c>
     </row>
@@ -8659,7 +8690,7 @@
         <v>493</v>
       </c>
       <c r="F519">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.5222</v>
       </c>
     </row>
@@ -8668,7 +8699,7 @@
         <v>494</v>
       </c>
       <c r="F520">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.547599999999999</v>
       </c>
     </row>
@@ -8677,7 +8708,7 @@
         <v>495</v>
       </c>
       <c r="F521">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.572999999999999</v>
       </c>
     </row>
@@ -8686,7 +8717,7 @@
         <v>496</v>
       </c>
       <c r="F522">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.5984</v>
       </c>
     </row>
@@ -8695,7 +8726,7 @@
         <v>497</v>
       </c>
       <c r="F523">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.623799999999999</v>
       </c>
     </row>
@@ -8704,7 +8735,7 @@
         <v>498</v>
       </c>
       <c r="F524">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.649199999999999</v>
       </c>
     </row>
@@ -8713,7 +8744,7 @@
         <v>499</v>
       </c>
       <c r="F525">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.6746</v>
       </c>
     </row>
@@ -8722,7 +8753,7 @@
         <v>500</v>
       </c>
       <c r="F526">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12.7</v>
       </c>
     </row>
